--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\sotuten\02_Document\team01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tk9hs\Desktop\team1_game\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="143">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1398,13 +1398,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>進ちゃん</t>
-    <rPh sb="0" eb="1">
-      <t>シン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>頼紀</t>
     <rPh sb="0" eb="1">
       <t>ライ</t>
@@ -1484,6 +1477,152 @@
   </si>
   <si>
     <t>C</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵仕様の仕様書作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステップについての仕様書作成</t>
+    <rPh sb="9" eb="12">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>波紋エフェクトの作成</t>
+    <rPh sb="0" eb="2">
+      <t>ハモン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プレイヤー仕様の仕様書作成</t>
+    <rPh sb="5" eb="7">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル画面仕様書作成</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１ステージ作成</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア表示に使用するフォントデータ用意</t>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトルロゴ作成</t>
+    <rPh sb="6" eb="8">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリア（リザルト）画面の仕様書作成</t>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>シヨウショ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステップボタン入力中に出すエフェクト作成</t>
+    <rPh sb="7" eb="10">
+      <t>ニュウリョクチュウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステップ成立時エフェクト作成</t>
+    <rPh sb="4" eb="6">
+      <t>セイリツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>１ステージ目ＢＧＭ用意</t>
+    <rPh sb="5" eb="6">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>進藤</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>進藤</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -2537,6 +2676,10 @@
     <xf numFmtId="49" fontId="17" fillId="9" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2601,10 +2744,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2612,123 +2751,7 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
+  <dxfs count="51">
     <dxf>
       <font>
         <condense val="0"/>
@@ -2748,196 +2771,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
       </font>
     </dxf>
     <dxf>
@@ -3214,6 +3047,124 @@
         <color indexed="10"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="55"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3374,7 +3325,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>100.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.400000000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,7 +3411,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3897,7 +3860,7 @@
                   <c:v>榎本</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>進ちゃん</c:v>
+                  <c:v>進藤</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>頼紀</c:v>
@@ -3912,19 +3875,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>13.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4031,7 +3994,7 @@
                   <c:v>榎本</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>進ちゃん</c:v>
+                  <c:v>進藤</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>頼紀</c:v>
@@ -4157,7 +4120,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>22.2</c:v>
@@ -4504,7 +4467,7 @@
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
     <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.51200000000000001" footer="0.51200000000000001"/>
-    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="0"/>
+    <c:pageSetup paperSize="9" orientation="landscape" horizontalDpi="300"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -5171,7 +5134,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5291,7 +5253,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5411,7 +5372,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -5524,7 +5484,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6419,7 +6378,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6539,7 +6497,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6659,7 +6616,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6772,7 +6728,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -7517,6 +7472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E222"/>
   <sheetViews>
     <sheetView topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
@@ -7534,19 +7490,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="101" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="100"/>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="101" t="s">
+      <c r="D2" s="102" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="101"/>
+      <c r="E2" s="102"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -7565,7 +7521,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="102" t="s">
+      <c r="A5" s="103" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -7574,21 +7530,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="103"/>
+      <c r="A6" s="104"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="103"/>
+      <c r="A7" s="104"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="103"/>
+      <c r="A8" s="104"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -7597,7 +7553,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="103"/>
+      <c r="A9" s="104"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -7607,49 +7563,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="103"/>
+      <c r="A10" s="104"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="103"/>
+      <c r="A11" s="104"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="103"/>
+      <c r="A12" s="104"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="103"/>
+      <c r="A13" s="104"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="103"/>
+      <c r="A14" s="104"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="103"/>
+      <c r="A15" s="104"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="103"/>
+      <c r="A16" s="104"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -7658,7 +7614,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="103"/>
+      <c r="A17" s="104"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -7668,49 +7624,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="103"/>
+      <c r="A18" s="104"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="103"/>
+      <c r="A19" s="104"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="103"/>
+      <c r="A20" s="104"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="103"/>
+      <c r="A21" s="104"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="103"/>
+      <c r="A22" s="104"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="103"/>
+      <c r="A23" s="104"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="103"/>
+      <c r="A24" s="104"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -7719,7 +7675,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="103"/>
+      <c r="A25" s="104"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -7729,49 +7685,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="103"/>
+      <c r="A26" s="104"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="103"/>
+      <c r="A27" s="104"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="103"/>
+      <c r="A28" s="104"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="103"/>
+      <c r="A29" s="104"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="103"/>
+      <c r="A30" s="104"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="103"/>
+      <c r="A31" s="104"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="103"/>
+      <c r="A32" s="104"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -7780,7 +7736,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="103"/>
+      <c r="A33" s="104"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -7790,49 +7746,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="103"/>
+      <c r="A34" s="104"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="103"/>
+      <c r="A35" s="104"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="103"/>
+      <c r="A36" s="104"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="103"/>
+      <c r="A37" s="104"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="103"/>
+      <c r="A38" s="104"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="103"/>
+      <c r="A39" s="104"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="103"/>
+      <c r="A40" s="104"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -7841,7 +7797,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="103"/>
+      <c r="A41" s="104"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -7851,28 +7807,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="103"/>
+      <c r="A42" s="104"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="103"/>
+      <c r="A43" s="104"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="103"/>
+      <c r="A44" s="104"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="103"/>
+      <c r="A45" s="104"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -7881,21 +7837,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="103"/>
+      <c r="A46" s="104"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="103"/>
+      <c r="A47" s="104"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="103"/>
+      <c r="A48" s="104"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -7904,7 +7860,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="103"/>
+      <c r="A49" s="104"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -7914,28 +7870,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="103"/>
+      <c r="A50" s="104"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="103"/>
+      <c r="A51" s="104"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="103"/>
+      <c r="A52" s="104"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="103"/>
+      <c r="A53" s="104"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -7944,7 +7900,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="103"/>
+      <c r="A54" s="104"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -7953,14 +7909,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="103"/>
+      <c r="A55" s="104"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="103"/>
+      <c r="A56" s="104"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -7969,7 +7925,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="103"/>
+      <c r="A57" s="104"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -7979,28 +7935,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="103"/>
+      <c r="A58" s="104"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="103"/>
+      <c r="A59" s="104"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="103"/>
+      <c r="A60" s="104"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="103"/>
+      <c r="A61" s="104"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -8009,7 +7965,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="103"/>
+      <c r="A62" s="104"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -8018,14 +7974,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="103"/>
+      <c r="A63" s="104"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="103"/>
+      <c r="A64" s="104"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -8034,7 +7990,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="103"/>
+      <c r="A65" s="104"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -8044,28 +8000,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="103"/>
+      <c r="A66" s="104"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="103"/>
+      <c r="A67" s="104"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="103"/>
+      <c r="A68" s="104"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="104" t="s">
+      <c r="A69" s="105" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -8074,21 +8030,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="105"/>
+      <c r="A70" s="106"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="105"/>
+      <c r="A71" s="106"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="105"/>
+      <c r="A72" s="106"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -8097,7 +8053,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="105"/>
+      <c r="A73" s="106"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -8107,49 +8063,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="105"/>
+      <c r="A74" s="106"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="105"/>
+      <c r="A75" s="106"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="105"/>
+      <c r="A76" s="106"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="105"/>
+      <c r="A77" s="106"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="105"/>
+      <c r="A78" s="106"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="105"/>
+      <c r="A79" s="106"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="105"/>
+      <c r="A80" s="106"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -8158,7 +8114,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="105"/>
+      <c r="A81" s="106"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -8168,49 +8124,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="105"/>
+      <c r="A82" s="106"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="105"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="105"/>
+      <c r="A84" s="106"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="105"/>
+      <c r="A85" s="106"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="105"/>
+      <c r="A86" s="106"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="105"/>
+      <c r="A87" s="106"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="105"/>
+      <c r="A88" s="106"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -8219,7 +8175,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="105"/>
+      <c r="A89" s="106"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -8229,49 +8185,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="105"/>
+      <c r="A90" s="106"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="105"/>
+      <c r="A91" s="106"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="105"/>
+      <c r="A92" s="106"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="105"/>
+      <c r="A93" s="106"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="105"/>
+      <c r="A94" s="106"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="105"/>
+      <c r="A95" s="106"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="105"/>
+      <c r="A96" s="106"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -8280,7 +8236,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="105"/>
+      <c r="A97" s="106"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -8290,49 +8246,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="105"/>
+      <c r="A98" s="106"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="105"/>
+      <c r="A99" s="106"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="105"/>
+      <c r="A100" s="106"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="105"/>
+      <c r="A101" s="106"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="105"/>
+      <c r="A102" s="106"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="105"/>
+      <c r="A103" s="106"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="105"/>
+      <c r="A104" s="106"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -8341,7 +8297,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="105"/>
+      <c r="A105" s="106"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -8351,49 +8307,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="105"/>
+      <c r="A106" s="106"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="105"/>
+      <c r="A107" s="106"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="105"/>
+      <c r="A108" s="106"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="105"/>
+      <c r="A109" s="106"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="105"/>
+      <c r="A110" s="106"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="105"/>
+      <c r="A111" s="106"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="105"/>
+      <c r="A112" s="106"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -8402,7 +8358,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="105"/>
+      <c r="A113" s="106"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -8412,49 +8368,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="105"/>
+      <c r="A114" s="106"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="105"/>
+      <c r="A115" s="106"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="105"/>
+      <c r="A116" s="106"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="105"/>
+      <c r="A117" s="106"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="105"/>
+      <c r="A118" s="106"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="105"/>
+      <c r="A119" s="106"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="105"/>
+      <c r="A120" s="106"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -8463,7 +8419,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="105"/>
+      <c r="A121" s="106"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -8473,49 +8429,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="105"/>
+      <c r="A122" s="106"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="105"/>
+      <c r="A123" s="106"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="105"/>
+      <c r="A124" s="106"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="105"/>
+      <c r="A125" s="106"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="105"/>
+      <c r="A126" s="106"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="105"/>
+      <c r="A127" s="106"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="105"/>
+      <c r="A128" s="106"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -8524,7 +8480,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="105"/>
+      <c r="A129" s="106"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -8534,28 +8490,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="105"/>
+      <c r="A130" s="106"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="105"/>
+      <c r="A131" s="106"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="105"/>
+      <c r="A132" s="106"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="105"/>
+      <c r="A133" s="106"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -8564,7 +8520,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="105"/>
+      <c r="A134" s="106"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -8573,14 +8529,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="105"/>
+      <c r="A135" s="106"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="105"/>
+      <c r="A136" s="106"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -8589,7 +8545,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="105"/>
+      <c r="A137" s="106"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -8599,28 +8555,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="105"/>
+      <c r="A138" s="106"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="105"/>
+      <c r="A139" s="106"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="105"/>
+      <c r="A140" s="106"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="105"/>
+      <c r="A141" s="106"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -8629,7 +8585,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="105"/>
+      <c r="A142" s="106"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -8638,14 +8594,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="105"/>
+      <c r="A143" s="106"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="105"/>
+      <c r="A144" s="106"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -8654,7 +8610,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="105"/>
+      <c r="A145" s="106"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -8664,28 +8620,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="105"/>
+      <c r="A146" s="106"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="105"/>
+      <c r="A147" s="106"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="106"/>
+      <c r="A148" s="107"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="107" t="s">
+      <c r="A149" s="108" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -8694,21 +8650,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="108"/>
+      <c r="A150" s="109"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="108"/>
+      <c r="A151" s="109"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="108"/>
+      <c r="A152" s="109"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -8717,7 +8673,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="108"/>
+      <c r="A153" s="109"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -8727,49 +8683,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="108"/>
+      <c r="A154" s="109"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="108"/>
+      <c r="A155" s="109"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="108"/>
+      <c r="A156" s="109"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="108"/>
+      <c r="A157" s="109"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="108"/>
+      <c r="A158" s="109"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="108"/>
+      <c r="A159" s="109"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="108"/>
+      <c r="A160" s="109"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -8778,7 +8734,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="108"/>
+      <c r="A161" s="109"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -8788,28 +8744,28 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="108"/>
+      <c r="A162" s="109"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="108"/>
+      <c r="A163" s="109"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="108"/>
+      <c r="A164" s="109"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="108"/>
+      <c r="A165" s="109"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75" t="s">
         <v>77</v>
@@ -8818,7 +8774,7 @@
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="108"/>
+      <c r="A166" s="109"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75" t="s">
         <v>76</v>
@@ -8827,14 +8783,14 @@
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="108"/>
+      <c r="A167" s="109"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="108"/>
+      <c r="A168" s="109"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -8843,7 +8799,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="108"/>
+      <c r="A169" s="109"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -8853,49 +8809,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="108"/>
+      <c r="A170" s="109"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="108"/>
+      <c r="A171" s="109"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="108"/>
+      <c r="A172" s="109"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="108"/>
+      <c r="A173" s="109"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="108"/>
+      <c r="A174" s="109"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="108"/>
+      <c r="A175" s="109"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="108"/>
+      <c r="A176" s="109"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -8904,7 +8860,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="108"/>
+      <c r="A177" s="109"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -8914,49 +8870,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="108"/>
+      <c r="A178" s="109"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="108"/>
+      <c r="A179" s="109"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="108"/>
+      <c r="A180" s="109"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="108"/>
+      <c r="A181" s="109"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="108"/>
+      <c r="A182" s="109"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="108"/>
+      <c r="A183" s="109"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="108"/>
+      <c r="A184" s="109"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -8965,7 +8921,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="108"/>
+      <c r="A185" s="109"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -8975,28 +8931,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="108"/>
+      <c r="A186" s="109"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="108"/>
+      <c r="A187" s="109"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="108"/>
+      <c r="A188" s="109"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="108"/>
+      <c r="A189" s="109"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -9005,7 +8961,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="108"/>
+      <c r="A190" s="109"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -9014,14 +8970,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="108"/>
+      <c r="A191" s="109"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="108"/>
+      <c r="A192" s="109"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -9030,7 +8986,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="108"/>
+      <c r="A193" s="109"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -9040,28 +8996,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="108"/>
+      <c r="A194" s="109"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="108"/>
+      <c r="A195" s="109"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="108"/>
+      <c r="A196" s="109"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="108"/>
+      <c r="A197" s="109"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -9070,7 +9026,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="108"/>
+      <c r="A198" s="109"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -9079,14 +9035,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="108"/>
+      <c r="A199" s="109"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="108"/>
+      <c r="A200" s="109"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -9095,7 +9051,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="108"/>
+      <c r="A201" s="109"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -9105,21 +9061,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="108"/>
+      <c r="A202" s="109"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="108"/>
+      <c r="A203" s="109"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="109"/>
+      <c r="A204" s="110"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -9209,10 +9165,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9233,58 +9191,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="119" t="s">
-        <v>120</v>
-      </c>
-      <c r="E1" s="113" t="s">
+      <c r="D1" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="113" t="s">
+      <c r="J1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="110" t="s">
+      <c r="K1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="111"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
     </row>
     <row r="2" spans="1:33" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="114"/>
       <c r="K2" s="23" t="s">
         <v>49</v>
       </c>
@@ -9311,22 +9269,28 @@
       </c>
     </row>
     <row r="3" spans="1:33" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="121"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="119"/>
+      <c r="J3" s="114"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>5</v>
-      </c>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" ref="L3:M3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
+        <v>87</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
@@ -9334,29 +9298,35 @@
       <c r="R3" s="20"/>
     </row>
     <row r="4" spans="1:33" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="116"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="122"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="117"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="119"/>
+      <c r="J4" s="114"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>5</v>
-      </c>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
+        <v>100.4</v>
+      </c>
+      <c r="L4" s="21">
+        <f t="shared" ref="L4:M4" si="1">SUM(L5:L104)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="M4" s="21">
+        <f t="shared" si="1"/>
+        <v>77.400000000000006</v>
+      </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="AG4" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -9367,14 +9337,14 @@
         <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5" s="12" t="str">
         <f ca="1">IF(ISBLANK($B5),"",IF(ISBLANK(G5),"未着手",IF($J5=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F5" s="4">
         <v>43032</v>
@@ -9390,20 +9360,26 @@
       </c>
       <c r="J5" s="12">
         <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:O5)),"")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K5" s="22">
         <v>2</v>
       </c>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
+      <c r="L5" s="22">
+        <v>2</v>
+      </c>
+      <c r="M5" s="22">
+        <v>2</v>
+      </c>
+      <c r="N5" s="22">
+        <v>0</v>
+      </c>
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="AG5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9414,10 +9390,10 @@
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="12" t="str">
         <f>IF(ISBLANK($B6),"",IF(ISBLANK(G6),"未着手",IF($J6=0,"完了","作業中")))</f>
@@ -9433,20 +9409,26 @@
       <c r="I6" s="19"/>
       <c r="J6" s="12">
         <f ca="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:O6)),"")</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K6" s="22">
         <v>3</v>
       </c>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
+      <c r="L6" s="22">
+        <v>3</v>
+      </c>
+      <c r="M6" s="22">
+        <v>3</v>
+      </c>
+      <c r="N6" s="22">
+        <v>0</v>
+      </c>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="AG6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9457,14 +9439,14 @@
         <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E7" s="12" t="str">
         <f ca="1">IF(ISBLANK($B7),"",IF(ISBLANK(G7),"未着手",IF($J7=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F7" s="4">
         <v>43032</v>
@@ -9476,20 +9458,28 @@
         <v>1</v>
       </c>
       <c r="I7" s="19"/>
-      <c r="J7" s="12" t="str">
+      <c r="J7" s="12">
         <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:O7)),"")</f>
-        <v/>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
+      </c>
+      <c r="L7" s="19">
+        <v>1</v>
+      </c>
+      <c r="M7" s="19">
+        <v>1</v>
+      </c>
+      <c r="N7" s="22">
+        <v>0</v>
+      </c>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="AG7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9500,10 +9490,10 @@
         <v>81</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E8" s="12" t="str">
         <f>IF(ISBLANK($B8),"",IF(ISBLANK(G8),"未着手",IF($J8=0,"完了","作業中")))</f>
@@ -9517,14 +9507,22 @@
         <v>2</v>
       </c>
       <c r="I8" s="19"/>
-      <c r="J8" s="12" t="str">
+      <c r="J8" s="12">
         <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:O8)),"")</f>
-        <v/>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>2</v>
+      </c>
+      <c r="L8" s="19">
+        <v>2</v>
+      </c>
+      <c r="M8" s="19">
+        <v>2</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
@@ -9534,14 +9532,14 @@
       <c r="A9" s="16">
         <v>5</v>
       </c>
-      <c r="B9" s="122" t="s">
+      <c r="B9" s="100" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E9" s="12" t="str">
         <f>IF(ISBLANK($B9),"",IF(ISBLANK(G9),"未着手",IF($J9=0,"完了","作業中")))</f>
@@ -9555,14 +9553,22 @@
         <v>2</v>
       </c>
       <c r="I9" s="19"/>
-      <c r="J9" s="12" t="str">
+      <c r="J9" s="12">
         <f ca="1">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:O9)),"")</f>
-        <v/>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>2</v>
+      </c>
+      <c r="L9" s="19">
+        <v>2</v>
+      </c>
+      <c r="M9" s="19">
+        <v>2</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
@@ -9573,13 +9579,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E10" s="12" t="str">
         <f>IF(ISBLANK($B10),"",IF(ISBLANK(G10),"未着手",IF($J10=0,"完了","作業中")))</f>
@@ -9593,13 +9599,19 @@
         <v>2</v>
       </c>
       <c r="I10" s="19"/>
-      <c r="J10" s="12" t="str">
+      <c r="J10" s="12">
         <f ca="1">IF(ISBLANK(K10)=FALSE,OFFSET(J10,0,COUNTA(K10:O10)),"")</f>
-        <v/>
-      </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="19">
+        <v>2</v>
+      </c>
+      <c r="L10" s="19">
+        <v>2</v>
+      </c>
+      <c r="M10" s="19">
+        <v>2</v>
+      </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
@@ -9610,14 +9622,14 @@
       <c r="A11" s="16">
         <v>7</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="100" t="s">
         <v>83</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E11" s="12" t="str">
         <f>IF(ISBLANK($B11),"",IF(ISBLANK(G11),"未着手",IF($J11=0,"完了","作業中")))</f>
@@ -9631,14 +9643,22 @@
         <v>3</v>
       </c>
       <c r="I11" s="19"/>
-      <c r="J11" s="12" t="str">
+      <c r="J11" s="12">
         <f ca="1">IF(ISBLANK(K11)=FALSE,OFFSET(J11,0,COUNTA(K11:O11)),"")</f>
-        <v/>
-      </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K11" s="19">
+        <v>3</v>
+      </c>
+      <c r="L11" s="19">
+        <v>3</v>
+      </c>
+      <c r="M11" s="19">
+        <v>3</v>
+      </c>
+      <c r="N11" s="22">
+        <v>2</v>
+      </c>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
@@ -9655,7 +9675,7 @@
         <v>114</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E12" s="12" t="str">
         <f>IF(ISBLANK($B12),"",IF(ISBLANK(G12),"未着手",IF($J12=0,"完了","作業中")))</f>
@@ -9669,13 +9689,19 @@
         <v>3</v>
       </c>
       <c r="I12" s="19"/>
-      <c r="J12" s="12" t="str">
+      <c r="J12" s="12">
         <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:O12)),"")</f>
-        <v/>
-      </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K12" s="19">
+        <v>3</v>
+      </c>
+      <c r="L12" s="19">
+        <v>3</v>
+      </c>
+      <c r="M12" s="19">
+        <v>3</v>
+      </c>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
@@ -9693,7 +9719,7 @@
         <v>114</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E13" s="12" t="str">
         <f>IF(ISBLANK($B13),"",IF(ISBLANK(G13),"未着手",IF($J13=0,"完了","作業中")))</f>
@@ -9707,13 +9733,19 @@
         <v>3</v>
       </c>
       <c r="I13" s="19"/>
-      <c r="J13" s="12" t="str">
+      <c r="J13" s="12">
         <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:O13)),"")</f>
-        <v/>
-      </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K13" s="19">
+        <v>3</v>
+      </c>
+      <c r="L13" s="19">
+        <v>3</v>
+      </c>
+      <c r="M13" s="19">
+        <v>3</v>
+      </c>
       <c r="N13" s="22"/>
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
@@ -9731,11 +9763,11 @@
         <v>113</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E14" s="12" t="str">
         <f ca="1">IF(ISBLANK($B14),"",IF(ISBLANK(G14),"未着手",IF($J14=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F14" s="4">
         <v>43025</v>
@@ -9747,14 +9779,22 @@
         <v>1</v>
       </c>
       <c r="I14" s="19"/>
-      <c r="J14" s="12" t="str">
+      <c r="J14" s="12">
         <f ca="1">IF(ISBLANK(K14)=FALSE,OFFSET(J14,0,COUNTA(K14:O14)),"")</f>
-        <v/>
-      </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
+        <v>1</v>
+      </c>
+      <c r="M14" s="19">
+        <v>1</v>
+      </c>
+      <c r="N14" s="22">
+        <v>0</v>
+      </c>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
@@ -9771,11 +9811,11 @@
         <v>113</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E15" s="12" t="str">
         <f ca="1">IF(ISBLANK($B15),"",IF(ISBLANK(G15),"未着手",IF($J15=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F15" s="4">
         <v>43032</v>
@@ -9787,14 +9827,22 @@
         <v>0.1</v>
       </c>
       <c r="I15" s="19"/>
-      <c r="J15" s="12" t="str">
+      <c r="J15" s="12">
         <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:O15)),"")</f>
-        <v/>
-      </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="M15" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="N15" s="22">
+        <v>0</v>
+      </c>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
@@ -9811,11 +9859,11 @@
         <v>113</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E16" s="12" t="str">
         <f ca="1">IF(ISBLANK($B16),"",IF(ISBLANK(G16),"未着手",IF($J16=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F16" s="4">
         <v>43032</v>
@@ -9827,14 +9875,22 @@
         <v>0.1</v>
       </c>
       <c r="I16" s="19"/>
-      <c r="J16" s="12" t="str">
+      <c r="J16" s="12">
         <f ca="1">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:O16)),"")</f>
-        <v/>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="M16" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="N16" s="22">
+        <v>0</v>
+      </c>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
@@ -9851,28 +9907,38 @@
         <v>113</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f>IF(ISBLANK($B17),"",IF(ISBLANK(G17),"未着手",IF($J17=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B17),"",IF(ISBLANK(G17),"未着手",IF($J17=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F17" s="4">
         <v>43035</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4">
+        <v>43035</v>
+      </c>
       <c r="H17" s="19">
         <v>2</v>
       </c>
       <c r="I17" s="19"/>
-      <c r="J17" s="12" t="str">
+      <c r="J17" s="12">
         <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:O17)),"")</f>
-        <v/>
-      </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>2</v>
+      </c>
+      <c r="L17" s="19">
+        <v>2</v>
+      </c>
+      <c r="M17" s="19">
+        <v>2</v>
+      </c>
+      <c r="N17" s="22">
+        <v>2</v>
+      </c>
       <c r="O17" s="22"/>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
@@ -9889,7 +9955,7 @@
         <v>113</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E18" s="12" t="str">
         <f>IF(ISBLANK($B18),"",IF(ISBLANK(G18),"未着手",IF($J18=0,"完了","作業中")))</f>
@@ -9903,14 +9969,22 @@
         <v>2</v>
       </c>
       <c r="I18" s="19"/>
-      <c r="J18" s="12" t="str">
+      <c r="J18" s="12">
         <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:O18)),"")</f>
-        <v/>
-      </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
+      </c>
+      <c r="L18" s="19">
+        <v>2</v>
+      </c>
+      <c r="M18" s="19">
+        <v>2</v>
+      </c>
+      <c r="N18" s="22">
+        <v>0</v>
+      </c>
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
@@ -9927,7 +10001,7 @@
         <v>113</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E19" s="12" t="str">
         <f>IF(ISBLANK($B19),"",IF(ISBLANK(G19),"未着手",IF($J19=0,"完了","作業中")))</f>
@@ -9941,9 +10015,9 @@
         <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:O19)),"")</f>
         <v/>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
       <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
@@ -9961,28 +10035,38 @@
         <v>113</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f>IF(ISBLANK($B20),"",IF(ISBLANK(G20),"未着手",IF($J20=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B20),"",IF(ISBLANK(G20),"未着手",IF($J20=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F20" s="4">
         <v>43035</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4">
+        <v>43035</v>
+      </c>
       <c r="H20" s="19">
         <v>2</v>
       </c>
       <c r="I20" s="19"/>
-      <c r="J20" s="12" t="str">
+      <c r="J20" s="12">
         <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:O20)),"")</f>
-        <v/>
-      </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>2</v>
+      </c>
+      <c r="L20" s="19">
+        <v>2</v>
+      </c>
+      <c r="M20" s="19">
+        <v>2</v>
+      </c>
+      <c r="N20" s="22">
+        <v>0</v>
+      </c>
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
@@ -9999,7 +10083,7 @@
         <v>113</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E21" s="12" t="str">
         <f>IF(ISBLANK($B21),"",IF(ISBLANK(G21),"未着手",IF($J21=0,"完了","作業中")))</f>
@@ -10013,13 +10097,19 @@
         <v>1</v>
       </c>
       <c r="I21" s="19"/>
-      <c r="J21" s="12" t="str">
+      <c r="J21" s="12">
         <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:O21)),"")</f>
-        <v/>
-      </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1</v>
+      </c>
+      <c r="L21" s="19">
+        <v>1</v>
+      </c>
+      <c r="M21" s="19">
+        <v>1</v>
+      </c>
       <c r="N21" s="22"/>
       <c r="O21" s="22"/>
       <c r="P21" s="22"/>
@@ -10037,7 +10127,7 @@
         <v>113</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="12" t="str">
         <f>IF(ISBLANK($B22),"",IF(ISBLANK(G22),"未着手",IF($J22=0,"完了","作業中")))</f>
@@ -10051,13 +10141,19 @@
         <v>0.5</v>
       </c>
       <c r="I22" s="19"/>
-      <c r="J22" s="12" t="str">
+      <c r="J22" s="12">
         <f ca="1">IF(ISBLANK(K22)=FALSE,OFFSET(J22,0,COUNTA(K22:O22)),"")</f>
-        <v/>
-      </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="K22" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0.5</v>
+      </c>
       <c r="N22" s="22"/>
       <c r="O22" s="22"/>
       <c r="P22" s="22"/>
@@ -10075,7 +10171,7 @@
         <v>113</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E23" s="12" t="str">
         <f>IF(ISBLANK($B23),"",IF(ISBLANK(G23),"未着手",IF($J23=0,"完了","作業中")))</f>
@@ -10089,13 +10185,19 @@
         <v>0.5</v>
       </c>
       <c r="I23" s="19"/>
-      <c r="J23" s="12" t="str">
+      <c r="J23" s="12">
         <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:O23)),"")</f>
-        <v/>
-      </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="K23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0.5</v>
+      </c>
       <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
@@ -10113,7 +10215,7 @@
         <v>113</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E24" s="12" t="str">
         <f>IF(ISBLANK($B24),"",IF(ISBLANK(G24),"未着手",IF($J24=0,"完了","作業中")))</f>
@@ -10127,13 +10229,19 @@
         <v>2</v>
       </c>
       <c r="I24" s="19"/>
-      <c r="J24" s="12" t="str">
+      <c r="J24" s="12">
         <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:O24)),"")</f>
-        <v/>
-      </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K24" s="19">
+        <v>2</v>
+      </c>
+      <c r="L24" s="19">
+        <v>2</v>
+      </c>
+      <c r="M24" s="19">
+        <v>2</v>
+      </c>
       <c r="N24" s="22"/>
       <c r="O24" s="22"/>
       <c r="P24" s="22"/>
@@ -10148,31 +10256,41 @@
         <v>96</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f>IF(ISBLANK($B25),"",IF(ISBLANK(G25),"未着手",IF($J25=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B25),"",IF(ISBLANK(G25),"未着手",IF($J25=0,"完了","作業中")))</f>
+        <v>完了</v>
       </c>
       <c r="F25" s="4">
         <v>43035</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4">
+        <v>43035</v>
+      </c>
       <c r="H25" s="19">
         <v>2</v>
       </c>
       <c r="I25" s="19"/>
-      <c r="J25" s="12" t="str">
+      <c r="J25" s="12">
         <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:O25)),"")</f>
-        <v/>
-      </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="19">
+        <v>2</v>
+      </c>
+      <c r="L25" s="19">
+        <v>2</v>
+      </c>
+      <c r="M25" s="19">
+        <v>2</v>
+      </c>
+      <c r="N25" s="22">
+        <v>0</v>
+      </c>
       <c r="O25" s="22"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
@@ -10186,10 +10304,10 @@
         <v>97</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E26" s="12" t="str">
         <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK(G26),"未着手",IF($J26=0,"完了","作業中")))</f>
@@ -10205,14 +10323,22 @@
         <v>2</v>
       </c>
       <c r="I26" s="19"/>
-      <c r="J26" s="12" t="str">
+      <c r="J26" s="12">
         <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:O26)),"")</f>
-        <v/>
-      </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K26" s="19">
+        <v>2</v>
+      </c>
+      <c r="L26" s="19">
+        <v>2</v>
+      </c>
+      <c r="M26" s="19">
+        <v>2</v>
+      </c>
+      <c r="N26" s="22">
+        <v>1</v>
+      </c>
       <c r="O26" s="22"/>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
@@ -10229,11 +10355,11 @@
         <v>113</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E27" s="12" t="str">
         <f ca="1">IF(ISBLANK($B27),"",IF(ISBLANK(G27),"未着手",IF($J27=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F27" s="4">
         <v>43032</v>
@@ -10245,14 +10371,22 @@
         <v>3</v>
       </c>
       <c r="I27" s="19"/>
-      <c r="J27" s="12" t="str">
+      <c r="J27" s="12">
         <f ca="1">IF(ISBLANK(K27)=FALSE,OFFSET(J27,0,COUNTA(K27:O27)),"")</f>
-        <v/>
-      </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="19">
+        <v>3</v>
+      </c>
+      <c r="L27" s="19">
+        <v>3</v>
+      </c>
+      <c r="M27" s="19">
+        <v>3</v>
+      </c>
+      <c r="N27" s="22">
+        <v>0</v>
+      </c>
       <c r="O27" s="22"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
@@ -10269,11 +10403,11 @@
         <v>113</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E28" s="12" t="str">
         <f ca="1">IF(ISBLANK($B28),"",IF(ISBLANK(G28),"未着手",IF($J28=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F28" s="4">
         <v>43032</v>
@@ -10285,14 +10419,22 @@
         <v>2</v>
       </c>
       <c r="I28" s="19"/>
-      <c r="J28" s="12" t="str">
+      <c r="J28" s="12">
         <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:O28)),"")</f>
-        <v/>
-      </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="19">
+        <v>2</v>
+      </c>
+      <c r="L28" s="19">
+        <v>2</v>
+      </c>
+      <c r="M28" s="19">
+        <v>2</v>
+      </c>
+      <c r="N28" s="22">
+        <v>0</v>
+      </c>
       <c r="O28" s="22"/>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
@@ -10309,7 +10451,7 @@
         <v>113</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E29" s="12" t="str">
         <f>IF(ISBLANK($B29),"",IF(ISBLANK(G29),"未着手",IF($J29=0,"完了","作業中")))</f>
@@ -10323,9 +10465,9 @@
         <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:O29)),"")</f>
         <v/>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
       <c r="N29" s="22"/>
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
@@ -10343,7 +10485,7 @@
         <v>113</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E30" s="12" t="str">
         <f>IF(ISBLANK($B30),"",IF(ISBLANK(G30),"未着手",IF($J30=0,"完了","作業中")))</f>
@@ -10357,9 +10499,9 @@
         <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:O30)),"")</f>
         <v/>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
       <c r="P30" s="22"/>
@@ -10377,7 +10519,7 @@
         <v>113</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E31" s="12" t="str">
         <f>IF(ISBLANK($B31),"",IF(ISBLANK(G31),"未着手",IF($J31=0,"完了","作業中")))</f>
@@ -10391,9 +10533,9 @@
         <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:O31)),"")</f>
         <v/>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="22"/>
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
@@ -10408,10 +10550,10 @@
         <v>102</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E32" s="12" t="str">
         <f>IF(ISBLANK($B32),"",IF(ISBLANK(G32),"未着手",IF($J32=0,"完了","作業中")))</f>
@@ -10425,13 +10567,19 @@
         <v>2</v>
       </c>
       <c r="I32" s="19"/>
-      <c r="J32" s="12" t="str">
+      <c r="J32" s="12">
         <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:O32)),"")</f>
-        <v/>
-      </c>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K32" s="19">
+        <v>2</v>
+      </c>
+      <c r="L32" s="19">
+        <v>2</v>
+      </c>
+      <c r="M32" s="19">
+        <v>2</v>
+      </c>
       <c r="N32" s="22"/>
       <c r="O32" s="22"/>
       <c r="P32" s="22"/>
@@ -10446,30 +10594,38 @@
         <v>103</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f>IF(ISBLANK($B33),"",IF(ISBLANK(G33),"未着手",IF($J33=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B33),"",IF(ISBLANK(G33),"未着手",IF($J33=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F33" s="4">
         <v>43035</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>43035</v>
+      </c>
       <c r="H33" s="19">
         <v>0.1</v>
       </c>
       <c r="I33" s="19"/>
-      <c r="J33" s="12" t="str">
+      <c r="J33" s="12">
         <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:O33)),"")</f>
-        <v/>
-      </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="K33" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L33" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="M33" s="19">
+        <v>0.1</v>
+      </c>
       <c r="N33" s="22"/>
       <c r="O33" s="22"/>
       <c r="P33" s="22"/>
@@ -10484,10 +10640,10 @@
         <v>104</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E34" s="12" t="str">
         <f>IF(ISBLANK($B34),"",IF(ISBLANK(G34),"未着手",IF($J34=0,"完了","作業中")))</f>
@@ -10501,13 +10657,19 @@
         <v>3</v>
       </c>
       <c r="I34" s="19"/>
-      <c r="J34" s="12" t="str">
+      <c r="J34" s="12">
         <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:O34)),"")</f>
-        <v/>
-      </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
+        <v>3</v>
+      </c>
+      <c r="K34" s="19">
+        <v>3</v>
+      </c>
+      <c r="L34" s="19">
+        <v>3</v>
+      </c>
+      <c r="M34" s="19">
+        <v>3</v>
+      </c>
       <c r="N34" s="22"/>
       <c r="O34" s="22"/>
       <c r="P34" s="22"/>
@@ -10522,30 +10684,38 @@
         <v>105</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f>IF(ISBLANK($B35),"",IF(ISBLANK(G35),"未着手",IF($J35=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B35),"",IF(ISBLANK(G35),"未着手",IF($J35=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F35" s="4">
         <v>43035</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4">
+        <v>43035</v>
+      </c>
       <c r="H35" s="19">
         <v>0.1</v>
       </c>
       <c r="I35" s="19"/>
-      <c r="J35" s="12" t="str">
+      <c r="J35" s="12">
         <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:O35)),"")</f>
-        <v/>
-      </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="K35" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="L35" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="M35" s="19">
+        <v>0.1</v>
+      </c>
       <c r="N35" s="22"/>
       <c r="O35" s="22"/>
       <c r="P35" s="22"/>
@@ -10560,10 +10730,10 @@
         <v>107</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E36" s="12" t="str">
         <f ca="1">IF(ISBLANK($B36),"",IF(ISBLANK(G36),"未着手",IF($J36=0,"完了","作業中")))</f>
@@ -10579,14 +10749,22 @@
         <v>3</v>
       </c>
       <c r="I36" s="19"/>
-      <c r="J36" s="12" t="str">
+      <c r="J36" s="12">
         <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:O36)),"")</f>
-        <v/>
-      </c>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K36" s="19">
+        <v>3</v>
+      </c>
+      <c r="L36" s="19">
+        <v>3</v>
+      </c>
+      <c r="M36" s="19">
+        <v>3</v>
+      </c>
+      <c r="N36" s="22">
+        <v>1</v>
+      </c>
       <c r="O36" s="22"/>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
@@ -10600,31 +10778,41 @@
         <v>108</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f>IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F37" s="4">
         <v>43035</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4">
+        <v>43035</v>
+      </c>
       <c r="H37" s="19">
         <v>4</v>
       </c>
       <c r="I37" s="19"/>
-      <c r="J37" s="12" t="str">
+      <c r="J37" s="12">
         <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:O37)),"")</f>
-        <v/>
-      </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K37" s="19">
+        <v>4</v>
+      </c>
+      <c r="L37" s="19">
+        <v>4</v>
+      </c>
+      <c r="M37" s="19">
+        <v>4</v>
+      </c>
+      <c r="N37" s="22">
+        <v>1</v>
+      </c>
       <c r="O37" s="22"/>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
@@ -10638,31 +10826,41 @@
         <v>109</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f>IF(ISBLANK($B38),"",IF(ISBLANK(G38),"未着手",IF($J38=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B38),"",IF(ISBLANK(G38),"未着手",IF($J38=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F38" s="4">
         <v>43039</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4">
+        <v>43035</v>
+      </c>
       <c r="H38" s="19">
         <v>3</v>
       </c>
       <c r="I38" s="19"/>
-      <c r="J38" s="12" t="str">
+      <c r="J38" s="12">
         <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:O38)),"")</f>
-        <v/>
-      </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K38" s="19">
+        <v>3</v>
+      </c>
+      <c r="L38" s="19">
+        <v>3</v>
+      </c>
+      <c r="M38" s="19">
+        <v>3</v>
+      </c>
+      <c r="N38" s="22">
+        <v>1</v>
+      </c>
       <c r="O38" s="22"/>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
@@ -10676,31 +10874,41 @@
         <v>110</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f>IF(ISBLANK($B39),"",IF(ISBLANK(G39),"未着手",IF($J39=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B39),"",IF(ISBLANK(G39),"未着手",IF($J39=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F39" s="4">
         <v>43039</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4">
+        <v>43035</v>
+      </c>
       <c r="H39" s="19">
         <v>3</v>
       </c>
       <c r="I39" s="19"/>
-      <c r="J39" s="12" t="str">
+      <c r="J39" s="12">
         <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:O39)),"")</f>
-        <v/>
-      </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K39" s="19">
+        <v>3</v>
+      </c>
+      <c r="L39" s="19">
+        <v>3</v>
+      </c>
+      <c r="M39" s="19">
+        <v>3</v>
+      </c>
+      <c r="N39" s="22">
+        <v>1</v>
+      </c>
       <c r="O39" s="22"/>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
@@ -10717,7 +10925,7 @@
         <v>113</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E40" s="12" t="str">
         <f>IF(ISBLANK($B40),"",IF(ISBLANK(G40),"未着手",IF($J40=0,"完了","作業中")))</f>
@@ -10731,13 +10939,19 @@
         <v>6</v>
       </c>
       <c r="I40" s="19"/>
-      <c r="J40" s="12" t="str">
+      <c r="J40" s="12">
         <f ca="1">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:O40)),"")</f>
-        <v/>
-      </c>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="K40" s="19">
+        <v>6</v>
+      </c>
+      <c r="L40" s="19">
+        <v>6</v>
+      </c>
+      <c r="M40" s="19">
+        <v>6</v>
+      </c>
       <c r="N40" s="22"/>
       <c r="O40" s="22"/>
       <c r="P40" s="22"/>
@@ -10749,33 +10963,41 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f>IF(ISBLANK($B41),"",IF(ISBLANK(G41),"未着手",IF($J41=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B41),"",IF(ISBLANK(G41),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F41" s="4">
         <v>43035</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4">
+        <v>43035</v>
+      </c>
       <c r="H41" s="19">
         <v>6</v>
       </c>
       <c r="I41" s="19"/>
-      <c r="J41" s="12" t="str">
+      <c r="J41" s="12">
         <f ca="1">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:O41)),"")</f>
-        <v/>
-      </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="K41" s="19">
+        <v>6</v>
+      </c>
+      <c r="L41" s="19">
+        <v>6</v>
+      </c>
+      <c r="M41" s="19">
+        <v>6</v>
+      </c>
       <c r="N41" s="22"/>
       <c r="O41" s="22"/>
       <c r="P41" s="22"/>
@@ -10787,33 +11009,41 @@
         <v>38</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f>IF(ISBLANK($B42),"",IF(ISBLANK(G42),"未着手",IF($J42=0,"完了","作業中")))</f>
-        <v>未着手</v>
+        <f ca="1">IF(ISBLANK($B42),"",IF(ISBLANK(G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <v>作業中</v>
       </c>
       <c r="F42" s="4">
         <v>43035</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4">
+        <v>43035</v>
+      </c>
       <c r="H42" s="19">
         <v>6</v>
       </c>
       <c r="I42" s="19"/>
-      <c r="J42" s="12" t="str">
+      <c r="J42" s="12">
         <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:O42)),"")</f>
-        <v/>
-      </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
+        <v>6</v>
+      </c>
+      <c r="K42" s="19">
+        <v>6</v>
+      </c>
+      <c r="L42" s="19">
+        <v>6</v>
+      </c>
+      <c r="M42" s="19">
+        <v>6</v>
+      </c>
       <c r="N42" s="22"/>
       <c r="O42" s="22"/>
       <c r="P42" s="22"/>
@@ -10852,22 +11082,36 @@
       <c r="A44" s="16">
         <v>40</v>
       </c>
-      <c r="B44" s="85"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="85" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>121</v>
+      </c>
       <c r="E44" s="12" t="str">
-        <f>IF(ISBLANK($B44),"",IF(ISBLANK(G44),"未着手",IF($J44=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="19"/>
+        <f ca="1">IF(ISBLANK($B44),"",IF(ISBLANK(G44),"未着手",IF($J44=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F44" s="4">
+        <v>43030</v>
+      </c>
+      <c r="G44" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H44" s="19">
+        <v>2</v>
+      </c>
       <c r="I44" s="19"/>
-      <c r="J44" s="12" t="str">
+      <c r="J44" s="12">
         <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:O44)),"")</f>
-        <v/>
-      </c>
-      <c r="K44" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K44" s="22">
+        <v>1</v>
+      </c>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -10880,22 +11124,36 @@
       <c r="A45" s="16">
         <v>41</v>
       </c>
-      <c r="B45" s="85"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E45" s="12" t="str">
-        <f>IF(ISBLANK($B45),"",IF(ISBLANK(G45),"未着手",IF($J45=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="19"/>
+        <f ca="1">IF(ISBLANK($B45),"",IF(ISBLANK(G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F45" s="4">
+        <v>43030</v>
+      </c>
+      <c r="G45" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H45" s="19">
+        <v>2</v>
+      </c>
       <c r="I45" s="19"/>
-      <c r="J45" s="12" t="str">
+      <c r="J45" s="12">
         <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:O45)),"")</f>
-        <v/>
-      </c>
-      <c r="K45" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K45" s="22">
+        <v>1</v>
+      </c>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -10908,22 +11166,36 @@
       <c r="A46" s="16">
         <v>42</v>
       </c>
-      <c r="B46" s="85"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="12"/>
+      <c r="B46" s="85" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E46" s="12" t="str">
-        <f>IF(ISBLANK($B46),"",IF(ISBLANK(G46),"未着手",IF($J46=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="19"/>
+        <f ca="1">IF(ISBLANK($B46),"",IF(ISBLANK(G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F46" s="4">
+        <v>43030</v>
+      </c>
+      <c r="G46" s="4">
+        <v>43030</v>
+      </c>
+      <c r="H46" s="19">
+        <v>2</v>
+      </c>
       <c r="I46" s="19"/>
-      <c r="J46" s="12" t="str">
+      <c r="J46" s="12">
         <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:O46)),"")</f>
-        <v/>
-      </c>
-      <c r="K46" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K46" s="22">
+        <v>1</v>
+      </c>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -10936,22 +11208,36 @@
       <c r="A47" s="16">
         <v>43</v>
       </c>
-      <c r="B47" s="85"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="85" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E47" s="12" t="str">
-        <f>IF(ISBLANK($B47),"",IF(ISBLANK(G47),"未着手",IF($J47=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="19"/>
+        <f ca="1">IF(ISBLANK($B47),"",IF(ISBLANK(G47),"未着手",IF($J47=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F47" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G47" s="4">
+        <v>43032</v>
+      </c>
+      <c r="H47" s="19">
+        <v>2</v>
+      </c>
       <c r="I47" s="19"/>
-      <c r="J47" s="12" t="str">
+      <c r="J47" s="12">
         <f ca="1">IF(ISBLANK(K47)=FALSE,OFFSET(J47,0,COUNTA(K47:O47)),"")</f>
-        <v/>
-      </c>
-      <c r="K47" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K47" s="22">
+        <v>2</v>
+      </c>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -10964,22 +11250,36 @@
       <c r="A48" s="16">
         <v>44</v>
       </c>
-      <c r="B48" s="85"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E48" s="12" t="str">
-        <f>IF(ISBLANK($B48),"",IF(ISBLANK(G48),"未着手",IF($J48=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="19"/>
+        <f ca="1">IF(ISBLANK($B48),"",IF(ISBLANK(G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F48" s="4">
+        <v>43032</v>
+      </c>
+      <c r="G48" s="4">
+        <v>43032</v>
+      </c>
+      <c r="H48" s="19">
+        <v>2</v>
+      </c>
       <c r="I48" s="19"/>
-      <c r="J48" s="12" t="str">
+      <c r="J48" s="12">
         <f ca="1">IF(ISBLANK(K48)=FALSE,OFFSET(J48,0,COUNTA(K48:O48)),"")</f>
-        <v/>
-      </c>
-      <c r="K48" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K48" s="22">
+        <v>2</v>
+      </c>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -10992,22 +11292,34 @@
       <c r="A49" s="16">
         <v>45</v>
       </c>
-      <c r="B49" s="85"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E49" s="12" t="str">
         <f>IF(ISBLANK($B49),"",IF(ISBLANK(G49),"未着手",IF($J49=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F49" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F49" s="4">
+        <v>43039</v>
+      </c>
       <c r="G49" s="4"/>
-      <c r="H49" s="19"/>
+      <c r="H49" s="19">
+        <v>2</v>
+      </c>
       <c r="I49" s="19"/>
-      <c r="J49" s="12" t="str">
+      <c r="J49" s="12">
         <f ca="1">IF(ISBLANK(K49)=FALSE,OFFSET(J49,0,COUNTA(K49:O49)),"")</f>
-        <v/>
-      </c>
-      <c r="K49" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K49" s="19">
+        <v>2</v>
+      </c>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -11020,22 +11332,34 @@
       <c r="A50" s="16">
         <v>46</v>
       </c>
-      <c r="B50" s="85"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="12"/>
+      <c r="B50" s="85" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E50" s="12" t="str">
         <f>IF(ISBLANK($B50),"",IF(ISBLANK(G50),"未着手",IF($J50=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F50" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F50" s="4">
+        <v>43035</v>
+      </c>
       <c r="G50" s="4"/>
-      <c r="H50" s="19"/>
+      <c r="H50" s="19">
+        <v>1</v>
+      </c>
       <c r="I50" s="19"/>
-      <c r="J50" s="12" t="str">
+      <c r="J50" s="12">
         <f ca="1">IF(ISBLANK(K50)=FALSE,OFFSET(J50,0,COUNTA(K50:O50)),"")</f>
-        <v/>
-      </c>
-      <c r="K50" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K50" s="19">
+        <v>1</v>
+      </c>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -11048,22 +11372,34 @@
       <c r="A51" s="16">
         <v>47</v>
       </c>
-      <c r="B51" s="85"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="12"/>
+      <c r="B51" s="85" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E51" s="12" t="str">
         <f>IF(ISBLANK($B51),"",IF(ISBLANK(G51),"未着手",IF($J51=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F51" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F51" s="4">
+        <v>43042</v>
+      </c>
       <c r="G51" s="4"/>
-      <c r="H51" s="19"/>
+      <c r="H51" s="19">
+        <v>4</v>
+      </c>
       <c r="I51" s="19"/>
-      <c r="J51" s="12" t="str">
+      <c r="J51" s="12">
         <f ca="1">IF(ISBLANK(K51)=FALSE,OFFSET(J51,0,COUNTA(K51:O51)),"")</f>
-        <v/>
-      </c>
-      <c r="K51" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="K51" s="19">
+        <v>4</v>
+      </c>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -11076,22 +11412,34 @@
       <c r="A52" s="16">
         <v>48</v>
       </c>
-      <c r="B52" s="85"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="12"/>
+      <c r="B52" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E52" s="12" t="str">
         <f>IF(ISBLANK($B52),"",IF(ISBLANK(G52),"未着手",IF($J52=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F52" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F52" s="4">
+        <v>43042</v>
+      </c>
       <c r="G52" s="4"/>
-      <c r="H52" s="19"/>
+      <c r="H52" s="19">
+        <v>2</v>
+      </c>
       <c r="I52" s="19"/>
-      <c r="J52" s="12" t="str">
+      <c r="J52" s="12">
         <f ca="1">IF(ISBLANK(K52)=FALSE,OFFSET(J52,0,COUNTA(K52:O52)),"")</f>
-        <v/>
-      </c>
-      <c r="K52" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K52" s="19">
+        <v>2</v>
+      </c>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -11104,22 +11452,34 @@
       <c r="A53" s="16">
         <v>49</v>
       </c>
-      <c r="B53" s="85"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="12"/>
+      <c r="B53" s="85" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E53" s="12" t="str">
         <f>IF(ISBLANK($B53),"",IF(ISBLANK(G53),"未着手",IF($J53=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F53" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F53" s="4">
+        <v>43039</v>
+      </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="19"/>
+      <c r="H53" s="19">
+        <v>2</v>
+      </c>
       <c r="I53" s="19"/>
-      <c r="J53" s="12" t="str">
+      <c r="J53" s="12">
         <f ca="1">IF(ISBLANK(K53)=FALSE,OFFSET(J53,0,COUNTA(K53:O53)),"")</f>
-        <v/>
-      </c>
-      <c r="K53" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K53" s="19">
+        <v>2</v>
+      </c>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -11132,22 +11492,34 @@
       <c r="A54" s="16">
         <v>50</v>
       </c>
-      <c r="B54" s="85"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="12"/>
+      <c r="B54" s="85" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E54" s="12" t="str">
         <f>IF(ISBLANK($B54),"",IF(ISBLANK(G54),"未着手",IF($J54=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F54" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F54" s="4">
+        <v>43039</v>
+      </c>
       <c r="G54" s="4"/>
-      <c r="H54" s="19"/>
+      <c r="H54" s="19">
+        <v>2</v>
+      </c>
       <c r="I54" s="19"/>
-      <c r="J54" s="12" t="str">
+      <c r="J54" s="12">
         <f ca="1">IF(ISBLANK(K54)=FALSE,OFFSET(J54,0,COUNTA(K54:O54)),"")</f>
-        <v/>
-      </c>
-      <c r="K54" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K54" s="19">
+        <v>2</v>
+      </c>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -11160,22 +11532,36 @@
       <c r="A55" s="16">
         <v>51</v>
       </c>
-      <c r="B55" s="85"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="12"/>
+      <c r="B55" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E55" s="12" t="str">
-        <f>IF(ISBLANK($B55),"",IF(ISBLANK(G55),"未着手",IF($J55=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="19"/>
+        <f ca="1">IF(ISBLANK($B55),"",IF(ISBLANK(G55),"未着手",IF($J55=0,"完了","作業中")))</f>
+        <v>作業中</v>
+      </c>
+      <c r="F55" s="4">
+        <v>43035</v>
+      </c>
+      <c r="G55" s="4">
+        <v>43032</v>
+      </c>
+      <c r="H55" s="19">
+        <v>1</v>
+      </c>
       <c r="I55" s="19"/>
-      <c r="J55" s="12" t="str">
+      <c r="J55" s="12">
         <f ca="1">IF(ISBLANK(K55)=FALSE,OFFSET(J55,0,COUNTA(K55:O55)),"")</f>
-        <v/>
-      </c>
-      <c r="K55" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K55" s="19">
+        <v>1</v>
+      </c>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -11188,22 +11574,34 @@
       <c r="A56" s="16">
         <v>52</v>
       </c>
-      <c r="B56" s="85"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="12"/>
+      <c r="B56" s="85" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="E56" s="12" t="str">
         <f>IF(ISBLANK($B56),"",IF(ISBLANK(G56),"未着手",IF($J56=0,"完了","作業中")))</f>
-        <v/>
-      </c>
-      <c r="F56" s="4"/>
+        <v>未着手</v>
+      </c>
+      <c r="F56" s="4">
+        <v>43042</v>
+      </c>
       <c r="G56" s="4"/>
-      <c r="H56" s="19"/>
+      <c r="H56" s="19">
+        <v>2</v>
+      </c>
       <c r="I56" s="19"/>
-      <c r="J56" s="12" t="str">
+      <c r="J56" s="12">
         <f ca="1">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:O56)),"")</f>
-        <v/>
-      </c>
-      <c r="K56" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K56" s="19">
+        <v>2</v>
+      </c>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -12533,7 +12931,7 @@
     <row r="105" spans="1:25" ht="10.5" customHeight="1">
       <c r="D105" s="12"/>
       <c r="J105" s="12" t="str">
-        <f t="shared" ref="J71:J134" ca="1" si="0">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:O105)),"")</f>
+        <f t="shared" ref="J105:J134" ca="1" si="2">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:O105)),"")</f>
         <v/>
       </c>
       <c r="K105" s="6"/>
@@ -12548,7 +12946,7 @@
     <row r="106" spans="1:25">
       <c r="D106" s="12"/>
       <c r="J106" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K106" s="6"/>
@@ -12581,7 +12979,7 @@
     <row r="107" spans="1:25">
       <c r="D107" s="12"/>
       <c r="J107" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K107" s="6"/>
@@ -12596,30 +12994,30 @@
         <v>112</v>
       </c>
       <c r="U107" s="10">
-        <f t="shared" ref="U107:U116" si="1">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
+        <f t="shared" ref="U107:U116" si="3">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
+        <v>26</v>
+      </c>
+      <c r="V107" s="10">
+        <f t="shared" ref="V107:V116" ca="1" si="4">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
+        <v>23</v>
+      </c>
+      <c r="W107" s="10">
+        <f t="shared" ref="W107:W116" si="5">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
         <v>0</v>
       </c>
-      <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" si="2">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
-        <v>0</v>
-      </c>
-      <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" si="3">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
-        <v>0</v>
-      </c>
       <c r="X107" s="14">
-        <f t="shared" ref="X107:X116" si="4">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>42</v>
+        <f t="shared" ref="X107:X116" si="6">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <v>30</v>
       </c>
       <c r="Y107" s="15">
-        <f>IF(X107&gt;V107,0,V107-X107)</f>
+        <f ca="1">IF(X107&gt;V107,0,V107-X107)</f>
         <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:25">
       <c r="D108" s="12"/>
       <c r="J108" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K108" s="6"/>
@@ -12634,30 +13032,30 @@
         <v>113</v>
       </c>
       <c r="U108" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.2</v>
       </c>
       <c r="V108" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">SUMIF($C$5:$C$104,T108,$J$5:$J$104)</f>
+        <v>12</v>
+      </c>
+      <c r="W108" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W108" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="X108" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y108" s="15">
-        <f t="shared" ref="Y108:Y116" ca="1" si="5">IF(X108&gt;V108,0,V108-X108)</f>
+        <f t="shared" ref="Y108:Y116" ca="1" si="7">IF(X108&gt;V108,0,V108-X108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="D109" s="12"/>
       <c r="J109" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K109" s="6"/>
@@ -12672,30 +13070,30 @@
         <v>114</v>
       </c>
       <c r="U109" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="W109" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W109" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="X109" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y109" s="15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="D110" s="12"/>
       <c r="J110" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K110" s="6"/>
@@ -12707,33 +13105,33 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="T110" s="11" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="U110" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22.200000000000003</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13.2</v>
       </c>
       <c r="W110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="X110" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y110" s="15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="D111" s="12"/>
       <c r="J111" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K111" s="6"/>
@@ -12745,33 +13143,33 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="T111" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W111" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="W111" s="10">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="X111" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y111" s="15">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="D112" s="12"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K112" s="6"/>
@@ -12784,30 +13182,30 @@
       <c r="R112" s="6"/>
       <c r="T112" s="11"/>
       <c r="U112" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V112" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W112" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V112" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W112" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X112" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y112" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:25">
       <c r="D113" s="12"/>
       <c r="J113" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K113" s="6"/>
@@ -12820,30 +13218,30 @@
       <c r="R113" s="6"/>
       <c r="T113" s="11"/>
       <c r="U113" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V113" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W113" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V113" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W113" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X113" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y113" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:25">
       <c r="D114" s="12"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K114" s="6"/>
@@ -12856,30 +13254,30 @@
       <c r="R114" s="6"/>
       <c r="T114" s="11"/>
       <c r="U114" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V114" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W114" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V114" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W114" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X114" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y114" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:25">
       <c r="D115" s="12"/>
       <c r="J115" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K115" s="6"/>
@@ -12892,30 +13290,30 @@
       <c r="R115" s="6"/>
       <c r="T115" s="11"/>
       <c r="U115" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V115" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W115" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V115" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W115" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X115" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y115" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:25">
       <c r="D116" s="12"/>
       <c r="J116" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K116" s="6"/>
@@ -12928,30 +13326,30 @@
       <c r="R116" s="6"/>
       <c r="T116" s="11"/>
       <c r="U116" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V116" s="10">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W116" s="10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="V116" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W116" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="X116" s="14">
-        <f t="shared" si="4"/>
-        <v>42</v>
+        <f t="shared" si="6"/>
+        <v>30</v>
       </c>
       <c r="Y116" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:25">
       <c r="D117" s="12"/>
       <c r="J117" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K117" s="6"/>
@@ -12966,7 +13364,7 @@
     <row r="118" spans="4:25">
       <c r="D118" s="12"/>
       <c r="J118" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K118" s="6"/>
@@ -12981,7 +13379,7 @@
     <row r="119" spans="4:25">
       <c r="D119" s="12"/>
       <c r="J119" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K119" s="6"/>
@@ -12996,7 +13394,7 @@
     <row r="120" spans="4:25">
       <c r="D120" s="12"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K120" s="6"/>
@@ -13011,7 +13409,7 @@
     <row r="121" spans="4:25">
       <c r="D121" s="12"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K121" s="6"/>
@@ -13026,7 +13424,7 @@
     <row r="122" spans="4:25">
       <c r="D122" s="12"/>
       <c r="J122" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K122" s="6"/>
@@ -13041,7 +13439,7 @@
     <row r="123" spans="4:25">
       <c r="D123" s="12"/>
       <c r="J123" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K123" s="6"/>
@@ -13056,7 +13454,7 @@
     <row r="124" spans="4:25">
       <c r="D124" s="12"/>
       <c r="J124" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K124" s="6"/>
@@ -13071,7 +13469,7 @@
     <row r="125" spans="4:25">
       <c r="D125" s="12"/>
       <c r="J125" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K125" s="6"/>
@@ -13086,7 +13484,7 @@
     <row r="126" spans="4:25">
       <c r="D126" s="12"/>
       <c r="J126" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K126" s="6"/>
@@ -13101,7 +13499,7 @@
     <row r="127" spans="4:25">
       <c r="D127" s="12"/>
       <c r="J127" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K127" s="6"/>
@@ -13116,7 +13514,7 @@
     <row r="128" spans="4:25">
       <c r="D128" s="12"/>
       <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K128" s="6"/>
@@ -13131,7 +13529,7 @@
     <row r="129" spans="4:18">
       <c r="D129" s="12"/>
       <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K129" s="6"/>
@@ -13146,7 +13544,7 @@
     <row r="130" spans="4:18">
       <c r="D130" s="12"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K130" s="6"/>
@@ -13161,7 +13559,7 @@
     <row r="131" spans="4:18">
       <c r="D131" s="12"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K131" s="6"/>
@@ -13176,7 +13574,7 @@
     <row r="132" spans="4:18">
       <c r="D132" s="12"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K132" s="6"/>
@@ -13191,7 +13589,7 @@
     <row r="133" spans="4:18">
       <c r="D133" s="12"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K133" s="6"/>
@@ -13206,7 +13604,7 @@
     <row r="134" spans="4:18">
       <c r="D134" s="12"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="K134" s="6"/>
@@ -13221,7 +13619,7 @@
     <row r="135" spans="4:18">
       <c r="D135" s="12"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ref="J135:J183" ca="1" si="6">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:O135)),"")</f>
+        <f t="shared" ref="J135:J183" ca="1" si="8">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:O135)),"")</f>
         <v/>
       </c>
       <c r="K135" s="6"/>
@@ -13236,7 +13634,7 @@
     <row r="136" spans="4:18">
       <c r="D136" s="12"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K136" s="6"/>
@@ -13251,7 +13649,7 @@
     <row r="137" spans="4:18">
       <c r="D137" s="12"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K137" s="6"/>
@@ -13266,7 +13664,7 @@
     <row r="138" spans="4:18">
       <c r="D138" s="12"/>
       <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K138" s="6"/>
@@ -13281,7 +13679,7 @@
     <row r="139" spans="4:18">
       <c r="D139" s="12"/>
       <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K139" s="6"/>
@@ -13296,7 +13694,7 @@
     <row r="140" spans="4:18">
       <c r="D140" s="12"/>
       <c r="J140" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K140" s="6"/>
@@ -13311,7 +13709,7 @@
     <row r="141" spans="4:18">
       <c r="D141" s="12"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K141" s="6"/>
@@ -13326,7 +13724,7 @@
     <row r="142" spans="4:18">
       <c r="D142" s="12"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K142" s="6"/>
@@ -13341,7 +13739,7 @@
     <row r="143" spans="4:18">
       <c r="D143" s="12"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K143" s="6"/>
@@ -13356,7 +13754,7 @@
     <row r="144" spans="4:18">
       <c r="D144" s="12"/>
       <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K144" s="6"/>
@@ -13371,7 +13769,7 @@
     <row r="145" spans="4:18">
       <c r="D145" s="12"/>
       <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K145" s="6"/>
@@ -13386,7 +13784,7 @@
     <row r="146" spans="4:18">
       <c r="D146" s="12"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K146" s="6"/>
@@ -13401,7 +13799,7 @@
     <row r="147" spans="4:18">
       <c r="D147" s="12"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K147" s="6"/>
@@ -13416,7 +13814,7 @@
     <row r="148" spans="4:18">
       <c r="D148" s="12"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K148" s="6"/>
@@ -13431,7 +13829,7 @@
     <row r="149" spans="4:18">
       <c r="D149" s="12"/>
       <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K149" s="6"/>
@@ -13446,7 +13844,7 @@
     <row r="150" spans="4:18">
       <c r="D150" s="12"/>
       <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K150" s="6"/>
@@ -13461,7 +13859,7 @@
     <row r="151" spans="4:18">
       <c r="D151" s="12"/>
       <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K151" s="6"/>
@@ -13476,7 +13874,7 @@
     <row r="152" spans="4:18">
       <c r="D152" s="12"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K152" s="6"/>
@@ -13491,7 +13889,7 @@
     <row r="153" spans="4:18">
       <c r="D153" s="12"/>
       <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K153" s="6"/>
@@ -13506,7 +13904,7 @@
     <row r="154" spans="4:18">
       <c r="D154" s="12"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K154" s="6"/>
@@ -13521,7 +13919,7 @@
     <row r="155" spans="4:18">
       <c r="D155" s="12"/>
       <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K155" s="6"/>
@@ -13536,7 +13934,7 @@
     <row r="156" spans="4:18">
       <c r="D156" s="12"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K156" s="6"/>
@@ -13551,7 +13949,7 @@
     <row r="157" spans="4:18">
       <c r="D157" s="12"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K157" s="6"/>
@@ -13566,7 +13964,7 @@
     <row r="158" spans="4:18">
       <c r="D158" s="12"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K158" s="6"/>
@@ -13581,7 +13979,7 @@
     <row r="159" spans="4:18">
       <c r="D159" s="12"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K159" s="6"/>
@@ -13596,7 +13994,7 @@
     <row r="160" spans="4:18">
       <c r="D160" s="12"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K160" s="6"/>
@@ -13611,7 +14009,7 @@
     <row r="161" spans="4:18">
       <c r="D161" s="12"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K161" s="6"/>
@@ -13626,7 +14024,7 @@
     <row r="162" spans="4:18">
       <c r="D162" s="12"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K162" s="6"/>
@@ -13641,7 +14039,7 @@
     <row r="163" spans="4:18">
       <c r="D163" s="12"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K163" s="6"/>
@@ -13656,7 +14054,7 @@
     <row r="164" spans="4:18">
       <c r="D164" s="12"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K164" s="6"/>
@@ -13671,7 +14069,7 @@
     <row r="165" spans="4:18">
       <c r="D165" s="12"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K165" s="6"/>
@@ -13686,7 +14084,7 @@
     <row r="166" spans="4:18">
       <c r="D166" s="12"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K166" s="6"/>
@@ -13701,7 +14099,7 @@
     <row r="167" spans="4:18">
       <c r="D167" s="12"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K167" s="6"/>
@@ -13716,7 +14114,7 @@
     <row r="168" spans="4:18">
       <c r="D168" s="12"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K168" s="6"/>
@@ -13731,7 +14129,7 @@
     <row r="169" spans="4:18">
       <c r="D169" s="12"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K169" s="6"/>
@@ -13746,7 +14144,7 @@
     <row r="170" spans="4:18">
       <c r="D170" s="12"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K170" s="6"/>
@@ -13761,7 +14159,7 @@
     <row r="171" spans="4:18">
       <c r="D171" s="12"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K171" s="6"/>
@@ -13776,7 +14174,7 @@
     <row r="172" spans="4:18">
       <c r="D172" s="12"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K172" s="6"/>
@@ -13791,7 +14189,7 @@
     <row r="173" spans="4:18">
       <c r="D173" s="12"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K173" s="6"/>
@@ -13806,7 +14204,7 @@
     <row r="174" spans="4:18">
       <c r="D174" s="12"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K174" s="6"/>
@@ -13821,7 +14219,7 @@
     <row r="175" spans="4:18">
       <c r="D175" s="12"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K175" s="6"/>
@@ -13836,7 +14234,7 @@
     <row r="176" spans="4:18">
       <c r="D176" s="12"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K176" s="6"/>
@@ -13851,7 +14249,7 @@
     <row r="177" spans="4:18">
       <c r="D177" s="12"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K177" s="6"/>
@@ -13866,7 +14264,7 @@
     <row r="178" spans="4:18">
       <c r="D178" s="12"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K178" s="6"/>
@@ -13881,7 +14279,7 @@
     <row r="179" spans="4:18">
       <c r="D179" s="12"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K179" s="6"/>
@@ -13896,7 +14294,7 @@
     <row r="180" spans="4:18">
       <c r="D180" s="12"/>
       <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K180" s="6"/>
@@ -13911,7 +14309,7 @@
     <row r="181" spans="4:18">
       <c r="D181" s="12"/>
       <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K181" s="6"/>
@@ -13926,7 +14324,7 @@
     <row r="182" spans="4:18">
       <c r="D182" s="12"/>
       <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K182" s="6"/>
@@ -13941,7 +14339,7 @@
     <row r="183" spans="4:18">
       <c r="D183" s="12"/>
       <c r="J183" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K183" s="6"/>
@@ -14024,70 +14422,70 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="E105:E65536">
-    <cfRule type="expression" dxfId="39" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="8" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="38" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="9" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="10" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A5:C104 E5:XFD6 E7:I104 K7:XFD104 J7:J183 E6:E104">
-    <cfRule type="expression" dxfId="36" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="E5:XFD6 J7:J183 E6:E104 L5:M42 A5:C104 K7:XFD104 E7:I104">
+    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="34" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="14" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184:D65536 C105:C183">
-    <cfRule type="expression" dxfId="31" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="18" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="29" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184:R65536 F105:I183 K105:R183">
-    <cfRule type="expression" dxfId="28" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
       <formula>$E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
       <formula>$E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
       <formula>OR($E105="終了",$E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D183">
-    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="6" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:R183">
-    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14109,6 +14507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:Z188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -14133,56 +14532,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
+      <c r="S1" s="113"/>
     </row>
     <row r="2" spans="1:19" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="23" t="s">
         <v>57</v>
       </c>
@@ -14215,15 +14614,15 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$S$2))))</f>
         <v>0</v>
@@ -14239,15 +14638,15 @@
       <c r="S3" s="20"/>
     </row>
     <row r="4" spans="1:19" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -17901,57 +18300,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="75" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="74" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="73" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="72" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="70" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="69" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="67" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="66" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="64" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="63" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="61" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17965,6 +18364,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:W188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17989,53 +18389,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="114" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="113" t="s">
+      <c r="C1" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="117" t="s">
+      <c r="G1" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="113" t="s">
+      <c r="I1" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="111"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="113"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="113"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="114"/>
       <c r="J2" s="23" t="s">
         <v>67</v>
       </c>
@@ -18059,15 +18459,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="113"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="116"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="113"/>
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="114"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="119"/>
+      <c r="I3" s="114"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -18080,15 +18480,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="113"/>
-      <c r="B4" s="114"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="116"/>
-      <c r="F4" s="116"/>
-      <c r="G4" s="118"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="113"/>
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="117"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="119"/>
+      <c r="H4" s="119"/>
+      <c r="I4" s="114"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -21187,57 +21587,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="60" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="59" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="58" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="57" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="56" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="55" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="54" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="53" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="51" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="49" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="48" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="47" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21251,6 +21651,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22051,13 +22452,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="45" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -2756,27 +2756,6 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
         <color auto="1"/>
       </font>
       <fill>
@@ -3051,6 +3030,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="22"/>
       </font>
     </dxf>
@@ -3140,6 +3126,20 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="22"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
       </font>
     </dxf>
     <dxf>
@@ -3333,6 +3333,9 @@
                 <c:pt idx="2">
                   <c:v>77.400000000000006</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3418,6 +3421,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9169,8 +9175,8 @@
   <dimension ref="A1:AG188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9284,14 +9290,17 @@
         <v>100</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:M3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
+        <f t="shared" ref="L3:N3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
         <v>87</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="N3" s="20"/>
+      <c r="N3" s="20">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
       <c r="O3" s="20"/>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
@@ -9320,7 +9329,10 @@
         <f t="shared" si="1"/>
         <v>77.400000000000006</v>
       </c>
-      <c r="N4" s="21"/>
+      <c r="N4" s="21">
+        <f t="shared" ref="N4" si="2">SUM(N5:N104)</f>
+        <v>9</v>
+      </c>
       <c r="O4" s="21"/>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
@@ -9343,7 +9355,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B5),"",IF(ISBLANK(G5),"未着手",IF($J5=0,"完了","作業中")))</f>
+        <f t="shared" ref="E5:E36" ca="1" si="3">IF(ISBLANK($B5),"",IF(ISBLANK(G5),"未着手",IF($J5=0,"完了","作業中")))</f>
         <v>完了</v>
       </c>
       <c r="F5" s="4">
@@ -9359,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="12">
-        <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:O5)),"")</f>
+        <f t="shared" ref="J5:J36" ca="1" si="4">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:O5)),"")</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
@@ -9396,7 +9408,7 @@
         <v>127</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f>IF(ISBLANK($B6),"",IF(ISBLANK(G6),"未着手",IF($J6=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F6" s="4">
@@ -9408,7 +9420,7 @@
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="12">
-        <f ca="1">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:O6)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K6" s="22">
@@ -9445,7 +9457,7 @@
         <v>120</v>
       </c>
       <c r="E7" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B7),"",IF(ISBLANK(G7),"未着手",IF($J7=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F7" s="4">
@@ -9459,7 +9471,7 @@
       </c>
       <c r="I7" s="19"/>
       <c r="J7" s="12">
-        <f ca="1">IF(ISBLANK(K7)=FALSE,OFFSET(J7,0,COUNTA(K7:O7)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K7" s="19">
@@ -9496,7 +9508,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f>IF(ISBLANK($B8),"",IF(ISBLANK(G8),"未着手",IF($J8=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F8" s="4">
@@ -9508,7 +9520,7 @@
       </c>
       <c r="I8" s="19"/>
       <c r="J8" s="12">
-        <f ca="1">IF(ISBLANK(K8)=FALSE,OFFSET(J8,0,COUNTA(K8:O8)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K8" s="19">
@@ -9542,7 +9554,7 @@
         <v>125</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f>IF(ISBLANK($B9),"",IF(ISBLANK(G9),"未着手",IF($J9=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F9" s="4">
@@ -9554,7 +9566,7 @@
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="12">
-        <f ca="1">IF(ISBLANK(K9)=FALSE,OFFSET(J9,0,COUNTA(K9:O9)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K9" s="19">
@@ -9588,7 +9600,7 @@
         <v>125</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f>IF(ISBLANK($B10),"",IF(ISBLANK(G10),"未着手",IF($J10=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F10" s="4">
@@ -9600,7 +9612,7 @@
       </c>
       <c r="I10" s="19"/>
       <c r="J10" s="12">
-        <f ca="1">IF(ISBLANK(K10)=FALSE,OFFSET(J10,0,COUNTA(K10:O10)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K10" s="19">
@@ -9632,7 +9644,7 @@
         <v>123</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f>IF(ISBLANK($B11),"",IF(ISBLANK(G11),"未着手",IF($J11=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F11" s="4">
@@ -9644,7 +9656,7 @@
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="12">
-        <f ca="1">IF(ISBLANK(K11)=FALSE,OFFSET(J11,0,COUNTA(K11:O11)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K11" s="19">
@@ -9678,7 +9690,7 @@
         <v>125</v>
       </c>
       <c r="E12" s="12" t="str">
-        <f>IF(ISBLANK($B12),"",IF(ISBLANK(G12),"未着手",IF($J12=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F12" s="4">
@@ -9690,7 +9702,7 @@
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="12">
-        <f ca="1">IF(ISBLANK(K12)=FALSE,OFFSET(J12,0,COUNTA(K12:O12)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="K12" s="19">
@@ -9722,7 +9734,7 @@
         <v>125</v>
       </c>
       <c r="E13" s="12" t="str">
-        <f>IF(ISBLANK($B13),"",IF(ISBLANK(G13),"未着手",IF($J13=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F13" s="4">
@@ -9734,7 +9746,7 @@
       </c>
       <c r="I13" s="19"/>
       <c r="J13" s="12">
-        <f ca="1">IF(ISBLANK(K13)=FALSE,OFFSET(J13,0,COUNTA(K13:O13)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="K13" s="19">
@@ -9766,7 +9778,7 @@
         <v>120</v>
       </c>
       <c r="E14" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B14),"",IF(ISBLANK(G14),"未着手",IF($J14=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F14" s="4">
@@ -9780,7 +9792,7 @@
       </c>
       <c r="I14" s="19"/>
       <c r="J14" s="12">
-        <f ca="1">IF(ISBLANK(K14)=FALSE,OFFSET(J14,0,COUNTA(K14:O14)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K14" s="19">
@@ -9814,7 +9826,7 @@
         <v>120</v>
       </c>
       <c r="E15" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B15),"",IF(ISBLANK(G15),"未着手",IF($J15=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F15" s="4">
@@ -9828,7 +9840,7 @@
       </c>
       <c r="I15" s="19"/>
       <c r="J15" s="12">
-        <f ca="1">IF(ISBLANK(K15)=FALSE,OFFSET(J15,0,COUNTA(K15:O15)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K15" s="19">
@@ -9862,7 +9874,7 @@
         <v>120</v>
       </c>
       <c r="E16" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B16),"",IF(ISBLANK(G16),"未着手",IF($J16=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F16" s="4">
@@ -9876,7 +9888,7 @@
       </c>
       <c r="I16" s="19"/>
       <c r="J16" s="12">
-        <f ca="1">IF(ISBLANK(K16)=FALSE,OFFSET(J16,0,COUNTA(K16:O16)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K16" s="19">
@@ -9910,7 +9922,7 @@
         <v>123</v>
       </c>
       <c r="E17" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B17),"",IF(ISBLANK(G17),"未着手",IF($J17=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F17" s="4">
@@ -9924,7 +9936,7 @@
       </c>
       <c r="I17" s="19"/>
       <c r="J17" s="12">
-        <f ca="1">IF(ISBLANK(K17)=FALSE,OFFSET(J17,0,COUNTA(K17:O17)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K17" s="19">
@@ -9958,7 +9970,7 @@
         <v>120</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f>IF(ISBLANK($B18),"",IF(ISBLANK(G18),"未着手",IF($J18=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F18" s="4">
@@ -9970,7 +9982,7 @@
       </c>
       <c r="I18" s="19"/>
       <c r="J18" s="12">
-        <f ca="1">IF(ISBLANK(K18)=FALSE,OFFSET(J18,0,COUNTA(K18:O18)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K18" s="19">
@@ -10004,7 +10016,7 @@
         <v>127</v>
       </c>
       <c r="E19" s="12" t="str">
-        <f>IF(ISBLANK($B19),"",IF(ISBLANK(G19),"未着手",IF($J19=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F19" s="4"/>
@@ -10012,7 +10024,7 @@
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
       <c r="J19" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K19)=FALSE,OFFSET(J19,0,COUNTA(K19:O19)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K19" s="19"/>
@@ -10038,7 +10050,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B20),"",IF(ISBLANK(G20),"未着手",IF($J20=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F20" s="4">
@@ -10052,7 +10064,7 @@
       </c>
       <c r="I20" s="19"/>
       <c r="J20" s="12">
-        <f ca="1">IF(ISBLANK(K20)=FALSE,OFFSET(J20,0,COUNTA(K20:O20)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K20" s="19">
@@ -10086,7 +10098,7 @@
         <v>123</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f>IF(ISBLANK($B21),"",IF(ISBLANK(G21),"未着手",IF($J21=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F21" s="4">
@@ -10098,7 +10110,7 @@
       </c>
       <c r="I21" s="19"/>
       <c r="J21" s="12">
-        <f ca="1">IF(ISBLANK(K21)=FALSE,OFFSET(J21,0,COUNTA(K21:O21)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K21" s="19">
@@ -10130,7 +10142,7 @@
         <v>123</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f>IF(ISBLANK($B22),"",IF(ISBLANK(G22),"未着手",IF($J22=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F22" s="4">
@@ -10142,7 +10154,7 @@
       </c>
       <c r="I22" s="19"/>
       <c r="J22" s="12">
-        <f ca="1">IF(ISBLANK(K22)=FALSE,OFFSET(J22,0,COUNTA(K22:O22)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="K22" s="19">
@@ -10174,7 +10186,7 @@
         <v>123</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f>IF(ISBLANK($B23),"",IF(ISBLANK(G23),"未着手",IF($J23=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F23" s="4">
@@ -10186,7 +10198,7 @@
       </c>
       <c r="I23" s="19"/>
       <c r="J23" s="12">
-        <f ca="1">IF(ISBLANK(K23)=FALSE,OFFSET(J23,0,COUNTA(K23:O23)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0.5</v>
       </c>
       <c r="K23" s="19">
@@ -10218,7 +10230,7 @@
         <v>120</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f>IF(ISBLANK($B24),"",IF(ISBLANK(G24),"未着手",IF($J24=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F24" s="4">
@@ -10230,7 +10242,7 @@
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="12">
-        <f ca="1">IF(ISBLANK(K24)=FALSE,OFFSET(J24,0,COUNTA(K24:O24)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K24" s="19">
@@ -10262,7 +10274,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B25),"",IF(ISBLANK(G25),"未着手",IF($J25=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F25" s="4">
@@ -10276,7 +10288,7 @@
       </c>
       <c r="I25" s="19"/>
       <c r="J25" s="12">
-        <f ca="1">IF(ISBLANK(K25)=FALSE,OFFSET(J25,0,COUNTA(K25:O25)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K25" s="19">
@@ -10310,7 +10322,7 @@
         <v>120</v>
       </c>
       <c r="E26" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B26),"",IF(ISBLANK(G26),"未着手",IF($J26=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F26" s="4">
@@ -10324,7 +10336,7 @@
       </c>
       <c r="I26" s="19"/>
       <c r="J26" s="12">
-        <f ca="1">IF(ISBLANK(K26)=FALSE,OFFSET(J26,0,COUNTA(K26:O26)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K26" s="19">
@@ -10358,7 +10370,7 @@
         <v>120</v>
       </c>
       <c r="E27" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B27),"",IF(ISBLANK(G27),"未着手",IF($J27=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F27" s="4">
@@ -10372,7 +10384,7 @@
       </c>
       <c r="I27" s="19"/>
       <c r="J27" s="12">
-        <f ca="1">IF(ISBLANK(K27)=FALSE,OFFSET(J27,0,COUNTA(K27:O27)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K27" s="19">
@@ -10406,7 +10418,7 @@
         <v>120</v>
       </c>
       <c r="E28" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B28),"",IF(ISBLANK(G28),"未着手",IF($J28=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
       <c r="F28" s="4">
@@ -10420,7 +10432,7 @@
       </c>
       <c r="I28" s="19"/>
       <c r="J28" s="12">
-        <f ca="1">IF(ISBLANK(K28)=FALSE,OFFSET(J28,0,COUNTA(K28:O28)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K28" s="19">
@@ -10454,7 +10466,7 @@
         <v>127</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f>IF(ISBLANK($B29),"",IF(ISBLANK(G29),"未着手",IF($J29=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F29" s="4"/>
@@ -10462,7 +10474,7 @@
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K29)=FALSE,OFFSET(J29,0,COUNTA(K29:O29)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K29" s="19"/>
@@ -10488,7 +10500,7 @@
         <v>127</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f>IF(ISBLANK($B30),"",IF(ISBLANK(G30),"未着手",IF($J30=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F30" s="4"/>
@@ -10496,7 +10508,7 @@
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K30)=FALSE,OFFSET(J30,0,COUNTA(K30:O30)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K30" s="19"/>
@@ -10522,7 +10534,7 @@
         <v>127</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f>IF(ISBLANK($B31),"",IF(ISBLANK(G31),"未着手",IF($J31=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F31" s="4"/>
@@ -10530,7 +10542,7 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K31)=FALSE,OFFSET(J31,0,COUNTA(K31:O31)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K31" s="19"/>
@@ -10556,7 +10568,7 @@
         <v>127</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f>IF(ISBLANK($B32),"",IF(ISBLANK(G32),"未着手",IF($J32=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F32" s="4">
@@ -10568,7 +10580,7 @@
       </c>
       <c r="I32" s="19"/>
       <c r="J32" s="12">
-        <f ca="1">IF(ISBLANK(K32)=FALSE,OFFSET(J32,0,COUNTA(K32:O32)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K32" s="19">
@@ -10600,7 +10612,7 @@
         <v>125</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B33),"",IF(ISBLANK(G33),"未着手",IF($J33=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F33" s="4">
@@ -10614,7 +10626,7 @@
       </c>
       <c r="I33" s="19"/>
       <c r="J33" s="12">
-        <f ca="1">IF(ISBLANK(K33)=FALSE,OFFSET(J33,0,COUNTA(K33:O33)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0.1</v>
       </c>
       <c r="K33" s="19">
@@ -10646,7 +10658,7 @@
         <v>125</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f>IF(ISBLANK($B34),"",IF(ISBLANK(G34),"未着手",IF($J34=0,"完了","作業中")))</f>
+        <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
       <c r="F34" s="4">
@@ -10658,7 +10670,7 @@
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="12">
-        <f ca="1">IF(ISBLANK(K34)=FALSE,OFFSET(J34,0,COUNTA(K34:O34)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>3</v>
       </c>
       <c r="K34" s="19">
@@ -10690,7 +10702,7 @@
         <v>125</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B35),"",IF(ISBLANK(G35),"未着手",IF($J35=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F35" s="4">
@@ -10704,7 +10716,7 @@
       </c>
       <c r="I35" s="19"/>
       <c r="J35" s="12">
-        <f ca="1">IF(ISBLANK(K35)=FALSE,OFFSET(J35,0,COUNTA(K35:O35)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0.1</v>
       </c>
       <c r="K35" s="19">
@@ -10736,7 +10748,7 @@
         <v>120</v>
       </c>
       <c r="E36" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B36),"",IF(ISBLANK(G36),"未着手",IF($J36=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="3"/>
         <v>作業中</v>
       </c>
       <c r="F36" s="4">
@@ -10750,7 +10762,7 @@
       </c>
       <c r="I36" s="19"/>
       <c r="J36" s="12">
-        <f ca="1">IF(ISBLANK(K36)=FALSE,OFFSET(J36,0,COUNTA(K36:O36)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K36" s="19">
@@ -10784,7 +10796,7 @@
         <v>120</v>
       </c>
       <c r="E37" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
+        <f t="shared" ref="E37:E68" ca="1" si="5">IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
         <v>作業中</v>
       </c>
       <c r="F37" s="4">
@@ -10798,7 +10810,7 @@
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="12">
-        <f ca="1">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:O37)),"")</f>
+        <f t="shared" ref="J37:J68" ca="1" si="6">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:O37)),"")</f>
         <v>1</v>
       </c>
       <c r="K37" s="19">
@@ -10832,7 +10844,7 @@
         <v>120</v>
       </c>
       <c r="E38" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B38),"",IF(ISBLANK(G38),"未着手",IF($J38=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F38" s="4">
@@ -10846,7 +10858,7 @@
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="12">
-        <f ca="1">IF(ISBLANK(K38)=FALSE,OFFSET(J38,0,COUNTA(K38:O38)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K38" s="19">
@@ -10880,7 +10892,7 @@
         <v>120</v>
       </c>
       <c r="E39" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B39),"",IF(ISBLANK(G39),"未着手",IF($J39=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F39" s="4">
@@ -10894,7 +10906,7 @@
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="12">
-        <f ca="1">IF(ISBLANK(K39)=FALSE,OFFSET(J39,0,COUNTA(K39:O39)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K39" s="19">
@@ -10928,7 +10940,7 @@
         <v>127</v>
       </c>
       <c r="E40" s="12" t="str">
-        <f>IF(ISBLANK($B40),"",IF(ISBLANK(G40),"未着手",IF($J40=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F40" s="4">
@@ -10940,7 +10952,7 @@
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="12">
-        <f ca="1">IF(ISBLANK(K40)=FALSE,OFFSET(J40,0,COUNTA(K40:O40)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="K40" s="19">
@@ -10972,7 +10984,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B41),"",IF(ISBLANK(G41),"未着手",IF($J41=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F41" s="4">
@@ -10986,7 +10998,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12">
-        <f ca="1">IF(ISBLANK(K41)=FALSE,OFFSET(J41,0,COUNTA(K41:O41)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="K41" s="19">
@@ -11018,7 +11030,7 @@
         <v>120</v>
       </c>
       <c r="E42" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B42),"",IF(ISBLANK(G42),"未着手",IF($J42=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F42" s="4">
@@ -11032,7 +11044,7 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12">
-        <f ca="1">IF(ISBLANK(K42)=FALSE,OFFSET(J42,0,COUNTA(K42:O42)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>6</v>
       </c>
       <c r="K42" s="19">
@@ -11058,7 +11070,7 @@
       <c r="C43" s="18"/>
       <c r="D43" s="12"/>
       <c r="E43" s="12" t="str">
-        <f>IF(ISBLANK($B43),"",IF(ISBLANK(G43),"未着手",IF($J43=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F43" s="4"/>
@@ -11066,7 +11078,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K43)=FALSE,OFFSET(J43,0,COUNTA(K43:O43)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K43" s="22"/>
@@ -11092,7 +11104,7 @@
         <v>121</v>
       </c>
       <c r="E44" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B44),"",IF(ISBLANK(G44),"未着手",IF($J44=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F44" s="4">
@@ -11106,7 +11118,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12">
-        <f ca="1">IF(ISBLANK(K44)=FALSE,OFFSET(J44,0,COUNTA(K44:O44)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K44" s="22">
@@ -11134,7 +11146,7 @@
         <v>120</v>
       </c>
       <c r="E45" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B45),"",IF(ISBLANK(G45),"未着手",IF($J45=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F45" s="4">
@@ -11148,7 +11160,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12">
-        <f ca="1">IF(ISBLANK(K45)=FALSE,OFFSET(J45,0,COUNTA(K45:O45)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K45" s="22">
@@ -11176,7 +11188,7 @@
         <v>120</v>
       </c>
       <c r="E46" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B46),"",IF(ISBLANK(G46),"未着手",IF($J46=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F46" s="4">
@@ -11190,7 +11202,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12">
-        <f ca="1">IF(ISBLANK(K46)=FALSE,OFFSET(J46,0,COUNTA(K46:O46)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K46" s="22">
@@ -11218,7 +11230,7 @@
         <v>120</v>
       </c>
       <c r="E47" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B47),"",IF(ISBLANK(G47),"未着手",IF($J47=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F47" s="4">
@@ -11232,7 +11244,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="12">
-        <f ca="1">IF(ISBLANK(K47)=FALSE,OFFSET(J47,0,COUNTA(K47:O47)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K47" s="22">
@@ -11260,7 +11272,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B48),"",IF(ISBLANK(G48),"未着手",IF($J48=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F48" s="4">
@@ -11274,7 +11286,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12">
-        <f ca="1">IF(ISBLANK(K48)=FALSE,OFFSET(J48,0,COUNTA(K48:O48)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K48" s="22">
@@ -11302,7 +11314,7 @@
         <v>120</v>
       </c>
       <c r="E49" s="12" t="str">
-        <f>IF(ISBLANK($B49),"",IF(ISBLANK(G49),"未着手",IF($J49=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F49" s="4">
@@ -11314,7 +11326,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="12">
-        <f ca="1">IF(ISBLANK(K49)=FALSE,OFFSET(J49,0,COUNTA(K49:O49)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K49" s="19">
@@ -11342,7 +11354,7 @@
         <v>120</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f>IF(ISBLANK($B50),"",IF(ISBLANK(G50),"未着手",IF($J50=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F50" s="4">
@@ -11354,7 +11366,7 @@
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="12">
-        <f ca="1">IF(ISBLANK(K50)=FALSE,OFFSET(J50,0,COUNTA(K50:O50)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K50" s="19">
@@ -11382,7 +11394,7 @@
         <v>123</v>
       </c>
       <c r="E51" s="12" t="str">
-        <f>IF(ISBLANK($B51),"",IF(ISBLANK(G51),"未着手",IF($J51=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F51" s="4">
@@ -11394,7 +11406,7 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="12">
-        <f ca="1">IF(ISBLANK(K51)=FALSE,OFFSET(J51,0,COUNTA(K51:O51)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>4</v>
       </c>
       <c r="K51" s="19">
@@ -11422,7 +11434,7 @@
         <v>123</v>
       </c>
       <c r="E52" s="12" t="str">
-        <f>IF(ISBLANK($B52),"",IF(ISBLANK(G52),"未着手",IF($J52=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F52" s="4">
@@ -11434,7 +11446,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="12">
-        <f ca="1">IF(ISBLANK(K52)=FALSE,OFFSET(J52,0,COUNTA(K52:O52)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K52" s="19">
@@ -11462,7 +11474,7 @@
         <v>120</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f>IF(ISBLANK($B53),"",IF(ISBLANK(G53),"未着手",IF($J53=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F53" s="4">
@@ -11474,7 +11486,7 @@
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="12">
-        <f ca="1">IF(ISBLANK(K53)=FALSE,OFFSET(J53,0,COUNTA(K53:O53)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K53" s="19">
@@ -11502,7 +11514,7 @@
         <v>120</v>
       </c>
       <c r="E54" s="12" t="str">
-        <f>IF(ISBLANK($B54),"",IF(ISBLANK(G54),"未着手",IF($J54=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F54" s="4">
@@ -11514,7 +11526,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="12">
-        <f ca="1">IF(ISBLANK(K54)=FALSE,OFFSET(J54,0,COUNTA(K54:O54)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K54" s="19">
@@ -11542,7 +11554,7 @@
         <v>120</v>
       </c>
       <c r="E55" s="12" t="str">
-        <f ca="1">IF(ISBLANK($B55),"",IF(ISBLANK(G55),"未着手",IF($J55=0,"完了","作業中")))</f>
+        <f t="shared" ca="1" si="5"/>
         <v>作業中</v>
       </c>
       <c r="F55" s="4">
@@ -11556,7 +11568,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="12">
-        <f ca="1">IF(ISBLANK(K55)=FALSE,OFFSET(J55,0,COUNTA(K55:O55)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>1</v>
       </c>
       <c r="K55" s="19">
@@ -11584,7 +11596,7 @@
         <v>123</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f>IF(ISBLANK($B56),"",IF(ISBLANK(G56),"未着手",IF($J56=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v>未着手</v>
       </c>
       <c r="F56" s="4">
@@ -11596,7 +11608,7 @@
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="12">
-        <f ca="1">IF(ISBLANK(K56)=FALSE,OFFSET(J56,0,COUNTA(K56:O56)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v>2</v>
       </c>
       <c r="K56" s="19">
@@ -11618,7 +11630,7 @@
       <c r="C57" s="18"/>
       <c r="D57" s="12"/>
       <c r="E57" s="12" t="str">
-        <f>IF(ISBLANK($B57),"",IF(ISBLANK(G57),"未着手",IF($J57=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F57" s="4"/>
@@ -11626,7 +11638,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K57)=FALSE,OFFSET(J57,0,COUNTA(K57:O57)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K57" s="22"/>
@@ -11646,7 +11658,7 @@
       <c r="C58" s="18"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12" t="str">
-        <f>IF(ISBLANK($B58),"",IF(ISBLANK(G58),"未着手",IF($J58=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F58" s="4"/>
@@ -11654,7 +11666,7 @@
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K58)=FALSE,OFFSET(J58,0,COUNTA(K58:O58)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K58" s="22"/>
@@ -11674,7 +11686,7 @@
       <c r="C59" s="18"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12" t="str">
-        <f>IF(ISBLANK($B59),"",IF(ISBLANK(G59),"未着手",IF($J59=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F59" s="4"/>
@@ -11682,7 +11694,7 @@
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
       <c r="J59" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K59)=FALSE,OFFSET(J59,0,COUNTA(K59:O59)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K59" s="22"/>
@@ -11702,7 +11714,7 @@
       <c r="C60" s="18"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12" t="str">
-        <f>IF(ISBLANK($B60),"",IF(ISBLANK(G60),"未着手",IF($J60=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F60" s="4"/>
@@ -11710,7 +11722,7 @@
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
       <c r="J60" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K60)=FALSE,OFFSET(J60,0,COUNTA(K60:O60)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K60" s="22"/>
@@ -11730,7 +11742,7 @@
       <c r="C61" s="18"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12" t="str">
-        <f>IF(ISBLANK($B61),"",IF(ISBLANK(G61),"未着手",IF($J61=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F61" s="4"/>
@@ -11738,7 +11750,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K61)=FALSE,OFFSET(J61,0,COUNTA(K61:O61)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K61" s="22"/>
@@ -11758,7 +11770,7 @@
       <c r="C62" s="18"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="str">
-        <f>IF(ISBLANK($B62),"",IF(ISBLANK(G62),"未着手",IF($J62=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F62" s="4"/>
@@ -11766,7 +11778,7 @@
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K62)=FALSE,OFFSET(J62,0,COUNTA(K62:O62)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K62" s="22"/>
@@ -11786,7 +11798,7 @@
       <c r="C63" s="18"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12" t="str">
-        <f>IF(ISBLANK($B63),"",IF(ISBLANK(G63),"未着手",IF($J63=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F63" s="4"/>
@@ -11794,7 +11806,7 @@
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K63)=FALSE,OFFSET(J63,0,COUNTA(K63:O63)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K63" s="22"/>
@@ -11814,7 +11826,7 @@
       <c r="C64" s="18"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12" t="str">
-        <f>IF(ISBLANK($B64),"",IF(ISBLANK(G64),"未着手",IF($J64=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F64" s="4"/>
@@ -11822,7 +11834,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:O64)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -11842,7 +11854,7 @@
       <c r="C65" s="18"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12" t="str">
-        <f>IF(ISBLANK($B65),"",IF(ISBLANK(G65),"未着手",IF($J65=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F65" s="4"/>
@@ -11850,7 +11862,7 @@
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
       <c r="J65" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K65)=FALSE,OFFSET(J65,0,COUNTA(K65:O65)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K65" s="22"/>
@@ -11870,7 +11882,7 @@
       <c r="C66" s="18"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12" t="str">
-        <f>IF(ISBLANK($B66),"",IF(ISBLANK(G66),"未着手",IF($J66=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F66" s="4"/>
@@ -11878,7 +11890,7 @@
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
       <c r="J66" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K66)=FALSE,OFFSET(J66,0,COUNTA(K66:O66)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K66" s="22"/>
@@ -11898,7 +11910,7 @@
       <c r="C67" s="18"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12" t="str">
-        <f>IF(ISBLANK($B67),"",IF(ISBLANK(G67),"未着手",IF($J67=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F67" s="4"/>
@@ -11906,7 +11918,7 @@
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
       <c r="J67" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K67)=FALSE,OFFSET(J67,0,COUNTA(K67:O67)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K67" s="22"/>
@@ -11926,7 +11938,7 @@
       <c r="C68" s="18"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12" t="str">
-        <f>IF(ISBLANK($B68),"",IF(ISBLANK(G68),"未着手",IF($J68=0,"完了","作業中")))</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="F68" s="4"/>
@@ -11934,7 +11946,7 @@
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
       <c r="J68" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K68)=FALSE,OFFSET(J68,0,COUNTA(K68:O68)),"")</f>
+        <f t="shared" ca="1" si="6"/>
         <v/>
       </c>
       <c r="K68" s="22"/>
@@ -11954,7 +11966,7 @@
       <c r="C69" s="18"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12" t="str">
-        <f>IF(ISBLANK($B69),"",IF(ISBLANK(G69),"未着手",IF($J69=0,"完了","作業中")))</f>
+        <f t="shared" ref="E69:E104" si="7">IF(ISBLANK($B69),"",IF(ISBLANK(G69),"未着手",IF($J69=0,"完了","作業中")))</f>
         <v/>
       </c>
       <c r="F69" s="4"/>
@@ -11962,7 +11974,7 @@
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
       <c r="J69" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:O69)),"")</f>
+        <f t="shared" ref="J69:J100" ca="1" si="8">IF(ISBLANK(K69)=FALSE,OFFSET(J69,0,COUNTA(K69:O69)),"")</f>
         <v/>
       </c>
       <c r="K69" s="22"/>
@@ -11982,7 +11994,7 @@
       <c r="C70" s="18"/>
       <c r="D70" s="12"/>
       <c r="E70" s="12" t="str">
-        <f>IF(ISBLANK($B70),"",IF(ISBLANK(G70),"未着手",IF($J70=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F70" s="4"/>
@@ -11990,7 +12002,7 @@
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K70)=FALSE,OFFSET(J70,0,COUNTA(K70:O70)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K70" s="22"/>
@@ -12010,7 +12022,7 @@
       <c r="C71" s="18"/>
       <c r="D71" s="12"/>
       <c r="E71" s="12" t="str">
-        <f>IF(ISBLANK($B71),"",IF(ISBLANK(G71),"未着手",IF($J71=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F71" s="4"/>
@@ -12018,7 +12030,7 @@
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
       <c r="J71" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:O71)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K71" s="22"/>
@@ -12038,7 +12050,7 @@
       <c r="C72" s="18"/>
       <c r="D72" s="12"/>
       <c r="E72" s="12" t="str">
-        <f>IF(ISBLANK($B72),"",IF(ISBLANK(G72),"未着手",IF($J72=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F72" s="4"/>
@@ -12046,7 +12058,7 @@
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
       <c r="J72" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K72)=FALSE,OFFSET(J72,0,COUNTA(K72:O72)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K72" s="22"/>
@@ -12066,7 +12078,7 @@
       <c r="C73" s="18"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="str">
-        <f>IF(ISBLANK($B73),"",IF(ISBLANK(G73),"未着手",IF($J73=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F73" s="4"/>
@@ -12074,7 +12086,7 @@
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K73)=FALSE,OFFSET(J73,0,COUNTA(K73:O73)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K73" s="22"/>
@@ -12094,7 +12106,7 @@
       <c r="C74" s="18"/>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="str">
-        <f>IF(ISBLANK($B74),"",IF(ISBLANK(G74),"未着手",IF($J74=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F74" s="4"/>
@@ -12102,7 +12114,7 @@
       <c r="H74" s="19"/>
       <c r="I74" s="19"/>
       <c r="J74" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K74)=FALSE,OFFSET(J74,0,COUNTA(K74:O74)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K74" s="22"/>
@@ -12122,7 +12134,7 @@
       <c r="C75" s="18"/>
       <c r="D75" s="12"/>
       <c r="E75" s="12" t="str">
-        <f>IF(ISBLANK($B75),"",IF(ISBLANK(G75),"未着手",IF($J75=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F75" s="4"/>
@@ -12130,7 +12142,7 @@
       <c r="H75" s="19"/>
       <c r="I75" s="19"/>
       <c r="J75" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K75)=FALSE,OFFSET(J75,0,COUNTA(K75:O75)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K75" s="22"/>
@@ -12150,7 +12162,7 @@
       <c r="C76" s="18"/>
       <c r="D76" s="12"/>
       <c r="E76" s="12" t="str">
-        <f>IF(ISBLANK($B76),"",IF(ISBLANK(G76),"未着手",IF($J76=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F76" s="4"/>
@@ -12158,7 +12170,7 @@
       <c r="H76" s="19"/>
       <c r="I76" s="19"/>
       <c r="J76" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K76)=FALSE,OFFSET(J76,0,COUNTA(K76:O76)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K76" s="22"/>
@@ -12178,7 +12190,7 @@
       <c r="C77" s="18"/>
       <c r="D77" s="12"/>
       <c r="E77" s="12" t="str">
-        <f>IF(ISBLANK($B77),"",IF(ISBLANK(G77),"未着手",IF($J77=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F77" s="4"/>
@@ -12186,7 +12198,7 @@
       <c r="H77" s="19"/>
       <c r="I77" s="19"/>
       <c r="J77" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K77)=FALSE,OFFSET(J77,0,COUNTA(K77:O77)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K77" s="22"/>
@@ -12206,7 +12218,7 @@
       <c r="C78" s="18"/>
       <c r="D78" s="12"/>
       <c r="E78" s="12" t="str">
-        <f>IF(ISBLANK($B78),"",IF(ISBLANK(G78),"未着手",IF($J78=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F78" s="4"/>
@@ -12214,7 +12226,7 @@
       <c r="H78" s="19"/>
       <c r="I78" s="19"/>
       <c r="J78" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K78)=FALSE,OFFSET(J78,0,COUNTA(K78:O78)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K78" s="22"/>
@@ -12234,7 +12246,7 @@
       <c r="C79" s="18"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12" t="str">
-        <f>IF(ISBLANK($B79),"",IF(ISBLANK(G79),"未着手",IF($J79=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F79" s="4"/>
@@ -12242,7 +12254,7 @@
       <c r="H79" s="19"/>
       <c r="I79" s="19"/>
       <c r="J79" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K79)=FALSE,OFFSET(J79,0,COUNTA(K79:O79)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K79" s="22"/>
@@ -12262,7 +12274,7 @@
       <c r="C80" s="18"/>
       <c r="D80" s="12"/>
       <c r="E80" s="12" t="str">
-        <f>IF(ISBLANK($B80),"",IF(ISBLANK(G80),"未着手",IF($J80=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F80" s="4"/>
@@ -12270,7 +12282,7 @@
       <c r="H80" s="19"/>
       <c r="I80" s="19"/>
       <c r="J80" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K80)=FALSE,OFFSET(J80,0,COUNTA(K80:O80)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K80" s="22"/>
@@ -12290,7 +12302,7 @@
       <c r="C81" s="18"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12" t="str">
-        <f>IF(ISBLANK($B81),"",IF(ISBLANK(G81),"未着手",IF($J81=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F81" s="4"/>
@@ -12298,7 +12310,7 @@
       <c r="H81" s="19"/>
       <c r="I81" s="19"/>
       <c r="J81" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K81)=FALSE,OFFSET(J81,0,COUNTA(K81:O81)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K81" s="22"/>
@@ -12318,7 +12330,7 @@
       <c r="C82" s="18"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12" t="str">
-        <f>IF(ISBLANK($B82),"",IF(ISBLANK(G82),"未着手",IF($J82=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F82" s="4"/>
@@ -12326,7 +12338,7 @@
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K82)=FALSE,OFFSET(J82,0,COUNTA(K82:O82)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K82" s="22"/>
@@ -12346,7 +12358,7 @@
       <c r="C83" s="18"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12" t="str">
-        <f>IF(ISBLANK($B83),"",IF(ISBLANK(G83),"未着手",IF($J83=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F83" s="4"/>
@@ -12354,7 +12366,7 @@
       <c r="H83" s="19"/>
       <c r="I83" s="19"/>
       <c r="J83" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K83)=FALSE,OFFSET(J83,0,COUNTA(K83:O83)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K83" s="22"/>
@@ -12374,7 +12386,7 @@
       <c r="C84" s="18"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12" t="str">
-        <f>IF(ISBLANK($B84),"",IF(ISBLANK(G84),"未着手",IF($J84=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F84" s="4"/>
@@ -12382,7 +12394,7 @@
       <c r="H84" s="19"/>
       <c r="I84" s="19"/>
       <c r="J84" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K84)=FALSE,OFFSET(J84,0,COUNTA(K84:O84)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K84" s="22"/>
@@ -12402,7 +12414,7 @@
       <c r="C85" s="18"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12" t="str">
-        <f>IF(ISBLANK($B85),"",IF(ISBLANK(G85),"未着手",IF($J85=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F85" s="4"/>
@@ -12410,7 +12422,7 @@
       <c r="H85" s="19"/>
       <c r="I85" s="19"/>
       <c r="J85" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K85)=FALSE,OFFSET(J85,0,COUNTA(K85:O85)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K85" s="22"/>
@@ -12430,7 +12442,7 @@
       <c r="C86" s="18"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12" t="str">
-        <f>IF(ISBLANK($B86),"",IF(ISBLANK(G86),"未着手",IF($J86=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F86" s="4"/>
@@ -12438,7 +12450,7 @@
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K86)=FALSE,OFFSET(J86,0,COUNTA(K86:O86)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K86" s="22"/>
@@ -12458,7 +12470,7 @@
       <c r="C87" s="18"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12" t="str">
-        <f>IF(ISBLANK($B87),"",IF(ISBLANK(G87),"未着手",IF($J87=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F87" s="4"/>
@@ -12466,7 +12478,7 @@
       <c r="H87" s="19"/>
       <c r="I87" s="19"/>
       <c r="J87" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K87)=FALSE,OFFSET(J87,0,COUNTA(K87:O87)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K87" s="22"/>
@@ -12486,7 +12498,7 @@
       <c r="C88" s="18"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12" t="str">
-        <f>IF(ISBLANK($B88),"",IF(ISBLANK(G88),"未着手",IF($J88=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F88" s="4"/>
@@ -12494,7 +12506,7 @@
       <c r="H88" s="19"/>
       <c r="I88" s="19"/>
       <c r="J88" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K88)=FALSE,OFFSET(J88,0,COUNTA(K88:O88)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K88" s="22"/>
@@ -12514,7 +12526,7 @@
       <c r="C89" s="18"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12" t="str">
-        <f>IF(ISBLANK($B89),"",IF(ISBLANK(G89),"未着手",IF($J89=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F89" s="4"/>
@@ -12522,7 +12534,7 @@
       <c r="H89" s="19"/>
       <c r="I89" s="19"/>
       <c r="J89" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K89)=FALSE,OFFSET(J89,0,COUNTA(K89:O89)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K89" s="22"/>
@@ -12542,7 +12554,7 @@
       <c r="C90" s="18"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12" t="str">
-        <f>IF(ISBLANK($B90),"",IF(ISBLANK(G90),"未着手",IF($J90=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F90" s="4"/>
@@ -12550,7 +12562,7 @@
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K90)=FALSE,OFFSET(J90,0,COUNTA(K90:O90)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K90" s="22"/>
@@ -12570,7 +12582,7 @@
       <c r="C91" s="18"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12" t="str">
-        <f>IF(ISBLANK($B91),"",IF(ISBLANK(G91),"未着手",IF($J91=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F91" s="4"/>
@@ -12578,7 +12590,7 @@
       <c r="H91" s="19"/>
       <c r="I91" s="19"/>
       <c r="J91" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K91)=FALSE,OFFSET(J91,0,COUNTA(K91:O91)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K91" s="22"/>
@@ -12596,7 +12608,7 @@
       <c r="C92" s="18"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12" t="str">
-        <f>IF(ISBLANK($B92),"",IF(ISBLANK(G92),"未着手",IF($J92=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F92" s="4"/>
@@ -12604,7 +12616,7 @@
       <c r="H92" s="19"/>
       <c r="I92" s="19"/>
       <c r="J92" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K92)=FALSE,OFFSET(J92,0,COUNTA(K92:O92)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K92" s="22"/>
@@ -12622,7 +12634,7 @@
       <c r="C93" s="18"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12" t="str">
-        <f>IF(ISBLANK($B93),"",IF(ISBLANK(G93),"未着手",IF($J93=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F93" s="4"/>
@@ -12630,7 +12642,7 @@
       <c r="H93" s="19"/>
       <c r="I93" s="19"/>
       <c r="J93" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K93)=FALSE,OFFSET(J93,0,COUNTA(K93:O93)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K93" s="22"/>
@@ -12648,7 +12660,7 @@
       <c r="C94" s="18"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12" t="str">
-        <f>IF(ISBLANK($B94),"",IF(ISBLANK(G94),"未着手",IF($J94=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F94" s="4"/>
@@ -12656,7 +12668,7 @@
       <c r="H94" s="19"/>
       <c r="I94" s="19"/>
       <c r="J94" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K94)=FALSE,OFFSET(J94,0,COUNTA(K94:O94)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K94" s="22"/>
@@ -12674,7 +12686,7 @@
       <c r="C95" s="18"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="str">
-        <f>IF(ISBLANK($B95),"",IF(ISBLANK(G95),"未着手",IF($J95=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F95" s="4"/>
@@ -12682,7 +12694,7 @@
       <c r="H95" s="19"/>
       <c r="I95" s="19"/>
       <c r="J95" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K95)=FALSE,OFFSET(J95,0,COUNTA(K95:O95)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K95" s="22"/>
@@ -12700,7 +12712,7 @@
       <c r="C96" s="18"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12" t="str">
-        <f>IF(ISBLANK($B96),"",IF(ISBLANK(G96),"未着手",IF($J96=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F96" s="4"/>
@@ -12708,7 +12720,7 @@
       <c r="H96" s="19"/>
       <c r="I96" s="19"/>
       <c r="J96" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K96)=FALSE,OFFSET(J96,0,COUNTA(K96:O96)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K96" s="22"/>
@@ -12726,7 +12738,7 @@
       <c r="C97" s="18"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12" t="str">
-        <f>IF(ISBLANK($B97),"",IF(ISBLANK(G97),"未着手",IF($J97=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F97" s="4"/>
@@ -12734,7 +12746,7 @@
       <c r="H97" s="19"/>
       <c r="I97" s="19"/>
       <c r="J97" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K97)=FALSE,OFFSET(J97,0,COUNTA(K97:O97)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K97" s="22"/>
@@ -12752,7 +12764,7 @@
       <c r="C98" s="18"/>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="str">
-        <f>IF(ISBLANK($B98),"",IF(ISBLANK(G98),"未着手",IF($J98=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F98" s="4"/>
@@ -12760,7 +12772,7 @@
       <c r="H98" s="19"/>
       <c r="I98" s="19"/>
       <c r="J98" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K98)=FALSE,OFFSET(J98,0,COUNTA(K98:O98)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K98" s="22"/>
@@ -12778,7 +12790,7 @@
       <c r="C99" s="18"/>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="str">
-        <f>IF(ISBLANK($B99),"",IF(ISBLANK(G99),"未着手",IF($J99=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F99" s="4"/>
@@ -12786,7 +12798,7 @@
       <c r="H99" s="19"/>
       <c r="I99" s="19"/>
       <c r="J99" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K99)=FALSE,OFFSET(J99,0,COUNTA(K99:O99)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K99" s="22"/>
@@ -12804,7 +12816,7 @@
       <c r="C100" s="18"/>
       <c r="D100" s="12"/>
       <c r="E100" s="12" t="str">
-        <f>IF(ISBLANK($B100),"",IF(ISBLANK(G100),"未着手",IF($J100=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F100" s="4"/>
@@ -12812,7 +12824,7 @@
       <c r="H100" s="19"/>
       <c r="I100" s="19"/>
       <c r="J100" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K100)=FALSE,OFFSET(J100,0,COUNTA(K100:O100)),"")</f>
+        <f t="shared" ca="1" si="8"/>
         <v/>
       </c>
       <c r="K100" s="22"/>
@@ -12830,7 +12842,7 @@
       <c r="C101" s="18"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12" t="str">
-        <f>IF(ISBLANK($B101),"",IF(ISBLANK(G101),"未着手",IF($J101=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F101" s="4"/>
@@ -12838,7 +12850,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:O101)),"")</f>
+        <f t="shared" ref="J101:J132" ca="1" si="9">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:O101)),"")</f>
         <v/>
       </c>
       <c r="K101" s="22"/>
@@ -12856,7 +12868,7 @@
       <c r="C102" s="18"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12" t="str">
-        <f>IF(ISBLANK($B102),"",IF(ISBLANK(G102),"未着手",IF($J102=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F102" s="4"/>
@@ -12864,7 +12876,7 @@
       <c r="H102" s="19"/>
       <c r="I102" s="19"/>
       <c r="J102" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K102)=FALSE,OFFSET(J102,0,COUNTA(K102:O102)),"")</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K102" s="22"/>
@@ -12882,7 +12894,7 @@
       <c r="C103" s="18"/>
       <c r="D103" s="12"/>
       <c r="E103" s="12" t="str">
-        <f>IF(ISBLANK($B103),"",IF(ISBLANK(G103),"未着手",IF($J103=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F103" s="4"/>
@@ -12890,7 +12902,7 @@
       <c r="H103" s="19"/>
       <c r="I103" s="19"/>
       <c r="J103" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K103)=FALSE,OFFSET(J103,0,COUNTA(K103:O103)),"")</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K103" s="22"/>
@@ -12908,7 +12920,7 @@
       <c r="C104" s="18"/>
       <c r="D104" s="12"/>
       <c r="E104" s="12" t="str">
-        <f>IF(ISBLANK($B104),"",IF(ISBLANK(G104),"未着手",IF($J104=0,"完了","作業中")))</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="F104" s="4"/>
@@ -12916,7 +12928,7 @@
       <c r="H104" s="19"/>
       <c r="I104" s="19"/>
       <c r="J104" s="12" t="str">
-        <f ca="1">IF(ISBLANK(K104)=FALSE,OFFSET(J104,0,COUNTA(K104:O104)),"")</f>
+        <f t="shared" ca="1" si="9"/>
         <v/>
       </c>
       <c r="K104" s="22"/>
@@ -12931,7 +12943,7 @@
     <row r="105" spans="1:25" ht="10.5" customHeight="1">
       <c r="D105" s="12"/>
       <c r="J105" s="12" t="str">
-        <f t="shared" ref="J105:J134" ca="1" si="2">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:O105)),"")</f>
+        <f t="shared" ref="J105:J134" ca="1" si="10">IF(ISBLANK(K105)=FALSE,OFFSET(J105,0,COUNTA(K105:O105)),"")</f>
         <v/>
       </c>
       <c r="K105" s="6"/>
@@ -12946,7 +12958,7 @@
     <row r="106" spans="1:25">
       <c r="D106" s="12"/>
       <c r="J106" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K106" s="6"/>
@@ -12979,7 +12991,7 @@
     <row r="107" spans="1:25">
       <c r="D107" s="12"/>
       <c r="J107" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K107" s="6"/>
@@ -12994,20 +13006,20 @@
         <v>112</v>
       </c>
       <c r="U107" s="10">
-        <f t="shared" ref="U107:U116" si="3">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
+        <f t="shared" ref="U107:U116" si="11">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
         <v>26</v>
       </c>
       <c r="V107" s="10">
-        <f t="shared" ref="V107:V116" ca="1" si="4">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
+        <f t="shared" ref="V107:V116" ca="1" si="12">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
         <v>23</v>
       </c>
       <c r="W107" s="10">
-        <f t="shared" ref="W107:W116" si="5">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
+        <f t="shared" ref="W107:W116" si="13">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
         <v>0</v>
       </c>
       <c r="X107" s="14">
-        <f t="shared" ref="X107:X116" si="6">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>30</v>
+        <f t="shared" ref="X107:X116" si="14">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
+        <v>24</v>
       </c>
       <c r="Y107" s="15">
         <f ca="1">IF(X107&gt;V107,0,V107-X107)</f>
@@ -13017,7 +13029,7 @@
     <row r="108" spans="1:25">
       <c r="D108" s="12"/>
       <c r="J108" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K108" s="6"/>
@@ -13032,7 +13044,7 @@
         <v>113</v>
       </c>
       <c r="U108" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>22.2</v>
       </c>
       <c r="V108" s="10">
@@ -13040,22 +13052,22 @@
         <v>12</v>
       </c>
       <c r="W108" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X108" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y108" s="15">
-        <f t="shared" ref="Y108:Y116" ca="1" si="7">IF(X108&gt;V108,0,V108-X108)</f>
+        <f t="shared" ref="Y108:Y116" ca="1" si="15">IF(X108&gt;V108,0,V108-X108)</f>
         <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:25">
       <c r="D109" s="12"/>
       <c r="J109" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K109" s="6"/>
@@ -13070,30 +13082,30 @@
         <v>114</v>
       </c>
       <c r="U109" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="V109" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>14</v>
       </c>
       <c r="W109" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X109" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y109" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:25">
       <c r="D110" s="12"/>
       <c r="J110" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K110" s="6"/>
@@ -13108,30 +13120,30 @@
         <v>142</v>
       </c>
       <c r="U110" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>22.200000000000003</v>
       </c>
       <c r="V110" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>13.2</v>
       </c>
       <c r="W110" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X110" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y110" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="D111" s="12"/>
       <c r="J111" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K111" s="6"/>
@@ -13146,30 +13158,30 @@
         <v>115</v>
       </c>
       <c r="U111" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="V111" s="10">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="12"/>
         <v>5</v>
       </c>
       <c r="W111" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X111" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y111" s="15">
-        <f t="shared" ca="1" si="7"/>
+        <f t="shared" ca="1" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="D112" s="12"/>
       <c r="J112" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K112" s="6"/>
@@ -13182,30 +13194,30 @@
       <c r="R112" s="6"/>
       <c r="T112" s="11"/>
       <c r="U112" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V112" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W112" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X112" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y112" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="113" spans="4:25">
       <c r="D113" s="12"/>
       <c r="J113" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K113" s="6"/>
@@ -13218,30 +13230,30 @@
       <c r="R113" s="6"/>
       <c r="T113" s="11"/>
       <c r="U113" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V113" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W113" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X113" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y113" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="114" spans="4:25">
       <c r="D114" s="12"/>
       <c r="J114" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K114" s="6"/>
@@ -13254,30 +13266,30 @@
       <c r="R114" s="6"/>
       <c r="T114" s="11"/>
       <c r="U114" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V114" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W114" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X114" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y114" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="115" spans="4:25">
       <c r="D115" s="12"/>
       <c r="J115" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K115" s="6"/>
@@ -13290,30 +13302,30 @@
       <c r="R115" s="6"/>
       <c r="T115" s="11"/>
       <c r="U115" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V115" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W115" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X115" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y115" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="116" spans="4:25">
       <c r="D116" s="12"/>
       <c r="J116" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K116" s="6"/>
@@ -13326,30 +13338,30 @@
       <c r="R116" s="6"/>
       <c r="T116" s="11"/>
       <c r="U116" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V116" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W116" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X116" s="14">
-        <f t="shared" si="6"/>
-        <v>30</v>
+        <f t="shared" si="14"/>
+        <v>24</v>
       </c>
       <c r="Y116" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="117" spans="4:25">
       <c r="D117" s="12"/>
       <c r="J117" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K117" s="6"/>
@@ -13364,7 +13376,7 @@
     <row r="118" spans="4:25">
       <c r="D118" s="12"/>
       <c r="J118" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K118" s="6"/>
@@ -13379,7 +13391,7 @@
     <row r="119" spans="4:25">
       <c r="D119" s="12"/>
       <c r="J119" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K119" s="6"/>
@@ -13394,7 +13406,7 @@
     <row r="120" spans="4:25">
       <c r="D120" s="12"/>
       <c r="J120" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K120" s="6"/>
@@ -13409,7 +13421,7 @@
     <row r="121" spans="4:25">
       <c r="D121" s="12"/>
       <c r="J121" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K121" s="6"/>
@@ -13424,7 +13436,7 @@
     <row r="122" spans="4:25">
       <c r="D122" s="12"/>
       <c r="J122" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K122" s="6"/>
@@ -13439,7 +13451,7 @@
     <row r="123" spans="4:25">
       <c r="D123" s="12"/>
       <c r="J123" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K123" s="6"/>
@@ -13454,7 +13466,7 @@
     <row r="124" spans="4:25">
       <c r="D124" s="12"/>
       <c r="J124" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K124" s="6"/>
@@ -13469,7 +13481,7 @@
     <row r="125" spans="4:25">
       <c r="D125" s="12"/>
       <c r="J125" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K125" s="6"/>
@@ -13484,7 +13496,7 @@
     <row r="126" spans="4:25">
       <c r="D126" s="12"/>
       <c r="J126" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K126" s="6"/>
@@ -13499,7 +13511,7 @@
     <row r="127" spans="4:25">
       <c r="D127" s="12"/>
       <c r="J127" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K127" s="6"/>
@@ -13514,7 +13526,7 @@
     <row r="128" spans="4:25">
       <c r="D128" s="12"/>
       <c r="J128" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K128" s="6"/>
@@ -13529,7 +13541,7 @@
     <row r="129" spans="4:18">
       <c r="D129" s="12"/>
       <c r="J129" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K129" s="6"/>
@@ -13544,7 +13556,7 @@
     <row r="130" spans="4:18">
       <c r="D130" s="12"/>
       <c r="J130" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K130" s="6"/>
@@ -13559,7 +13571,7 @@
     <row r="131" spans="4:18">
       <c r="D131" s="12"/>
       <c r="J131" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K131" s="6"/>
@@ -13574,7 +13586,7 @@
     <row r="132" spans="4:18">
       <c r="D132" s="12"/>
       <c r="J132" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K132" s="6"/>
@@ -13589,7 +13601,7 @@
     <row r="133" spans="4:18">
       <c r="D133" s="12"/>
       <c r="J133" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K133" s="6"/>
@@ -13604,7 +13616,7 @@
     <row r="134" spans="4:18">
       <c r="D134" s="12"/>
       <c r="J134" s="12" t="str">
-        <f t="shared" ca="1" si="2"/>
+        <f t="shared" ca="1" si="10"/>
         <v/>
       </c>
       <c r="K134" s="6"/>
@@ -13619,7 +13631,7 @@
     <row r="135" spans="4:18">
       <c r="D135" s="12"/>
       <c r="J135" s="12" t="str">
-        <f t="shared" ref="J135:J183" ca="1" si="8">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:O135)),"")</f>
+        <f t="shared" ref="J135:J183" ca="1" si="16">IF(ISBLANK(K135)=FALSE,OFFSET(J135,0,COUNTA(K135:O135)),"")</f>
         <v/>
       </c>
       <c r="K135" s="6"/>
@@ -13634,7 +13646,7 @@
     <row r="136" spans="4:18">
       <c r="D136" s="12"/>
       <c r="J136" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K136" s="6"/>
@@ -13649,7 +13661,7 @@
     <row r="137" spans="4:18">
       <c r="D137" s="12"/>
       <c r="J137" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K137" s="6"/>
@@ -13664,7 +13676,7 @@
     <row r="138" spans="4:18">
       <c r="D138" s="12"/>
       <c r="J138" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K138" s="6"/>
@@ -13679,7 +13691,7 @@
     <row r="139" spans="4:18">
       <c r="D139" s="12"/>
       <c r="J139" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K139" s="6"/>
@@ -13694,7 +13706,7 @@
     <row r="140" spans="4:18">
       <c r="D140" s="12"/>
       <c r="J140" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K140" s="6"/>
@@ -13709,7 +13721,7 @@
     <row r="141" spans="4:18">
       <c r="D141" s="12"/>
       <c r="J141" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K141" s="6"/>
@@ -13724,7 +13736,7 @@
     <row r="142" spans="4:18">
       <c r="D142" s="12"/>
       <c r="J142" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K142" s="6"/>
@@ -13739,7 +13751,7 @@
     <row r="143" spans="4:18">
       <c r="D143" s="12"/>
       <c r="J143" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K143" s="6"/>
@@ -13754,7 +13766,7 @@
     <row r="144" spans="4:18">
       <c r="D144" s="12"/>
       <c r="J144" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K144" s="6"/>
@@ -13769,7 +13781,7 @@
     <row r="145" spans="4:18">
       <c r="D145" s="12"/>
       <c r="J145" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K145" s="6"/>
@@ -13784,7 +13796,7 @@
     <row r="146" spans="4:18">
       <c r="D146" s="12"/>
       <c r="J146" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K146" s="6"/>
@@ -13799,7 +13811,7 @@
     <row r="147" spans="4:18">
       <c r="D147" s="12"/>
       <c r="J147" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K147" s="6"/>
@@ -13814,7 +13826,7 @@
     <row r="148" spans="4:18">
       <c r="D148" s="12"/>
       <c r="J148" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K148" s="6"/>
@@ -13829,7 +13841,7 @@
     <row r="149" spans="4:18">
       <c r="D149" s="12"/>
       <c r="J149" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K149" s="6"/>
@@ -13844,7 +13856,7 @@
     <row r="150" spans="4:18">
       <c r="D150" s="12"/>
       <c r="J150" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K150" s="6"/>
@@ -13859,7 +13871,7 @@
     <row r="151" spans="4:18">
       <c r="D151" s="12"/>
       <c r="J151" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K151" s="6"/>
@@ -13874,7 +13886,7 @@
     <row r="152" spans="4:18">
       <c r="D152" s="12"/>
       <c r="J152" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K152" s="6"/>
@@ -13889,7 +13901,7 @@
     <row r="153" spans="4:18">
       <c r="D153" s="12"/>
       <c r="J153" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K153" s="6"/>
@@ -13904,7 +13916,7 @@
     <row r="154" spans="4:18">
       <c r="D154" s="12"/>
       <c r="J154" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K154" s="6"/>
@@ -13919,7 +13931,7 @@
     <row r="155" spans="4:18">
       <c r="D155" s="12"/>
       <c r="J155" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K155" s="6"/>
@@ -13934,7 +13946,7 @@
     <row r="156" spans="4:18">
       <c r="D156" s="12"/>
       <c r="J156" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K156" s="6"/>
@@ -13949,7 +13961,7 @@
     <row r="157" spans="4:18">
       <c r="D157" s="12"/>
       <c r="J157" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K157" s="6"/>
@@ -13964,7 +13976,7 @@
     <row r="158" spans="4:18">
       <c r="D158" s="12"/>
       <c r="J158" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K158" s="6"/>
@@ -13979,7 +13991,7 @@
     <row r="159" spans="4:18">
       <c r="D159" s="12"/>
       <c r="J159" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K159" s="6"/>
@@ -13994,7 +14006,7 @@
     <row r="160" spans="4:18">
       <c r="D160" s="12"/>
       <c r="J160" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K160" s="6"/>
@@ -14009,7 +14021,7 @@
     <row r="161" spans="4:18">
       <c r="D161" s="12"/>
       <c r="J161" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K161" s="6"/>
@@ -14024,7 +14036,7 @@
     <row r="162" spans="4:18">
       <c r="D162" s="12"/>
       <c r="J162" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K162" s="6"/>
@@ -14039,7 +14051,7 @@
     <row r="163" spans="4:18">
       <c r="D163" s="12"/>
       <c r="J163" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K163" s="6"/>
@@ -14054,7 +14066,7 @@
     <row r="164" spans="4:18">
       <c r="D164" s="12"/>
       <c r="J164" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K164" s="6"/>
@@ -14069,7 +14081,7 @@
     <row r="165" spans="4:18">
       <c r="D165" s="12"/>
       <c r="J165" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K165" s="6"/>
@@ -14084,7 +14096,7 @@
     <row r="166" spans="4:18">
       <c r="D166" s="12"/>
       <c r="J166" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K166" s="6"/>
@@ -14099,7 +14111,7 @@
     <row r="167" spans="4:18">
       <c r="D167" s="12"/>
       <c r="J167" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K167" s="6"/>
@@ -14114,7 +14126,7 @@
     <row r="168" spans="4:18">
       <c r="D168" s="12"/>
       <c r="J168" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K168" s="6"/>
@@ -14129,7 +14141,7 @@
     <row r="169" spans="4:18">
       <c r="D169" s="12"/>
       <c r="J169" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K169" s="6"/>
@@ -14144,7 +14156,7 @@
     <row r="170" spans="4:18">
       <c r="D170" s="12"/>
       <c r="J170" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K170" s="6"/>
@@ -14159,7 +14171,7 @@
     <row r="171" spans="4:18">
       <c r="D171" s="12"/>
       <c r="J171" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K171" s="6"/>
@@ -14174,7 +14186,7 @@
     <row r="172" spans="4:18">
       <c r="D172" s="12"/>
       <c r="J172" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K172" s="6"/>
@@ -14189,7 +14201,7 @@
     <row r="173" spans="4:18">
       <c r="D173" s="12"/>
       <c r="J173" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K173" s="6"/>
@@ -14204,7 +14216,7 @@
     <row r="174" spans="4:18">
       <c r="D174" s="12"/>
       <c r="J174" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K174" s="6"/>
@@ -14219,7 +14231,7 @@
     <row r="175" spans="4:18">
       <c r="D175" s="12"/>
       <c r="J175" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K175" s="6"/>
@@ -14234,7 +14246,7 @@
     <row r="176" spans="4:18">
       <c r="D176" s="12"/>
       <c r="J176" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K176" s="6"/>
@@ -14249,7 +14261,7 @@
     <row r="177" spans="4:18">
       <c r="D177" s="12"/>
       <c r="J177" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K177" s="6"/>
@@ -14264,7 +14276,7 @@
     <row r="178" spans="4:18">
       <c r="D178" s="12"/>
       <c r="J178" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K178" s="6"/>
@@ -14279,7 +14291,7 @@
     <row r="179" spans="4:18">
       <c r="D179" s="12"/>
       <c r="J179" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K179" s="6"/>
@@ -14294,7 +14306,7 @@
     <row r="180" spans="4:18">
       <c r="D180" s="12"/>
       <c r="J180" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K180" s="6"/>
@@ -14309,7 +14321,7 @@
     <row r="181" spans="4:18">
       <c r="D181" s="12"/>
       <c r="J181" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K181" s="6"/>
@@ -14324,7 +14336,7 @@
     <row r="182" spans="4:18">
       <c r="D182" s="12"/>
       <c r="J182" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K182" s="6"/>
@@ -14339,7 +14351,7 @@
     <row r="183" spans="4:18">
       <c r="D183" s="12"/>
       <c r="J183" s="12" t="str">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="16"/>
         <v/>
       </c>
       <c r="K183" s="6"/>
@@ -14433,59 +14445,59 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:XFD6 J7:J183 E6:E104 L5:M42 A5:C104 K7:XFD104 E7:I104">
-    <cfRule type="expression" dxfId="2" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="13" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="47" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="14" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="46" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="15" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="16" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184:D65536 C105:C183">
-    <cfRule type="expression" dxfId="44" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="17" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="43" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="18" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="19" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184:R65536 F105:I183 K105:R183">
-    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="20" stopIfTrue="1">
       <formula>$E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="21" stopIfTrue="1">
       <formula>$E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="22" stopIfTrue="1">
       <formula>OR($E105="終了",$E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D183">
-    <cfRule type="expression" dxfId="38" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="5" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="6" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="7" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:R183">
-    <cfRule type="expression" dxfId="0" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="11" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18300,57 +18312,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="35" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="32" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="29" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:S65536">
-    <cfRule type="expression" dxfId="23" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21587,57 +21599,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="20" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="17" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="11" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="8" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22452,13 +22464,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1045,22 +1045,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>全員のスコア表示作成(スコア降順)</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>コウジュン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>スコア倍率を画面演出で表現する</t>
     <rPh sb="3" eb="5">
       <t>バイリツ</t>
@@ -1245,23 +1229,6 @@
     <rPh sb="12" eb="14">
       <t>ケンサク</t>
     </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>敵の行動パターン(未定)</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウドウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>敵の行動パターン(未定)</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1623,6 +1590,94 @@
   </si>
   <si>
     <t>進藤</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のバランスを崩す</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クズ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のバランスを修正する</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のバランスが崩れて転倒(操作不能)</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>クズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>テントウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウサ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全員のスコア表示作成(スコア昇順)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のテクニックタイプの挙動作成</t>
+    <rPh sb="11" eb="13">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のクイックタイプの挙動作成</t>
+    <rPh sb="10" eb="12">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>敵のパワータイプの挙動作成</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -3325,16 +3380,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100.4</c:v>
+                  <c:v>102.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77.400000000000006</c:v>
+                  <c:v>102.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77.400000000000006</c:v>
+                  <c:v>102.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9</c:v>
+                  <c:v>69.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,16 +3472,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>102</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>87</c:v>
+                  <c:v>89</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>62</c:v>
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3881,19 +3942,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>23</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>12</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>13.2</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -4129,7 +4190,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.2</c:v>
+                  <c:v>28.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>15</c:v>
@@ -4239,7 +4300,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9175,8 +9236,8 @@
   <dimension ref="A1:AG188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9207,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="120" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E1" s="114" t="s">
         <v>1</v>
@@ -9287,21 +9348,24 @@
       <c r="J3" s="114"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:N3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>87</v>
+        <f t="shared" ref="L3:O3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
+        <v>89</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>62</v>
-      </c>
-      <c r="O3" s="20"/>
+        <v>64</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
       <c r="P3" s="20"/>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
@@ -9319,26 +9383,29 @@
       <c r="J4" s="114"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>100.4</v>
+        <v>102.4</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:M4" si="1">SUM(L5:L104)</f>
-        <v>77.400000000000006</v>
+        <v>102.4</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>77.400000000000006</v>
+        <v>102.4</v>
       </c>
       <c r="N4" s="21">
-        <f t="shared" ref="N4" si="2">SUM(N5:N104)</f>
-        <v>9</v>
-      </c>
-      <c r="O4" s="21"/>
+        <f t="shared" ref="N4:O4" si="2">SUM(N5:N104)</f>
+        <v>69.2</v>
+      </c>
+      <c r="O4" s="21">
+        <f t="shared" si="2"/>
+        <v>55</v>
+      </c>
       <c r="P4" s="21"/>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="AG4" s="8" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -9349,10 +9416,10 @@
         <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E5" s="12" t="str">
         <f t="shared" ref="E5:E36" ca="1" si="3">IF(ISBLANK($B5),"",IF(ISBLANK(G5),"未着手",IF($J5=0,"完了","作業中")))</f>
@@ -9386,12 +9453,14 @@
       <c r="N5" s="22">
         <v>0</v>
       </c>
-      <c r="O5" s="22"/>
+      <c r="O5" s="22">
+        <v>0</v>
+      </c>
       <c r="P5" s="22"/>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="AG5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9402,19 +9471,21 @@
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E6" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F6" s="4">
         <v>43042</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>43032</v>
+      </c>
       <c r="H6" s="19">
         <v>3</v>
       </c>
@@ -9435,12 +9506,14 @@
       <c r="N6" s="22">
         <v>0</v>
       </c>
-      <c r="O6" s="22"/>
+      <c r="O6" s="22">
+        <v>0</v>
+      </c>
       <c r="P6" s="22"/>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="AG6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9451,10 +9524,10 @@
         <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9486,12 +9559,14 @@
       <c r="N7" s="22">
         <v>0</v>
       </c>
-      <c r="O7" s="22"/>
+      <c r="O7" s="22">
+        <v>0</v>
+      </c>
       <c r="P7" s="22"/>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="AG7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9502,19 +9577,21 @@
         <v>81</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F8" s="4">
         <v>43039</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4">
+        <v>43039</v>
+      </c>
       <c r="H8" s="19">
         <v>2</v>
       </c>
@@ -9535,7 +9612,9 @@
       <c r="N8" s="22">
         <v>0</v>
       </c>
-      <c r="O8" s="22"/>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
@@ -9548,19 +9627,21 @@
         <v>82</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F9" s="4">
         <v>43039</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4">
+        <v>43039</v>
+      </c>
       <c r="H9" s="19">
         <v>2</v>
       </c>
@@ -9581,7 +9662,9 @@
       <c r="N9" s="22">
         <v>0</v>
       </c>
-      <c r="O9" s="22"/>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
@@ -9591,22 +9674,24 @@
         <v>6</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F10" s="4">
         <v>43039</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4">
+        <v>43039</v>
+      </c>
       <c r="H10" s="19">
         <v>2</v>
       </c>
@@ -9624,8 +9709,12 @@
       <c r="M10" s="19">
         <v>2</v>
       </c>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
+      <c r="N10" s="19">
+        <v>2</v>
+      </c>
+      <c r="O10" s="19">
+        <v>2</v>
+      </c>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
@@ -9635,29 +9724,31 @@
         <v>7</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>83</v>
+        <v>143</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E11" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F11" s="4">
         <v>43039</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4">
+        <v>43039</v>
+      </c>
       <c r="H11" s="19">
         <v>3</v>
       </c>
       <c r="I11" s="19"/>
       <c r="J11" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" s="19">
         <v>3</v>
@@ -9671,7 +9762,9 @@
       <c r="N11" s="22">
         <v>2</v>
       </c>
-      <c r="O11" s="22"/>
+      <c r="O11" s="22">
+        <v>1</v>
+      </c>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
@@ -9681,13 +9774,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" si="3"/>
@@ -9714,8 +9807,12 @@
       <c r="M12" s="19">
         <v>3</v>
       </c>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
+      <c r="N12" s="19">
+        <v>3</v>
+      </c>
+      <c r="O12" s="19">
+        <v>3</v>
+      </c>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
@@ -9725,13 +9822,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E13" s="12" t="str">
         <f t="shared" si="3"/>
@@ -9758,8 +9855,12 @@
       <c r="M13" s="19">
         <v>3</v>
       </c>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
+      <c r="N13" s="19">
+        <v>3</v>
+      </c>
+      <c r="O13" s="19">
+        <v>3</v>
+      </c>
       <c r="P13" s="22"/>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
@@ -9769,13 +9870,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9807,7 +9908,9 @@
       <c r="N14" s="22">
         <v>0</v>
       </c>
-      <c r="O14" s="22"/>
+      <c r="O14" s="22">
+        <v>0</v>
+      </c>
       <c r="P14" s="22"/>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
@@ -9817,13 +9920,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E15" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9855,7 +9958,9 @@
       <c r="N15" s="22">
         <v>0</v>
       </c>
-      <c r="O15" s="22"/>
+      <c r="O15" s="22">
+        <v>0</v>
+      </c>
       <c r="P15" s="22"/>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
@@ -9865,13 +9970,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E16" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9903,7 +10008,9 @@
       <c r="N16" s="22">
         <v>0</v>
       </c>
-      <c r="O16" s="22"/>
+      <c r="O16" s="22">
+        <v>0</v>
+      </c>
       <c r="P16" s="22"/>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
@@ -9913,13 +10020,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9951,7 +10058,9 @@
       <c r="N17" s="22">
         <v>2</v>
       </c>
-      <c r="O17" s="22"/>
+      <c r="O17" s="22">
+        <v>2</v>
+      </c>
       <c r="P17" s="22"/>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
@@ -9961,13 +10070,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="85" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E18" s="12" t="str">
         <f t="shared" si="3"/>
@@ -9997,7 +10106,9 @@
       <c r="N18" s="22">
         <v>0</v>
       </c>
-      <c r="O18" s="22"/>
+      <c r="O18" s="22">
+        <v>0</v>
+      </c>
       <c r="P18" s="22"/>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
@@ -10007,13 +10118,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E19" s="12" t="str">
         <f t="shared" si="3"/>
@@ -10041,13 +10152,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E20" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10079,7 +10190,9 @@
       <c r="N20" s="22">
         <v>0</v>
       </c>
-      <c r="O20" s="22"/>
+      <c r="O20" s="22">
+        <v>0</v>
+      </c>
       <c r="P20" s="22"/>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
@@ -10089,22 +10202,24 @@
         <v>17</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E21" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F21" s="4">
         <v>43039</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4">
+        <v>43039</v>
+      </c>
       <c r="H21" s="19">
         <v>1</v>
       </c>
@@ -10122,8 +10237,12 @@
       <c r="M21" s="19">
         <v>1</v>
       </c>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
+      <c r="N21" s="19">
+        <v>1</v>
+      </c>
+      <c r="O21" s="19">
+        <v>1</v>
+      </c>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
@@ -10133,22 +10252,24 @@
         <v>18</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E22" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F22" s="4">
         <v>43039</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4">
+        <v>43039</v>
+      </c>
       <c r="H22" s="19">
         <v>0.5</v>
       </c>
@@ -10166,8 +10287,12 @@
       <c r="M22" s="19">
         <v>0.5</v>
       </c>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
+      <c r="N22" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.5</v>
+      </c>
       <c r="P22" s="22"/>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
@@ -10177,22 +10302,24 @@
         <v>19</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E23" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F23" s="4">
         <v>43039</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4">
+        <v>43039</v>
+      </c>
       <c r="H23" s="19">
         <v>0.5</v>
       </c>
@@ -10210,8 +10337,12 @@
       <c r="M23" s="19">
         <v>0.5</v>
       </c>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
+      <c r="N23" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O23" s="19">
+        <v>0.5</v>
+      </c>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
@@ -10221,13 +10352,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E24" s="12" t="str">
         <f t="shared" si="3"/>
@@ -10254,8 +10385,12 @@
       <c r="M24" s="19">
         <v>2</v>
       </c>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
+      <c r="N24" s="19">
+        <v>2</v>
+      </c>
+      <c r="O24" s="19">
+        <v>2</v>
+      </c>
       <c r="P24" s="22"/>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
@@ -10265,13 +10400,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E25" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10303,7 +10438,9 @@
       <c r="N25" s="22">
         <v>0</v>
       </c>
-      <c r="O25" s="22"/>
+      <c r="O25" s="22">
+        <v>0</v>
+      </c>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
@@ -10313,17 +10450,17 @@
         <v>22</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E26" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F26" s="4">
         <v>43025</v>
@@ -10337,7 +10474,7 @@
       <c r="I26" s="19"/>
       <c r="J26" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="19">
         <v>2</v>
@@ -10351,7 +10488,9 @@
       <c r="N26" s="22">
         <v>1</v>
       </c>
-      <c r="O26" s="22"/>
+      <c r="O26" s="22">
+        <v>0</v>
+      </c>
       <c r="P26" s="22"/>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
@@ -10361,13 +10500,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E27" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10399,7 +10538,9 @@
       <c r="N27" s="22">
         <v>0</v>
       </c>
-      <c r="O27" s="22"/>
+      <c r="O27" s="22">
+        <v>0</v>
+      </c>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
@@ -10409,13 +10550,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E28" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10447,7 +10588,9 @@
       <c r="N28" s="22">
         <v>0</v>
       </c>
-      <c r="O28" s="22"/>
+      <c r="O28" s="22">
+        <v>0</v>
+      </c>
       <c r="P28" s="22"/>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
@@ -10457,21 +10600,27 @@
         <v>25</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E29" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="19"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
+      </c>
+      <c r="F29" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G29" s="4">
+        <v>43039</v>
+      </c>
+      <c r="H29" s="19">
+        <v>2</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -10491,19 +10640,21 @@
         <v>26</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E30" s="12" t="str">
         <f t="shared" si="3"/>
         <v>未着手</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4">
+        <v>43039</v>
+      </c>
       <c r="G30" s="4"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -10525,21 +10676,27 @@
         <v>27</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
-      </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="19"/>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
+      </c>
+      <c r="F31" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G31" s="4">
+        <v>43039</v>
+      </c>
+      <c r="H31" s="19">
+        <v>2</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="12" t="str">
         <f t="shared" ca="1" si="4"/>
@@ -10559,22 +10716,24 @@
         <v>28</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F32" s="4">
         <v>43046</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>43039</v>
+      </c>
       <c r="H32" s="19">
         <v>2</v>
       </c>
@@ -10592,8 +10751,12 @@
       <c r="M32" s="19">
         <v>2</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
+      <c r="N32" s="19">
+        <v>2</v>
+      </c>
+      <c r="O32" s="19">
+        <v>2</v>
+      </c>
       <c r="P32" s="22"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
@@ -10603,17 +10766,17 @@
         <v>29</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F33" s="4">
         <v>43035</v>
@@ -10627,7 +10790,7 @@
       <c r="I33" s="19"/>
       <c r="J33" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K33" s="19">
         <v>0.1</v>
@@ -10638,8 +10801,12 @@
       <c r="M33" s="19">
         <v>0.1</v>
       </c>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="N33" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O33" s="19">
+        <v>0</v>
+      </c>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
@@ -10649,22 +10816,24 @@
         <v>30</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F34" s="4">
         <v>43042</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4">
+        <v>43039</v>
+      </c>
       <c r="H34" s="19">
         <v>3</v>
       </c>
@@ -10682,8 +10851,12 @@
       <c r="M34" s="19">
         <v>3</v>
       </c>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
+      <c r="N34" s="19">
+        <v>3</v>
+      </c>
+      <c r="O34" s="19">
+        <v>3</v>
+      </c>
       <c r="P34" s="22"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
@@ -10693,17 +10866,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E35" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F35" s="4">
         <v>43035</v>
@@ -10717,7 +10890,7 @@
       <c r="I35" s="19"/>
       <c r="J35" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="K35" s="19">
         <v>0.1</v>
@@ -10728,8 +10901,12 @@
       <c r="M35" s="19">
         <v>0.1</v>
       </c>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
+      <c r="N35" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="O35" s="19">
+        <v>0</v>
+      </c>
       <c r="P35" s="22"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
@@ -10739,17 +10916,17 @@
         <v>32</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E36" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F36" s="4">
         <v>43028</v>
@@ -10763,7 +10940,7 @@
       <c r="I36" s="19"/>
       <c r="J36" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" s="19">
         <v>3</v>
@@ -10777,7 +10954,9 @@
       <c r="N36" s="22">
         <v>1</v>
       </c>
-      <c r="O36" s="22"/>
+      <c r="O36" s="22">
+        <v>0</v>
+      </c>
       <c r="P36" s="22"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
@@ -10787,17 +10966,17 @@
         <v>33</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ref="E37:E68" ca="1" si="5">IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F37" s="4">
         <v>43035</v>
@@ -10811,7 +10990,7 @@
       <c r="I37" s="19"/>
       <c r="J37" s="12">
         <f t="shared" ref="J37:J68" ca="1" si="6">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:O37)),"")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" s="19">
         <v>4</v>
@@ -10825,7 +11004,9 @@
       <c r="N37" s="22">
         <v>1</v>
       </c>
-      <c r="O37" s="22"/>
+      <c r="O37" s="22">
+        <v>0</v>
+      </c>
       <c r="P37" s="22"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
@@ -10835,17 +11016,17 @@
         <v>34</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F38" s="4">
         <v>43039</v>
@@ -10859,7 +11040,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="19">
         <v>3</v>
@@ -10873,7 +11054,9 @@
       <c r="N38" s="22">
         <v>1</v>
       </c>
-      <c r="O38" s="22"/>
+      <c r="O38" s="22">
+        <v>0</v>
+      </c>
       <c r="P38" s="22"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
@@ -10883,17 +11066,17 @@
         <v>35</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F39" s="4">
         <v>43039</v>
@@ -10907,7 +11090,7 @@
       <c r="I39" s="19"/>
       <c r="J39" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" s="19">
         <v>3</v>
@@ -10921,7 +11104,9 @@
       <c r="N39" s="22">
         <v>1</v>
       </c>
-      <c r="O39" s="22"/>
+      <c r="O39" s="22">
+        <v>0</v>
+      </c>
       <c r="P39" s="22"/>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
@@ -10931,13 +11116,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="85" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" si="5"/>
@@ -10964,8 +11149,12 @@
       <c r="M40" s="19">
         <v>6</v>
       </c>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="N40" s="19">
+        <v>6</v>
+      </c>
+      <c r="O40" s="19">
+        <v>6</v>
+      </c>
       <c r="P40" s="22"/>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
@@ -10975,17 +11164,17 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F41" s="4">
         <v>43035</v>
@@ -10999,7 +11188,7 @@
       <c r="I41" s="19"/>
       <c r="J41" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K41" s="19">
         <v>6</v>
@@ -11010,8 +11199,12 @@
       <c r="M41" s="19">
         <v>6</v>
       </c>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
+      <c r="N41" s="19">
+        <v>6</v>
+      </c>
+      <c r="O41" s="19">
+        <v>0</v>
+      </c>
       <c r="P41" s="22"/>
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
@@ -11021,13 +11214,13 @@
         <v>38</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11056,8 +11249,12 @@
       <c r="M42" s="19">
         <v>6</v>
       </c>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
+      <c r="N42" s="19">
+        <v>6</v>
+      </c>
+      <c r="O42" s="19">
+        <v>6</v>
+      </c>
       <c r="P42" s="22"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
@@ -11095,17 +11292,17 @@
         <v>40</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E44" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F44" s="4">
         <v>43030</v>
@@ -11119,15 +11316,23 @@
       <c r="I44" s="19"/>
       <c r="J44" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K44" s="22">
         <v>1</v>
       </c>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
+      <c r="L44" s="22">
+        <v>1</v>
+      </c>
+      <c r="M44" s="22">
+        <v>1</v>
+      </c>
+      <c r="N44" s="22">
+        <v>1</v>
+      </c>
+      <c r="O44" s="22">
+        <v>0</v>
+      </c>
       <c r="P44" s="22"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
@@ -11137,17 +11342,17 @@
         <v>41</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E45" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F45" s="4">
         <v>43030</v>
@@ -11161,15 +11366,23 @@
       <c r="I45" s="19"/>
       <c r="J45" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45" s="22">
         <v>1</v>
       </c>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
+      <c r="L45" s="22">
+        <v>1</v>
+      </c>
+      <c r="M45" s="22">
+        <v>1</v>
+      </c>
+      <c r="N45" s="22">
+        <v>1</v>
+      </c>
+      <c r="O45" s="22">
+        <v>0</v>
+      </c>
       <c r="P45" s="22"/>
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
@@ -11179,13 +11392,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E46" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11208,10 +11421,18 @@
       <c r="K46" s="22">
         <v>1</v>
       </c>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
+      <c r="L46" s="22">
+        <v>1</v>
+      </c>
+      <c r="M46" s="22">
+        <v>1</v>
+      </c>
+      <c r="N46" s="22">
+        <v>1</v>
+      </c>
+      <c r="O46" s="22">
+        <v>1</v>
+      </c>
       <c r="P46" s="22"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
@@ -11221,13 +11442,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11250,10 +11471,18 @@
       <c r="K47" s="22">
         <v>2</v>
       </c>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
+      <c r="L47" s="22">
+        <v>2</v>
+      </c>
+      <c r="M47" s="22">
+        <v>2</v>
+      </c>
+      <c r="N47" s="22">
+        <v>2</v>
+      </c>
+      <c r="O47" s="22">
+        <v>2</v>
+      </c>
       <c r="P47" s="22"/>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
@@ -11263,13 +11492,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E48" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11292,10 +11521,18 @@
       <c r="K48" s="22">
         <v>2</v>
       </c>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="L48" s="22">
+        <v>2</v>
+      </c>
+      <c r="M48" s="22">
+        <v>2</v>
+      </c>
+      <c r="N48" s="22">
+        <v>2</v>
+      </c>
+      <c r="O48" s="22">
+        <v>2</v>
+      </c>
       <c r="P48" s="22"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
@@ -11305,13 +11542,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E49" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11332,10 +11569,18 @@
       <c r="K49" s="19">
         <v>2</v>
       </c>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
+      <c r="L49" s="19">
+        <v>2</v>
+      </c>
+      <c r="M49" s="19">
+        <v>2</v>
+      </c>
+      <c r="N49" s="19">
+        <v>2</v>
+      </c>
+      <c r="O49" s="19">
+        <v>2</v>
+      </c>
       <c r="P49" s="22"/>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
@@ -11345,13 +11590,13 @@
         <v>46</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E50" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11372,10 +11617,18 @@
       <c r="K50" s="19">
         <v>1</v>
       </c>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="L50" s="19">
+        <v>1</v>
+      </c>
+      <c r="M50" s="19">
+        <v>1</v>
+      </c>
+      <c r="N50" s="19">
+        <v>1</v>
+      </c>
+      <c r="O50" s="19">
+        <v>1</v>
+      </c>
       <c r="P50" s="22"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
@@ -11385,13 +11638,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E51" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11412,10 +11665,18 @@
       <c r="K51" s="19">
         <v>4</v>
       </c>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="L51" s="19">
+        <v>4</v>
+      </c>
+      <c r="M51" s="19">
+        <v>4</v>
+      </c>
+      <c r="N51" s="19">
+        <v>4</v>
+      </c>
+      <c r="O51" s="19">
+        <v>4</v>
+      </c>
       <c r="P51" s="22"/>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
@@ -11425,13 +11686,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E52" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11452,10 +11713,18 @@
       <c r="K52" s="19">
         <v>2</v>
       </c>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
+      <c r="L52" s="19">
+        <v>2</v>
+      </c>
+      <c r="M52" s="19">
+        <v>2</v>
+      </c>
+      <c r="N52" s="19">
+        <v>2</v>
+      </c>
+      <c r="O52" s="19">
+        <v>2</v>
+      </c>
       <c r="P52" s="22"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
@@ -11465,13 +11734,13 @@
         <v>49</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E53" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11492,10 +11761,18 @@
       <c r="K53" s="19">
         <v>2</v>
       </c>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
+      <c r="L53" s="19">
+        <v>2</v>
+      </c>
+      <c r="M53" s="19">
+        <v>2</v>
+      </c>
+      <c r="N53" s="19">
+        <v>2</v>
+      </c>
+      <c r="O53" s="19">
+        <v>2</v>
+      </c>
       <c r="P53" s="22"/>
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
@@ -11505,13 +11782,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E54" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11532,10 +11809,18 @@
       <c r="K54" s="19">
         <v>2</v>
       </c>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
+      <c r="L54" s="19">
+        <v>2</v>
+      </c>
+      <c r="M54" s="19">
+        <v>2</v>
+      </c>
+      <c r="N54" s="19">
+        <v>2</v>
+      </c>
+      <c r="O54" s="19">
+        <v>2</v>
+      </c>
       <c r="P54" s="22"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
@@ -11545,13 +11830,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E55" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11574,10 +11859,18 @@
       <c r="K55" s="19">
         <v>1</v>
       </c>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
+      <c r="L55" s="19">
+        <v>1</v>
+      </c>
+      <c r="M55" s="19">
+        <v>1</v>
+      </c>
+      <c r="N55" s="19">
+        <v>1</v>
+      </c>
+      <c r="O55" s="19">
+        <v>1</v>
+      </c>
       <c r="P55" s="22"/>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
@@ -11590,10 +11883,10 @@
         <v>82</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E56" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11614,10 +11907,18 @@
       <c r="K56" s="19">
         <v>2</v>
       </c>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
+      <c r="L56" s="19">
+        <v>2</v>
+      </c>
+      <c r="M56" s="19">
+        <v>2</v>
+      </c>
+      <c r="N56" s="19">
+        <v>2</v>
+      </c>
+      <c r="O56" s="19">
+        <v>2</v>
+      </c>
       <c r="P56" s="22"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
@@ -11654,26 +11955,48 @@
       <c r="A58" s="16">
         <v>54</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="12"/>
+      <c r="B58" s="85" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E58" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="19"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="F58" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G58" s="4">
+        <v>43039</v>
+      </c>
+      <c r="H58" s="19">
+        <v>1</v>
+      </c>
       <c r="I58" s="19"/>
-      <c r="J58" s="12" t="str">
+      <c r="J58" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
+        <v>1</v>
+      </c>
+      <c r="K58" s="19">
+        <v>1</v>
+      </c>
+      <c r="L58" s="19">
+        <v>1</v>
+      </c>
+      <c r="M58" s="19">
+        <v>1</v>
+      </c>
+      <c r="N58" s="19">
+        <v>1</v>
+      </c>
+      <c r="O58" s="19">
+        <v>1</v>
+      </c>
       <c r="P58" s="22"/>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
@@ -11682,26 +12005,48 @@
       <c r="A59" s="16">
         <v>55</v>
       </c>
-      <c r="B59" s="85"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="12"/>
+      <c r="B59" s="85" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E59" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="19"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="F59" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G59" s="4">
+        <v>43039</v>
+      </c>
+      <c r="H59" s="19">
+        <v>0.5</v>
+      </c>
       <c r="I59" s="19"/>
-      <c r="J59" s="12" t="str">
+      <c r="J59" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L59" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M59" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="N59" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O59" s="19">
+        <v>0.5</v>
+      </c>
       <c r="P59" s="22"/>
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
@@ -11710,26 +12055,48 @@
       <c r="A60" s="16">
         <v>56</v>
       </c>
-      <c r="B60" s="85"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="12"/>
+      <c r="B60" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>120</v>
+      </c>
       <c r="E60" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="19"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>作業中</v>
+      </c>
+      <c r="F60" s="4">
+        <v>43039</v>
+      </c>
+      <c r="G60" s="4">
+        <v>43039</v>
+      </c>
+      <c r="H60" s="19">
+        <v>0.5</v>
+      </c>
       <c r="I60" s="19"/>
-      <c r="J60" s="12" t="str">
+      <c r="J60" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v/>
-      </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+        <v>0.5</v>
+      </c>
+      <c r="K60" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="L60" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="M60" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="N60" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="O60" s="19">
+        <v>0.5</v>
+      </c>
       <c r="P60" s="22"/>
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
@@ -12850,7 +13217,7 @@
       <c r="H101" s="19"/>
       <c r="I101" s="19"/>
       <c r="J101" s="12" t="str">
-        <f t="shared" ref="J101:J132" ca="1" si="9">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:O101)),"")</f>
+        <f t="shared" ref="J101:J104" ca="1" si="9">IF(ISBLANK(K101)=FALSE,OFFSET(J101,0,COUNTA(K101:O101)),"")</f>
         <v/>
       </c>
       <c r="K101" s="22"/>
@@ -13003,7 +13370,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="T107" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="U107" s="10">
         <f t="shared" ref="U107:U116" si="11">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
@@ -13011,7 +13378,7 @@
       </c>
       <c r="V107" s="10">
         <f t="shared" ref="V107:V116" ca="1" si="12">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="W107" s="10">
         <f t="shared" ref="W107:W116" si="13">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
@@ -13019,11 +13386,11 @@
       </c>
       <c r="X107" s="14">
         <f t="shared" ref="X107:X116" si="14">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y107" s="15">
         <f ca="1">IF(X107&gt;V107,0,V107-X107)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -13041,15 +13408,15 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="T108" s="11" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="U108" s="10">
         <f t="shared" si="11"/>
-        <v>22.2</v>
+        <v>28.2</v>
       </c>
       <c r="V108" s="10">
         <f ca="1">SUMIF($C$5:$C$104,T108,$J$5:$J$104)</f>
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W108" s="10">
         <f t="shared" si="13"/>
@@ -13057,7 +13424,7 @@
       </c>
       <c r="X108" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y108" s="15">
         <f t="shared" ref="Y108:Y116" ca="1" si="15">IF(X108&gt;V108,0,V108-X108)</f>
@@ -13079,7 +13446,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="T109" s="11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="U109" s="10">
         <f t="shared" si="11"/>
@@ -13087,7 +13454,7 @@
       </c>
       <c r="V109" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="W109" s="10">
         <f t="shared" si="13"/>
@@ -13095,7 +13462,7 @@
       </c>
       <c r="X109" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y109" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13117,7 +13484,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="T110" s="11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="U110" s="10">
         <f t="shared" si="11"/>
@@ -13125,7 +13492,7 @@
       </c>
       <c r="V110" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>13.2</v>
+        <v>7</v>
       </c>
       <c r="W110" s="10">
         <f t="shared" si="13"/>
@@ -13133,7 +13500,7 @@
       </c>
       <c r="X110" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y110" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13155,7 +13522,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="T111" s="11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="U111" s="10">
         <f t="shared" si="11"/>
@@ -13163,7 +13530,7 @@
       </c>
       <c r="V111" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="W111" s="10">
         <f t="shared" si="13"/>
@@ -13171,7 +13538,7 @@
       </c>
       <c r="X111" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y111" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13207,7 +13574,7 @@
       </c>
       <c r="X112" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y112" s="15">
         <f t="shared" si="15"/>
@@ -13243,7 +13610,7 @@
       </c>
       <c r="X113" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y113" s="15">
         <f t="shared" si="15"/>
@@ -13279,7 +13646,7 @@
       </c>
       <c r="X114" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y114" s="15">
         <f t="shared" si="15"/>
@@ -13315,7 +13682,7 @@
       </c>
       <c r="X115" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y115" s="15">
         <f t="shared" si="15"/>
@@ -13351,7 +13718,7 @@
       </c>
       <c r="X116" s="14">
         <f t="shared" si="14"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Y116" s="15">
         <f t="shared" si="15"/>
@@ -14444,7 +14811,7 @@
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:XFD6 J7:J183 E6:E104 L5:M42 A5:C104 K7:XFD104 E7:I104">
+  <conditionalFormatting sqref="E5:XFD6 J7:J183 E6:E104 L5:M42 O5:O42 A5:C104 K7:XFD104 E7:I104">
     <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>

--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="149">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -1123,19 +1123,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>攻撃の挙動(未定)</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>キョドウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ミテイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>一番最後に成立したステップを結果にする</t>
     <rPh sb="0" eb="2">
       <t>イチバン</t>
@@ -1228,19 +1215,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>ケンサク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>クリア画面の作成(未定)</t>
-    <rPh sb="3" eb="5">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ミテイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1676,6 +1650,55 @@
       <t>キョドウ</t>
     </rPh>
     <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>スコア倍率上昇中のエフェクト</t>
+    <rPh sb="3" eb="5">
+      <t>バイリツ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ジョウショウチュウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ステップ成功時のエフェクト</t>
+    <rPh sb="4" eb="6">
+      <t>セイコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>攻撃の挙動(周囲の敵に攻撃)</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョドウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュウイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリア画面の作成</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
@@ -3380,19 +3403,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>102.4</c:v>
+                  <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>102.4</c:v>
+                  <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>102.4</c:v>
+                  <c:v>108.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>69.2</c:v>
+                  <c:v>75.2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>55</c:v>
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3472,19 +3498,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>102</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>89</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>81</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3942,16 +3971,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>21</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4085,7 +4114,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -4300,7 +4329,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -9236,8 +9265,8 @@
   <dimension ref="A1:AG188"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O21" sqref="O21"/>
+      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H67" sqref="H67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9268,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="D1" s="120" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E1" s="114" t="s">
         <v>1</v>
@@ -9348,25 +9377,28 @@
       <c r="J3" s="114"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="L3" s="20">
-        <f t="shared" ref="L3:O3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
-        <v>89</v>
+        <f t="shared" ref="L3:P3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$R$2))))</f>
+        <v>94</v>
       </c>
       <c r="M3" s="20">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="N3" s="20">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O3" s="20">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="P3" s="20"/>
+        <v>54</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="Q3" s="20"/>
       <c r="R3" s="20"/>
     </row>
@@ -9383,29 +9415,32 @@
       <c r="J4" s="114"/>
       <c r="K4" s="21">
         <f>SUM(K5:K104)</f>
-        <v>102.4</v>
+        <v>108.4</v>
       </c>
       <c r="L4" s="21">
         <f t="shared" ref="L4:M4" si="1">SUM(L5:L104)</f>
-        <v>102.4</v>
+        <v>108.4</v>
       </c>
       <c r="M4" s="21">
         <f t="shared" si="1"/>
-        <v>102.4</v>
+        <v>108.4</v>
       </c>
       <c r="N4" s="21">
-        <f t="shared" ref="N4:O4" si="2">SUM(N5:N104)</f>
-        <v>69.2</v>
+        <f t="shared" ref="N4:P4" si="2">SUM(N5:N104)</f>
+        <v>75.2</v>
       </c>
       <c r="O4" s="21">
         <f t="shared" si="2"/>
-        <v>55</v>
-      </c>
-      <c r="P4" s="21"/>
+        <v>46</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="21"/>
       <c r="AG4" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -9416,10 +9451,10 @@
         <v>78</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E5" s="12" t="str">
         <f t="shared" ref="E5:E36" ca="1" si="3">IF(ISBLANK($B5),"",IF(ISBLANK(G5),"未着手",IF($J5=0,"完了","作業中")))</f>
@@ -9434,11 +9469,9 @@
       <c r="H5" s="19">
         <v>1</v>
       </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
+      <c r="I5" s="19"/>
       <c r="J5" s="12">
-        <f t="shared" ref="J5:J36" ca="1" si="4">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:O5)),"")</f>
+        <f ca="1">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:R5)),"")</f>
         <v>0</v>
       </c>
       <c r="K5" s="22">
@@ -9456,11 +9489,13 @@
       <c r="O5" s="22">
         <v>0</v>
       </c>
-      <c r="P5" s="22"/>
+      <c r="P5" s="22">
+        <v>0</v>
+      </c>
       <c r="Q5" s="22"/>
       <c r="R5" s="22"/>
       <c r="AG5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -9471,10 +9506,10 @@
         <v>79</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E6" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9491,7 +9526,7 @@
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="12">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ref="J6:J63" ca="1" si="4">IF(ISBLANK(K6)=FALSE,OFFSET(J6,0,COUNTA(K6:R6)),"")</f>
         <v>0</v>
       </c>
       <c r="K6" s="22">
@@ -9509,11 +9544,13 @@
       <c r="O6" s="22">
         <v>0</v>
       </c>
-      <c r="P6" s="22"/>
+      <c r="P6" s="22">
+        <v>0</v>
+      </c>
       <c r="Q6" s="22"/>
       <c r="R6" s="22"/>
       <c r="AG6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -9524,10 +9561,10 @@
         <v>80</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9562,11 +9599,13 @@
       <c r="O7" s="22">
         <v>0</v>
       </c>
-      <c r="P7" s="22"/>
+      <c r="P7" s="22">
+        <v>0</v>
+      </c>
       <c r="Q7" s="22"/>
       <c r="R7" s="22"/>
       <c r="AG7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:33">
@@ -9577,10 +9616,10 @@
         <v>81</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9615,7 +9654,9 @@
       <c r="O8" s="22">
         <v>0</v>
       </c>
-      <c r="P8" s="22"/>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
       <c r="Q8" s="22"/>
       <c r="R8" s="22"/>
     </row>
@@ -9627,10 +9668,10 @@
         <v>82</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E9" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9665,7 +9706,9 @@
       <c r="O9" s="22">
         <v>0</v>
       </c>
-      <c r="P9" s="22"/>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
       <c r="Q9" s="22"/>
       <c r="R9" s="22"/>
     </row>
@@ -9674,17 +9717,17 @@
         <v>6</v>
       </c>
       <c r="B10" s="85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F10" s="4">
         <v>43039</v>
@@ -9698,7 +9741,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="19">
         <v>2</v>
@@ -9715,7 +9758,9 @@
       <c r="O10" s="19">
         <v>2</v>
       </c>
-      <c r="P10" s="22"/>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
       <c r="Q10" s="22"/>
       <c r="R10" s="22"/>
     </row>
@@ -9724,17 +9769,17 @@
         <v>7</v>
       </c>
       <c r="B11" s="100" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E11" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F11" s="4">
         <v>43039</v>
@@ -9748,7 +9793,7 @@
       <c r="I11" s="19"/>
       <c r="J11" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" s="19">
         <v>3</v>
@@ -9763,9 +9808,11 @@
         <v>2</v>
       </c>
       <c r="O11" s="22">
-        <v>1</v>
-      </c>
-      <c r="P11" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
       <c r="Q11" s="22"/>
       <c r="R11" s="22"/>
     </row>
@@ -9777,10 +9824,10 @@
         <v>83</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E12" s="12" t="str">
         <f t="shared" si="3"/>
@@ -9813,7 +9860,9 @@
       <c r="O12" s="19">
         <v>3</v>
       </c>
-      <c r="P12" s="22"/>
+      <c r="P12" s="22">
+        <v>3</v>
+      </c>
       <c r="Q12" s="22"/>
       <c r="R12" s="22"/>
     </row>
@@ -9825,10 +9874,10 @@
         <v>84</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E13" s="12" t="str">
         <f t="shared" si="3"/>
@@ -9861,7 +9910,9 @@
       <c r="O13" s="19">
         <v>3</v>
       </c>
-      <c r="P13" s="22"/>
+      <c r="P13" s="22">
+        <v>3</v>
+      </c>
       <c r="Q13" s="22"/>
       <c r="R13" s="22"/>
     </row>
@@ -9873,10 +9924,10 @@
         <v>85</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9911,7 +9962,9 @@
       <c r="O14" s="22">
         <v>0</v>
       </c>
-      <c r="P14" s="22"/>
+      <c r="P14" s="22">
+        <v>0</v>
+      </c>
       <c r="Q14" s="22"/>
       <c r="R14" s="22"/>
     </row>
@@ -9920,13 +9973,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -9961,7 +10014,9 @@
       <c r="O15" s="22">
         <v>0</v>
       </c>
-      <c r="P15" s="22"/>
+      <c r="P15" s="22">
+        <v>0</v>
+      </c>
       <c r="Q15" s="22"/>
       <c r="R15" s="22"/>
     </row>
@@ -9973,10 +10028,10 @@
         <v>86</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10011,7 +10066,9 @@
       <c r="O16" s="22">
         <v>0</v>
       </c>
-      <c r="P16" s="22"/>
+      <c r="P16" s="22">
+        <v>0</v>
+      </c>
       <c r="Q16" s="22"/>
       <c r="R16" s="22"/>
     </row>
@@ -10023,14 +10080,14 @@
         <v>87</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E17" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F17" s="4">
         <v>43035</v>
@@ -10044,7 +10101,7 @@
       <c r="I17" s="19"/>
       <c r="J17" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" s="19">
         <v>2</v>
@@ -10059,9 +10116,11 @@
         <v>2</v>
       </c>
       <c r="O17" s="22">
-        <v>2</v>
-      </c>
-      <c r="P17" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="22">
+        <v>0</v>
+      </c>
       <c r="Q17" s="22"/>
       <c r="R17" s="22"/>
     </row>
@@ -10073,19 +10132,21 @@
         <v>88</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F18" s="4">
         <v>43035</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4">
+        <v>43035</v>
+      </c>
       <c r="H18" s="19">
         <v>2</v>
       </c>
@@ -10109,7 +10170,9 @@
       <c r="O18" s="22">
         <v>0</v>
       </c>
-      <c r="P18" s="22"/>
+      <c r="P18" s="22">
+        <v>0</v>
+      </c>
       <c r="Q18" s="22"/>
       <c r="R18" s="22"/>
     </row>
@@ -10118,13 +10181,13 @@
         <v>15</v>
       </c>
       <c r="B19" s="85" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E19" s="12" t="str">
         <f t="shared" si="3"/>
@@ -10152,13 +10215,13 @@
         <v>16</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E20" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10193,7 +10256,9 @@
       <c r="O20" s="22">
         <v>0</v>
       </c>
-      <c r="P20" s="22"/>
+      <c r="P20" s="22">
+        <v>0</v>
+      </c>
       <c r="Q20" s="22"/>
       <c r="R20" s="22"/>
     </row>
@@ -10202,17 +10267,17 @@
         <v>17</v>
       </c>
       <c r="B21" s="85" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E21" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F21" s="4">
         <v>43039</v>
@@ -10226,7 +10291,7 @@
       <c r="I21" s="19"/>
       <c r="J21" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" s="19">
         <v>1</v>
@@ -10241,9 +10306,11 @@
         <v>1</v>
       </c>
       <c r="O21" s="19">
-        <v>1</v>
-      </c>
-      <c r="P21" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="22">
+        <v>0</v>
+      </c>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
     </row>
@@ -10252,17 +10319,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="85" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E22" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F22" s="4">
         <v>43039</v>
@@ -10276,7 +10343,7 @@
       <c r="I22" s="19"/>
       <c r="J22" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K22" s="19">
         <v>0.5</v>
@@ -10291,9 +10358,11 @@
         <v>0.5</v>
       </c>
       <c r="O22" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P22" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
       <c r="Q22" s="22"/>
       <c r="R22" s="22"/>
     </row>
@@ -10302,17 +10371,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E23" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F23" s="4">
         <v>43039</v>
@@ -10326,7 +10395,7 @@
       <c r="I23" s="19"/>
       <c r="J23" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K23" s="19">
         <v>0.5</v>
@@ -10341,9 +10410,11 @@
         <v>0.5</v>
       </c>
       <c r="O23" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P23" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="22">
+        <v>0</v>
+      </c>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
     </row>
@@ -10352,29 +10423,31 @@
         <v>20</v>
       </c>
       <c r="B24" s="85" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F24" s="4">
         <v>43039</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4">
+        <v>43039</v>
+      </c>
       <c r="H24" s="19">
         <v>2</v>
       </c>
       <c r="I24" s="19"/>
       <c r="J24" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24" s="19">
         <v>2</v>
@@ -10389,9 +10462,11 @@
         <v>2</v>
       </c>
       <c r="O24" s="19">
-        <v>2</v>
-      </c>
-      <c r="P24" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="22">
+        <v>0</v>
+      </c>
       <c r="Q24" s="22"/>
       <c r="R24" s="22"/>
     </row>
@@ -10400,13 +10475,13 @@
         <v>21</v>
       </c>
       <c r="B25" s="85" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E25" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10441,7 +10516,9 @@
       <c r="O25" s="22">
         <v>0</v>
       </c>
-      <c r="P25" s="22"/>
+      <c r="P25" s="22">
+        <v>0</v>
+      </c>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
     </row>
@@ -10450,13 +10527,13 @@
         <v>22</v>
       </c>
       <c r="B26" s="85" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10491,7 +10568,9 @@
       <c r="O26" s="22">
         <v>0</v>
       </c>
-      <c r="P26" s="22"/>
+      <c r="P26" s="22">
+        <v>0</v>
+      </c>
       <c r="Q26" s="22"/>
       <c r="R26" s="22"/>
     </row>
@@ -10500,13 +10579,13 @@
         <v>23</v>
       </c>
       <c r="B27" s="85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10541,7 +10620,9 @@
       <c r="O27" s="22">
         <v>0</v>
       </c>
-      <c r="P27" s="22"/>
+      <c r="P27" s="22">
+        <v>0</v>
+      </c>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
     </row>
@@ -10550,13 +10631,13 @@
         <v>24</v>
       </c>
       <c r="B28" s="85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10591,7 +10672,9 @@
       <c r="O28" s="22">
         <v>0</v>
       </c>
-      <c r="P28" s="22"/>
+      <c r="P28" s="22">
+        <v>0</v>
+      </c>
       <c r="Q28" s="22"/>
       <c r="R28" s="22"/>
     </row>
@@ -10600,13 +10683,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="85" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E29" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10622,16 +10705,28 @@
         <v>2</v>
       </c>
       <c r="I29" s="19"/>
-      <c r="J29" s="12" t="str">
+      <c r="J29" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K29" s="19">
+        <v>2</v>
+      </c>
+      <c r="L29" s="19">
+        <v>2</v>
+      </c>
+      <c r="M29" s="19">
+        <v>2</v>
+      </c>
+      <c r="N29" s="19">
+        <v>2</v>
+      </c>
+      <c r="O29" s="19">
+        <v>2</v>
+      </c>
+      <c r="P29" s="22">
+        <v>2</v>
+      </c>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
     </row>
@@ -10640,34 +10735,48 @@
         <v>26</v>
       </c>
       <c r="B30" s="85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E30" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F30" s="4">
         <v>43039</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4">
+        <v>43039</v>
+      </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
-      <c r="J30" s="12" t="str">
+      <c r="J30" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="19">
+        <v>2</v>
+      </c>
+      <c r="L30" s="19">
+        <v>2</v>
+      </c>
+      <c r="M30" s="19">
+        <v>2</v>
+      </c>
+      <c r="N30" s="22">
+        <v>2</v>
+      </c>
+      <c r="O30" s="22">
+        <v>2</v>
+      </c>
+      <c r="P30" s="22">
+        <v>0</v>
+      </c>
       <c r="Q30" s="22"/>
       <c r="R30" s="22"/>
     </row>
@@ -10676,13 +10785,13 @@
         <v>27</v>
       </c>
       <c r="B31" s="85" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E31" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10698,16 +10807,28 @@
         <v>2</v>
       </c>
       <c r="I31" s="19"/>
-      <c r="J31" s="12" t="str">
+      <c r="J31" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v/>
-      </c>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K31" s="19">
+        <v>2</v>
+      </c>
+      <c r="L31" s="19">
+        <v>2</v>
+      </c>
+      <c r="M31" s="19">
+        <v>2</v>
+      </c>
+      <c r="N31" s="19">
+        <v>2</v>
+      </c>
+      <c r="O31" s="19">
+        <v>2</v>
+      </c>
+      <c r="P31" s="22">
+        <v>2</v>
+      </c>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
     </row>
@@ -10716,17 +10837,17 @@
         <v>28</v>
       </c>
       <c r="B32" s="85" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E32" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F32" s="4">
         <v>43046</v>
@@ -10740,7 +10861,7 @@
       <c r="I32" s="19"/>
       <c r="J32" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K32" s="19">
         <v>2</v>
@@ -10757,7 +10878,9 @@
       <c r="O32" s="19">
         <v>2</v>
       </c>
-      <c r="P32" s="22"/>
+      <c r="P32" s="22">
+        <v>0</v>
+      </c>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
     </row>
@@ -10766,13 +10889,13 @@
         <v>29</v>
       </c>
       <c r="B33" s="85" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E33" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10807,7 +10930,9 @@
       <c r="O33" s="19">
         <v>0</v>
       </c>
-      <c r="P33" s="22"/>
+      <c r="P33" s="22">
+        <v>0</v>
+      </c>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
     </row>
@@ -10816,13 +10941,13 @@
         <v>30</v>
       </c>
       <c r="B34" s="85" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E34" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10840,7 +10965,7 @@
       <c r="I34" s="19"/>
       <c r="J34" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K34" s="19">
         <v>3</v>
@@ -10857,7 +10982,9 @@
       <c r="O34" s="19">
         <v>3</v>
       </c>
-      <c r="P34" s="22"/>
+      <c r="P34" s="22">
+        <v>1</v>
+      </c>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
     </row>
@@ -10866,13 +10993,13 @@
         <v>31</v>
       </c>
       <c r="B35" s="85" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E35" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10907,7 +11034,9 @@
       <c r="O35" s="19">
         <v>0</v>
       </c>
-      <c r="P35" s="22"/>
+      <c r="P35" s="22">
+        <v>0</v>
+      </c>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
     </row>
@@ -10916,13 +11045,13 @@
         <v>32</v>
       </c>
       <c r="B36" s="85" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
@@ -10957,7 +11086,9 @@
       <c r="O36" s="22">
         <v>0</v>
       </c>
-      <c r="P36" s="22"/>
+      <c r="P36" s="22">
+        <v>0</v>
+      </c>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
     </row>
@@ -10966,13 +11097,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="85" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37" s="12" t="str">
         <f t="shared" ref="E37:E68" ca="1" si="5">IF(ISBLANK($B37),"",IF(ISBLANK(G37),"未着手",IF($J37=0,"完了","作業中")))</f>
@@ -10989,7 +11120,7 @@
       </c>
       <c r="I37" s="19"/>
       <c r="J37" s="12">
-        <f t="shared" ref="J37:J68" ca="1" si="6">IF(ISBLANK(K37)=FALSE,OFFSET(J37,0,COUNTA(K37:O37)),"")</f>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K37" s="19">
@@ -11007,7 +11138,9 @@
       <c r="O37" s="22">
         <v>0</v>
       </c>
-      <c r="P37" s="22"/>
+      <c r="P37" s="22">
+        <v>0</v>
+      </c>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
     </row>
@@ -11016,13 +11149,13 @@
         <v>34</v>
       </c>
       <c r="B38" s="85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11039,7 +11172,7 @@
       </c>
       <c r="I38" s="19"/>
       <c r="J38" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K38" s="19">
@@ -11057,7 +11190,9 @@
       <c r="O38" s="22">
         <v>0</v>
       </c>
-      <c r="P38" s="22"/>
+      <c r="P38" s="22">
+        <v>0</v>
+      </c>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
     </row>
@@ -11066,13 +11201,13 @@
         <v>35</v>
       </c>
       <c r="B39" s="85" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11089,7 +11224,7 @@
       </c>
       <c r="I39" s="19"/>
       <c r="J39" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K39" s="19">
@@ -11107,7 +11242,9 @@
       <c r="O39" s="22">
         <v>0</v>
       </c>
-      <c r="P39" s="22"/>
+      <c r="P39" s="22">
+        <v>0</v>
+      </c>
       <c r="Q39" s="22"/>
       <c r="R39" s="22"/>
     </row>
@@ -11116,13 +11253,13 @@
         <v>36</v>
       </c>
       <c r="B40" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="18" t="s">
-        <v>110</v>
-      </c>
       <c r="D40" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E40" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11137,7 +11274,7 @@
       </c>
       <c r="I40" s="19"/>
       <c r="J40" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>6</v>
       </c>
       <c r="K40" s="19">
@@ -11155,7 +11292,9 @@
       <c r="O40" s="19">
         <v>6</v>
       </c>
-      <c r="P40" s="22"/>
+      <c r="P40" s="22">
+        <v>6</v>
+      </c>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
     </row>
@@ -11164,13 +11303,13 @@
         <v>37</v>
       </c>
       <c r="B41" s="85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E41" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11187,7 +11326,7 @@
       </c>
       <c r="I41" s="19"/>
       <c r="J41" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K41" s="19">
@@ -11205,7 +11344,9 @@
       <c r="O41" s="19">
         <v>0</v>
       </c>
-      <c r="P41" s="22"/>
+      <c r="P41" s="22">
+        <v>0</v>
+      </c>
       <c r="Q41" s="22"/>
       <c r="R41" s="22"/>
     </row>
@@ -11214,17 +11355,17 @@
         <v>38</v>
       </c>
       <c r="B42" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>115</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>117</v>
       </c>
       <c r="E42" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F42" s="4">
         <v>43035</v>
@@ -11237,8 +11378,8 @@
       </c>
       <c r="I42" s="19"/>
       <c r="J42" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K42" s="19">
         <v>6</v>
@@ -11253,9 +11394,11 @@
         <v>6</v>
       </c>
       <c r="O42" s="19">
-        <v>6</v>
-      </c>
-      <c r="P42" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P42" s="22">
+        <v>0</v>
+      </c>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
     </row>
@@ -11275,7 +11418,7 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K43" s="22"/>
@@ -11292,13 +11435,13 @@
         <v>40</v>
       </c>
       <c r="B44" s="85" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E44" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11315,7 +11458,7 @@
       </c>
       <c r="I44" s="19"/>
       <c r="J44" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K44" s="22">
@@ -11333,7 +11476,9 @@
       <c r="O44" s="22">
         <v>0</v>
       </c>
-      <c r="P44" s="22"/>
+      <c r="P44" s="22">
+        <v>0</v>
+      </c>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
     </row>
@@ -11342,13 +11487,13 @@
         <v>41</v>
       </c>
       <c r="B45" s="85" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E45" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11365,7 +11510,7 @@
       </c>
       <c r="I45" s="19"/>
       <c r="J45" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
       <c r="K45" s="22">
@@ -11383,7 +11528,9 @@
       <c r="O45" s="22">
         <v>0</v>
       </c>
-      <c r="P45" s="22"/>
+      <c r="P45" s="22">
+        <v>0</v>
+      </c>
       <c r="Q45" s="22"/>
       <c r="R45" s="22"/>
     </row>
@@ -11392,13 +11539,13 @@
         <v>42</v>
       </c>
       <c r="B46" s="85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11415,7 +11562,7 @@
       </c>
       <c r="I46" s="19"/>
       <c r="J46" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K46" s="22">
@@ -11433,7 +11580,9 @@
       <c r="O46" s="22">
         <v>1</v>
       </c>
-      <c r="P46" s="22"/>
+      <c r="P46" s="22">
+        <v>1</v>
+      </c>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
     </row>
@@ -11442,13 +11591,13 @@
         <v>43</v>
       </c>
       <c r="B47" s="85" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E47" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11465,7 +11614,7 @@
       </c>
       <c r="I47" s="19"/>
       <c r="J47" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K47" s="22">
@@ -11483,7 +11632,9 @@
       <c r="O47" s="22">
         <v>2</v>
       </c>
-      <c r="P47" s="22"/>
+      <c r="P47" s="22">
+        <v>2</v>
+      </c>
       <c r="Q47" s="22"/>
       <c r="R47" s="22"/>
     </row>
@@ -11492,13 +11643,13 @@
         <v>44</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E48" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11515,7 +11666,7 @@
       </c>
       <c r="I48" s="19"/>
       <c r="J48" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K48" s="22">
@@ -11533,7 +11684,9 @@
       <c r="O48" s="22">
         <v>2</v>
       </c>
-      <c r="P48" s="22"/>
+      <c r="P48" s="22">
+        <v>2</v>
+      </c>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
     </row>
@@ -11542,13 +11695,13 @@
         <v>45</v>
       </c>
       <c r="B49" s="85" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11563,7 +11716,7 @@
       </c>
       <c r="I49" s="19"/>
       <c r="J49" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K49" s="19">
@@ -11581,7 +11734,9 @@
       <c r="O49" s="19">
         <v>2</v>
       </c>
-      <c r="P49" s="22"/>
+      <c r="P49" s="22">
+        <v>2</v>
+      </c>
       <c r="Q49" s="22"/>
       <c r="R49" s="22"/>
     </row>
@@ -11590,29 +11745,31 @@
         <v>46</v>
       </c>
       <c r="B50" s="85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E50" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F50" s="4">
         <v>43035</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4">
+        <v>43039</v>
+      </c>
       <c r="H50" s="19">
         <v>1</v>
       </c>
       <c r="I50" s="19"/>
       <c r="J50" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K50" s="19">
         <v>1</v>
@@ -11629,7 +11786,9 @@
       <c r="O50" s="19">
         <v>1</v>
       </c>
-      <c r="P50" s="22"/>
+      <c r="P50" s="22">
+        <v>0</v>
+      </c>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
     </row>
@@ -11638,13 +11797,13 @@
         <v>47</v>
       </c>
       <c r="B51" s="85" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E51" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11659,8 +11818,8 @@
       </c>
       <c r="I51" s="19"/>
       <c r="J51" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>2</v>
       </c>
       <c r="K51" s="19">
         <v>4</v>
@@ -11677,7 +11836,9 @@
       <c r="O51" s="19">
         <v>4</v>
       </c>
-      <c r="P51" s="22"/>
+      <c r="P51" s="22">
+        <v>2</v>
+      </c>
       <c r="Q51" s="22"/>
       <c r="R51" s="22"/>
     </row>
@@ -11686,13 +11847,13 @@
         <v>48</v>
       </c>
       <c r="B52" s="85" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E52" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11707,7 +11868,7 @@
       </c>
       <c r="I52" s="19"/>
       <c r="J52" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K52" s="19">
@@ -11725,7 +11886,9 @@
       <c r="O52" s="19">
         <v>2</v>
       </c>
-      <c r="P52" s="22"/>
+      <c r="P52" s="22">
+        <v>2</v>
+      </c>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
     </row>
@@ -11734,29 +11897,31 @@
         <v>49</v>
       </c>
       <c r="B53" s="85" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F53" s="4">
         <v>43039</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4">
+        <v>43039</v>
+      </c>
       <c r="H53" s="19">
         <v>2</v>
       </c>
       <c r="I53" s="19"/>
       <c r="J53" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K53" s="19">
         <v>2</v>
@@ -11773,7 +11938,9 @@
       <c r="O53" s="19">
         <v>2</v>
       </c>
-      <c r="P53" s="22"/>
+      <c r="P53" s="22">
+        <v>0</v>
+      </c>
       <c r="Q53" s="22"/>
       <c r="R53" s="22"/>
     </row>
@@ -11782,13 +11949,13 @@
         <v>50</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54" s="12" t="str">
         <f t="shared" si="5"/>
@@ -11803,7 +11970,7 @@
       </c>
       <c r="I54" s="19"/>
       <c r="J54" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>2</v>
       </c>
       <c r="K54" s="19">
@@ -11821,7 +11988,9 @@
       <c r="O54" s="19">
         <v>2</v>
       </c>
-      <c r="P54" s="22"/>
+      <c r="P54" s="22">
+        <v>2</v>
+      </c>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
     </row>
@@ -11830,13 +11999,13 @@
         <v>51</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E55" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
@@ -11853,7 +12022,7 @@
       </c>
       <c r="I55" s="19"/>
       <c r="J55" s="12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v>1</v>
       </c>
       <c r="K55" s="19">
@@ -11871,7 +12040,9 @@
       <c r="O55" s="19">
         <v>1</v>
       </c>
-      <c r="P55" s="22"/>
+      <c r="P55" s="22">
+        <v>1</v>
+      </c>
       <c r="Q55" s="22"/>
       <c r="R55" s="22"/>
     </row>
@@ -11883,26 +12054,28 @@
         <v>82</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F56" s="4">
         <v>43042</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4">
+        <v>43042</v>
+      </c>
       <c r="H56" s="19">
         <v>2</v>
       </c>
       <c r="I56" s="19"/>
       <c r="J56" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K56" s="19">
         <v>2</v>
@@ -11919,7 +12092,9 @@
       <c r="O56" s="19">
         <v>2</v>
       </c>
-      <c r="P56" s="22"/>
+      <c r="P56" s="22">
+        <v>0</v>
+      </c>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
     </row>
@@ -11939,7 +12114,7 @@
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
       <c r="J57" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K57" s="22"/>
@@ -11956,17 +12131,17 @@
         <v>54</v>
       </c>
       <c r="B58" s="85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E58" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F58" s="4">
         <v>43039</v>
@@ -11979,8 +12154,8 @@
       </c>
       <c r="I58" s="19"/>
       <c r="J58" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K58" s="19">
         <v>1</v>
@@ -11995,9 +12170,11 @@
         <v>1</v>
       </c>
       <c r="O58" s="19">
-        <v>1</v>
-      </c>
-      <c r="P58" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P58" s="22">
+        <v>0</v>
+      </c>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
     </row>
@@ -12006,17 +12183,17 @@
         <v>55</v>
       </c>
       <c r="B59" s="85" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E59" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F59" s="4">
         <v>43039</v>
@@ -12029,8 +12206,8 @@
       </c>
       <c r="I59" s="19"/>
       <c r="J59" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K59" s="19">
         <v>0.5</v>
@@ -12045,9 +12222,11 @@
         <v>0.5</v>
       </c>
       <c r="O59" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P59" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P59" s="22">
+        <v>0</v>
+      </c>
       <c r="Q59" s="22"/>
       <c r="R59" s="22"/>
     </row>
@@ -12056,17 +12235,17 @@
         <v>56</v>
       </c>
       <c r="B60" s="85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E60" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F60" s="4">
         <v>43039</v>
@@ -12079,8 +12258,8 @@
       </c>
       <c r="I60" s="19"/>
       <c r="J60" s="12">
-        <f t="shared" ca="1" si="6"/>
-        <v>0.5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
       </c>
       <c r="K60" s="19">
         <v>0.5</v>
@@ -12095,9 +12274,11 @@
         <v>0.5</v>
       </c>
       <c r="O60" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="P60" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="P60" s="22">
+        <v>0</v>
+      </c>
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
     </row>
@@ -12117,7 +12298,7 @@
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K61" s="22"/>
@@ -12133,19 +12314,23 @@
       <c r="A62" s="16">
         <v>58</v>
       </c>
-      <c r="B62" s="85"/>
-      <c r="C62" s="18"/>
+      <c r="B62" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D62" s="12"/>
       <c r="E62" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K62" s="22"/>
@@ -12161,19 +12346,23 @@
       <c r="A63" s="16">
         <v>59</v>
       </c>
-      <c r="B63" s="85"/>
-      <c r="C63" s="18"/>
+      <c r="B63" s="85" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>107</v>
+      </c>
       <c r="D63" s="12"/>
       <c r="E63" s="12" t="str">
         <f t="shared" si="5"/>
-        <v/>
+        <v>未着手</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
       <c r="J63" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="4"/>
         <v/>
       </c>
       <c r="K63" s="22"/>
@@ -12201,7 +12390,7 @@
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
       <c r="J64" s="12" t="str">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ref="J64:J68" ca="1" si="6">IF(ISBLANK(K64)=FALSE,OFFSET(J64,0,COUNTA(K64:O64)),"")</f>
         <v/>
       </c>
       <c r="K64" s="22"/>
@@ -13370,7 +13559,7 @@
       <c r="Q107" s="6"/>
       <c r="R107" s="6"/>
       <c r="T107" s="11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="U107" s="10">
         <f t="shared" ref="U107:U116" si="11">SUMIF($C$5:$C$104,T107,$H$5:$H$104)</f>
@@ -13378,7 +13567,7 @@
       </c>
       <c r="V107" s="10">
         <f t="shared" ref="V107:V116" ca="1" si="12">SUMIF($C$5:$C$104,T107,$J$5:$J$104)</f>
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W107" s="10">
         <f t="shared" ref="W107:W116" si="13">SUMIF($C$5:$C$104,T107,$I$5:$I$104)</f>
@@ -13386,11 +13575,11 @@
       </c>
       <c r="X107" s="14">
         <f t="shared" ref="X107:X116" si="14">COUNTA($K$2:$R$2)*6-COUNTA($K$4:$R$4)*6</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y107" s="15">
         <f ca="1">IF(X107&gt;V107,0,V107-X107)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:25">
@@ -13408,7 +13597,7 @@
       <c r="Q108" s="6"/>
       <c r="R108" s="6"/>
       <c r="T108" s="11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U108" s="10">
         <f t="shared" si="11"/>
@@ -13416,7 +13605,7 @@
       </c>
       <c r="V108" s="10">
         <f ca="1">SUMIF($C$5:$C$104,T108,$J$5:$J$104)</f>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="W108" s="10">
         <f t="shared" si="13"/>
@@ -13424,7 +13613,7 @@
       </c>
       <c r="X108" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y108" s="15">
         <f t="shared" ref="Y108:Y116" ca="1" si="15">IF(X108&gt;V108,0,V108-X108)</f>
@@ -13446,7 +13635,7 @@
       <c r="Q109" s="6"/>
       <c r="R109" s="6"/>
       <c r="T109" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="U109" s="10">
         <f t="shared" si="11"/>
@@ -13454,7 +13643,7 @@
       </c>
       <c r="V109" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="W109" s="10">
         <f t="shared" si="13"/>
@@ -13462,7 +13651,7 @@
       </c>
       <c r="X109" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y109" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13484,7 +13673,7 @@
       <c r="Q110" s="6"/>
       <c r="R110" s="6"/>
       <c r="T110" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="U110" s="10">
         <f t="shared" si="11"/>
@@ -13492,15 +13681,15 @@
       </c>
       <c r="V110" s="10">
         <f t="shared" ca="1" si="12"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="W110" s="10">
         <f t="shared" si="13"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X110" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y110" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13522,7 +13711,7 @@
       <c r="Q111" s="6"/>
       <c r="R111" s="6"/>
       <c r="T111" s="11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="U111" s="10">
         <f t="shared" si="11"/>
@@ -13538,7 +13727,7 @@
       </c>
       <c r="X111" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y111" s="15">
         <f t="shared" ca="1" si="15"/>
@@ -13574,7 +13763,7 @@
       </c>
       <c r="X112" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y112" s="15">
         <f t="shared" si="15"/>
@@ -13610,7 +13799,7 @@
       </c>
       <c r="X113" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y113" s="15">
         <f t="shared" si="15"/>
@@ -13646,7 +13835,7 @@
       </c>
       <c r="X114" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y114" s="15">
         <f t="shared" si="15"/>
@@ -13682,7 +13871,7 @@
       </c>
       <c r="X115" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y115" s="15">
         <f t="shared" si="15"/>
@@ -13718,7 +13907,7 @@
       </c>
       <c r="X116" s="14">
         <f t="shared" si="14"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="Y116" s="15">
         <f t="shared" si="15"/>
@@ -14811,7 +15000,7 @@
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:XFD6 J7:J183 E6:E104 L5:M42 O5:O42 A5:C104 K7:XFD104 E7:I104">
+  <conditionalFormatting sqref="E5:XFD6 E6:E104 L5:M42 O5:O42 A5:C104 E7:I104 K7:XFD104 J6:J183">
     <cfRule type="expression" dxfId="47" priority="12" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>

--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -7340,48 +7340,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$V$126:$V$130</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>高橋</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>宮内</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>榎本</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>進藤</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>頼紀</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$X$126:$X$130</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>29.799999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26.6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.5</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7459,48 +7422,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$V$126:$V$130</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>高橋</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>宮内</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>榎本</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>進藤</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>頼紀</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$Y$126:$Y$130</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7578,48 +7504,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$V$126:$V$130</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>高橋</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>宮内</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>榎本</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>進藤</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>頼紀</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$W$126:$W$130</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>74.500000000000028</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>49</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -7699,48 +7588,11 @@
           <c:cat>
             <c:strRef>
               <c:f>'スプリントバックログ(第２）'!$V$126:$V$130</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>高橋</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>宮内</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>榎本</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>進藤</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>頼紀</c:v>
-                </c:pt>
-              </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>'スプリントバックログ(第２）'!$AA$126:$AA$131</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>5.7999999999999972</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
@@ -9279,8 +9131,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9311,8 +9163,8 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17143,11 +16995,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AF286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE18" sqref="AE18"/>
+      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17212,7 +17065,7 @@
       <c r="S1" s="129"/>
       <c r="T1" s="129"/>
     </row>
-    <row r="2" spans="1:32" s="8" customFormat="1">
+    <row r="2" spans="1:32" s="8" customFormat="1" hidden="1">
       <c r="A2" s="119"/>
       <c r="B2" s="120"/>
       <c r="C2" s="120"/>
@@ -17254,7 +17107,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:32" s="8" customFormat="1">
+    <row r="3" spans="1:32" s="8" customFormat="1" hidden="1">
       <c r="A3" s="119"/>
       <c r="B3" s="120"/>
       <c r="C3" s="120"/>
@@ -17306,7 +17159,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="8" customFormat="1">
+    <row r="4" spans="1:32" s="8" customFormat="1" hidden="1">
       <c r="A4" s="119"/>
       <c r="B4" s="120"/>
       <c r="C4" s="121"/>
@@ -17349,7 +17202,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:32">
+    <row r="5" spans="1:32" hidden="1">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -17381,7 +17234,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:32">
+    <row r="6" spans="1:32" hidden="1">
       <c r="A6" s="16">
         <v>2</v>
       </c>
@@ -17438,7 +17291,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:32" hidden="1">
       <c r="A7" s="16">
         <v>3</v>
       </c>
@@ -17495,7 +17348,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:32" hidden="1">
       <c r="A8" s="16">
         <v>4</v>
       </c>
@@ -17549,7 +17402,7 @@
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:32" hidden="1">
       <c r="A9" s="16">
         <v>5</v>
       </c>
@@ -17579,7 +17432,7 @@
       <c r="S9" s="22"/>
       <c r="T9" s="22"/>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:32" hidden="1">
       <c r="A10" s="16">
         <v>6</v>
       </c>
@@ -17631,7 +17484,7 @@
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:32" hidden="1">
       <c r="A11" s="16">
         <v>7</v>
       </c>
@@ -17683,7 +17536,7 @@
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" hidden="1">
       <c r="A12" s="16">
         <v>8</v>
       </c>
@@ -17735,7 +17588,7 @@
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" hidden="1">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -17787,7 +17640,7 @@
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:32" hidden="1">
       <c r="A14" s="16">
         <v>10</v>
       </c>
@@ -17817,7 +17670,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:32" hidden="1">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -17869,7 +17722,7 @@
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:32" hidden="1">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -17919,7 +17772,7 @@
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" hidden="1">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -17971,7 +17824,7 @@
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" hidden="1">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -18021,7 +17874,7 @@
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" hidden="1">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -18071,7 +17924,7 @@
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" hidden="1">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -18121,7 +17974,7 @@
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" hidden="1">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -18171,7 +18024,7 @@
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" hidden="1">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -18221,7 +18074,7 @@
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" hidden="1">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -18273,7 +18126,7 @@
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" hidden="1">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -18325,7 +18178,7 @@
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" hidden="1">
       <c r="A25" s="16">
         <v>21</v>
       </c>
@@ -18355,7 +18208,7 @@
       <c r="S25" s="22"/>
       <c r="T25" s="22"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" hidden="1">
       <c r="A26" s="16">
         <v>22</v>
       </c>
@@ -18411,7 +18264,7 @@
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" hidden="1">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -18463,7 +18316,7 @@
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" hidden="1">
       <c r="A28" s="16">
         <v>24</v>
       </c>
@@ -18517,7 +18370,7 @@
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" hidden="1">
       <c r="A29" s="16">
         <v>25</v>
       </c>
@@ -18569,7 +18422,7 @@
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" hidden="1">
       <c r="A30" s="16">
         <v>26</v>
       </c>
@@ -18623,7 +18476,7 @@
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" hidden="1">
       <c r="A31" s="16">
         <v>27</v>
       </c>
@@ -18675,7 +18528,7 @@
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" hidden="1">
       <c r="A32" s="16">
         <v>28</v>
       </c>
@@ -18727,7 +18580,7 @@
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" hidden="1">
       <c r="A33" s="16">
         <v>29</v>
       </c>
@@ -18779,7 +18632,7 @@
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" hidden="1">
       <c r="A34" s="16">
         <v>30</v>
       </c>
@@ -18845,13 +18698,15 @@
         <v>109</v>
       </c>
       <c r="E35" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F35" s="4">
         <v>43070</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4">
+        <v>43060</v>
+      </c>
       <c r="H35" s="19">
         <v>2</v>
       </c>
@@ -18883,7 +18738,7 @@
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" hidden="1">
       <c r="A36" s="16">
         <v>32</v>
       </c>
@@ -18937,7 +18792,7 @@
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" hidden="1">
       <c r="A37" s="16">
         <v>33</v>
       </c>
@@ -18989,7 +18844,7 @@
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" hidden="1">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -19041,7 +18896,7 @@
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" hidden="1">
       <c r="A39" s="16">
         <v>35</v>
       </c>
@@ -19093,7 +18948,7 @@
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" hidden="1">
       <c r="A40" s="16">
         <v>36</v>
       </c>
@@ -19149,7 +19004,7 @@
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" hidden="1">
       <c r="A41" s="16">
         <v>37</v>
       </c>
@@ -19201,7 +19056,7 @@
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" hidden="1">
       <c r="A42" s="16">
         <v>38</v>
       </c>
@@ -19355,7 +19210,7 @@
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" hidden="1">
       <c r="A45" s="16">
         <v>41</v>
       </c>
@@ -19407,7 +19262,7 @@
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" hidden="1">
       <c r="A46" s="16">
         <v>42</v>
       </c>
@@ -19459,7 +19314,7 @@
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" hidden="1">
       <c r="A47" s="16">
         <v>43</v>
       </c>
@@ -19511,7 +19366,7 @@
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" hidden="1">
       <c r="A48" s="16">
         <v>44</v>
       </c>
@@ -19563,7 +19418,7 @@
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" hidden="1">
       <c r="A49" s="16">
         <v>45</v>
       </c>
@@ -19615,7 +19470,7 @@
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" hidden="1">
       <c r="A50" s="16">
         <v>46</v>
       </c>
@@ -19667,7 +19522,7 @@
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" hidden="1">
       <c r="A51" s="16">
         <v>47</v>
       </c>
@@ -19719,7 +19574,7 @@
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" hidden="1">
       <c r="A52" s="16">
         <v>48</v>
       </c>
@@ -19771,7 +19626,7 @@
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" hidden="1">
       <c r="A53" s="16">
         <v>49</v>
       </c>
@@ -19823,7 +19678,7 @@
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" hidden="1">
       <c r="A54" s="16">
         <v>50</v>
       </c>
@@ -20415,7 +20270,7 @@
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" hidden="1">
       <c r="A65" s="16">
         <v>61</v>
       </c>
@@ -20499,7 +20354,7 @@
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" hidden="1">
       <c r="A67" s="16">
         <v>63</v>
       </c>
@@ -20547,7 +20402,7 @@
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" hidden="1">
       <c r="A68" s="16">
         <v>64</v>
       </c>
@@ -20595,7 +20450,7 @@
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" hidden="1">
       <c r="A69" s="16">
         <v>65</v>
       </c>
@@ -20647,7 +20502,7 @@
       <c r="S69" s="22"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" hidden="1">
       <c r="A70" s="16">
         <v>66</v>
       </c>
@@ -20699,7 +20554,7 @@
       <c r="S70" s="22"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" hidden="1">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -20751,7 +20606,7 @@
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" hidden="1">
       <c r="A72" s="16">
         <v>68</v>
       </c>
@@ -20801,7 +20656,7 @@
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" hidden="1">
       <c r="A73" s="16">
         <v>69</v>
       </c>
@@ -20851,7 +20706,7 @@
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" hidden="1">
       <c r="A74" s="16">
         <v>70</v>
       </c>
@@ -20901,7 +20756,7 @@
       <c r="S74" s="22"/>
       <c r="T74" s="22"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" hidden="1">
       <c r="A75" s="16">
         <v>71</v>
       </c>
@@ -20953,7 +20808,7 @@
       <c r="S75" s="22"/>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" hidden="1">
       <c r="A76" s="16">
         <v>72</v>
       </c>
@@ -21005,7 +20860,7 @@
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" hidden="1">
       <c r="A77" s="16">
         <v>73</v>
       </c>
@@ -21055,7 +20910,7 @@
       <c r="S77" s="22"/>
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" hidden="1">
       <c r="A78" s="16">
         <v>74</v>
       </c>
@@ -21107,7 +20962,7 @@
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" hidden="1">
       <c r="A79" s="16">
         <v>75</v>
       </c>
@@ -21157,7 +21012,7 @@
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" hidden="1">
       <c r="A80" s="16">
         <v>76</v>
       </c>
@@ -21209,7 +21064,7 @@
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" hidden="1">
       <c r="A81" s="16">
         <v>77</v>
       </c>
@@ -21259,7 +21114,7 @@
       <c r="S81" s="22"/>
       <c r="T81" s="22"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" hidden="1">
       <c r="A82" s="16">
         <v>78</v>
       </c>
@@ -21309,7 +21164,7 @@
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" hidden="1">
       <c r="A83" s="16">
         <v>79</v>
       </c>
@@ -21359,7 +21214,7 @@
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" hidden="1">
       <c r="A84" s="16">
         <v>80</v>
       </c>
@@ -21409,7 +21264,7 @@
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" hidden="1">
       <c r="A85" s="16">
         <v>81</v>
       </c>
@@ -21439,7 +21294,7 @@
       <c r="S85" s="22"/>
       <c r="T85" s="22"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" hidden="1">
       <c r="A86" s="16">
         <v>82</v>
       </c>
@@ -21707,7 +21562,7 @@
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" hidden="1">
       <c r="A91" s="16">
         <v>87</v>
       </c>
@@ -21737,7 +21592,7 @@
       <c r="S91" s="22"/>
       <c r="T91" s="22"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" hidden="1">
       <c r="A92" s="16">
         <v>88</v>
       </c>
@@ -21783,7 +21638,7 @@
       <c r="S92" s="22"/>
       <c r="T92" s="22"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" hidden="1">
       <c r="A93" s="16">
         <v>89</v>
       </c>
@@ -21829,7 +21684,7 @@
       <c r="S93" s="22"/>
       <c r="T93" s="22"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" hidden="1">
       <c r="A94" s="16">
         <v>90</v>
       </c>
@@ -21859,7 +21714,7 @@
       <c r="S94" s="22"/>
       <c r="T94" s="22"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" hidden="1">
       <c r="A95" s="16">
         <v>91</v>
       </c>
@@ -21909,7 +21764,7 @@
       <c r="S95" s="22"/>
       <c r="T95" s="22"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" hidden="1">
       <c r="A96" s="16">
         <v>92</v>
       </c>
@@ -21961,7 +21816,7 @@
       <c r="S96" s="22"/>
       <c r="T96" s="22"/>
     </row>
-    <row r="97" spans="1:24">
+    <row r="97" spans="1:24" hidden="1">
       <c r="A97" s="16">
         <v>93</v>
       </c>
@@ -21991,7 +21846,7 @@
       <c r="S97" s="22"/>
       <c r="T97" s="22"/>
     </row>
-    <row r="98" spans="1:24">
+    <row r="98" spans="1:24" hidden="1">
       <c r="A98" s="16">
         <v>97</v>
       </c>
@@ -22041,7 +21896,7 @@
       <c r="S98" s="22"/>
       <c r="T98" s="22"/>
     </row>
-    <row r="99" spans="1:24">
+    <row r="99" spans="1:24" hidden="1">
       <c r="A99" s="16">
         <v>98</v>
       </c>
@@ -22091,7 +21946,7 @@
       <c r="S99" s="22"/>
       <c r="T99" s="22"/>
     </row>
-    <row r="100" spans="1:24">
+    <row r="100" spans="1:24" hidden="1">
       <c r="A100" s="16">
         <v>99</v>
       </c>
@@ -22141,7 +21996,7 @@
       <c r="S100" s="22"/>
       <c r="T100" s="22"/>
     </row>
-    <row r="101" spans="1:24">
+    <row r="101" spans="1:24" hidden="1">
       <c r="A101" s="16">
         <v>100</v>
       </c>
@@ -22193,7 +22048,7 @@
       <c r="S101" s="22"/>
       <c r="T101" s="22"/>
     </row>
-    <row r="102" spans="1:24" ht="13.5" customHeight="1">
+    <row r="102" spans="1:24" ht="13.5" hidden="1" customHeight="1">
       <c r="A102" s="16">
         <v>101</v>
       </c>
@@ -22245,7 +22100,7 @@
       <c r="S102" s="22"/>
       <c r="T102" s="22"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" hidden="1">
       <c r="A103" s="16">
         <v>102</v>
       </c>
@@ -22301,7 +22156,7 @@
       <c r="W103" s="101"/>
       <c r="X103" s="101"/>
     </row>
-    <row r="104" spans="1:24">
+    <row r="104" spans="1:24" hidden="1">
       <c r="A104" s="16">
         <v>103</v>
       </c>
@@ -22503,7 +22358,7 @@
       <c r="W107" s="103"/>
       <c r="X107" s="104"/>
     </row>
-    <row r="108" spans="1:24">
+    <row r="108" spans="1:24" hidden="1">
       <c r="A108" s="16">
         <v>107</v>
       </c>
@@ -22559,7 +22414,7 @@
       <c r="W108" s="103"/>
       <c r="X108" s="104"/>
     </row>
-    <row r="109" spans="1:24">
+    <row r="109" spans="1:24" hidden="1">
       <c r="A109" s="16">
         <v>108</v>
       </c>
@@ -22615,7 +22470,7 @@
       <c r="W109" s="103"/>
       <c r="X109" s="104"/>
     </row>
-    <row r="110" spans="1:24">
+    <row r="110" spans="1:24" hidden="1">
       <c r="A110" s="16">
         <v>109</v>
       </c>
@@ -22669,7 +22524,7 @@
       <c r="W110" s="103"/>
       <c r="X110" s="104"/>
     </row>
-    <row r="111" spans="1:24">
+    <row r="111" spans="1:24" hidden="1">
       <c r="A111" s="16">
         <v>110</v>
       </c>
@@ -22723,7 +22578,7 @@
       <c r="W111" s="103"/>
       <c r="X111" s="104"/>
     </row>
-    <row r="112" spans="1:24">
+    <row r="112" spans="1:24" hidden="1">
       <c r="A112" s="16">
         <v>111</v>
       </c>
@@ -22779,7 +22634,7 @@
       <c r="W112" s="103"/>
       <c r="X112" s="104"/>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:27" hidden="1">
       <c r="A113" s="16">
         <v>112</v>
       </c>
@@ -22833,7 +22688,7 @@
       <c r="W113" s="103"/>
       <c r="X113" s="104"/>
     </row>
-    <row r="114" spans="1:27">
+    <row r="114" spans="1:27" hidden="1">
       <c r="A114" s="16">
         <v>113</v>
       </c>
@@ -22883,7 +22738,7 @@
       <c r="S114" s="22"/>
       <c r="T114" s="22"/>
     </row>
-    <row r="115" spans="1:27">
+    <row r="115" spans="1:27" hidden="1">
       <c r="A115" s="16">
         <v>114</v>
       </c>
@@ -22933,7 +22788,7 @@
       <c r="S115" s="22"/>
       <c r="T115" s="22"/>
     </row>
-    <row r="116" spans="1:27">
+    <row r="116" spans="1:27" hidden="1">
       <c r="A116" s="16">
         <v>115</v>
       </c>
@@ -22985,7 +22840,7 @@
       <c r="S116" s="22"/>
       <c r="T116" s="22"/>
     </row>
-    <row r="117" spans="1:27">
+    <row r="117" spans="1:27" hidden="1">
       <c r="A117" s="16">
         <v>116</v>
       </c>
@@ -23035,7 +22890,7 @@
       <c r="S117" s="22"/>
       <c r="T117" s="22"/>
     </row>
-    <row r="118" spans="1:27">
+    <row r="118" spans="1:27" hidden="1">
       <c r="A118" s="16">
         <v>117</v>
       </c>
@@ -23085,7 +22940,7 @@
       <c r="S118" s="22"/>
       <c r="T118" s="22"/>
     </row>
-    <row r="119" spans="1:27">
+    <row r="119" spans="1:27" hidden="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -23135,7 +22990,7 @@
       <c r="S119" s="22"/>
       <c r="T119" s="22"/>
     </row>
-    <row r="120" spans="1:27">
+    <row r="120" spans="1:27" hidden="1">
       <c r="A120" s="16">
         <v>119</v>
       </c>
@@ -23185,7 +23040,7 @@
       <c r="S120" s="22"/>
       <c r="T120" s="22"/>
     </row>
-    <row r="121" spans="1:27">
+    <row r="121" spans="1:27" hidden="1">
       <c r="A121" s="16">
         <v>120</v>
       </c>
@@ -23237,7 +23092,7 @@
       <c r="S121" s="22"/>
       <c r="T121" s="22"/>
     </row>
-    <row r="122" spans="1:27">
+    <row r="122" spans="1:27" hidden="1">
       <c r="A122" s="16">
         <v>121</v>
       </c>
@@ -23289,7 +23144,7 @@
       <c r="S122" s="22"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:27">
+    <row r="123" spans="1:27" hidden="1">
       <c r="A123" s="16">
         <v>122</v>
       </c>
@@ -23341,7 +23196,7 @@
       <c r="S123" s="135"/>
       <c r="T123" s="135"/>
     </row>
-    <row r="124" spans="1:27">
+    <row r="124" spans="1:27" hidden="1">
       <c r="A124" s="16">
         <v>123</v>
       </c>
@@ -23393,7 +23248,7 @@
       <c r="S124" s="22"/>
       <c r="T124" s="22"/>
     </row>
-    <row r="125" spans="1:27">
+    <row r="125" spans="1:27" hidden="1">
       <c r="A125" s="16">
         <v>124</v>
       </c>
@@ -23463,7 +23318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:27">
+    <row r="126" spans="1:27" hidden="1">
       <c r="A126" s="16">
         <v>125</v>
       </c>
@@ -23538,7 +23393,7 @@
         <v>5.7999999999999972</v>
       </c>
     </row>
-    <row r="127" spans="1:27">
+    <row r="127" spans="1:27" hidden="1">
       <c r="A127" s="16">
         <v>126</v>
       </c>
@@ -23613,7 +23468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:27">
+    <row r="128" spans="1:27" hidden="1">
       <c r="A128" s="16">
         <v>127</v>
       </c>
@@ -23688,7 +23543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:27">
+    <row r="129" spans="1:27" hidden="1">
       <c r="A129" s="16">
         <v>128</v>
       </c>
@@ -23763,7 +23618,7 @@
         <v>2.6000000000000014</v>
       </c>
     </row>
-    <row r="130" spans="1:27">
+    <row r="130" spans="1:27" hidden="1">
       <c r="A130" s="16">
         <v>129</v>
       </c>
@@ -23838,7 +23693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:27">
+    <row r="131" spans="1:27" hidden="1">
       <c r="A131" s="16">
         <v>130</v>
       </c>
@@ -23896,7 +23751,7 @@
       <c r="Z131" s="14"/>
       <c r="AA131" s="15"/>
     </row>
-    <row r="132" spans="1:27">
+    <row r="132" spans="1:27" hidden="1">
       <c r="A132" s="16">
         <v>131</v>
       </c>
@@ -23954,7 +23809,7 @@
       <c r="Z132" s="14"/>
       <c r="AA132" s="15"/>
     </row>
-    <row r="133" spans="1:27">
+    <row r="133" spans="1:27" hidden="1">
       <c r="A133" s="16">
         <v>132</v>
       </c>
@@ -24012,7 +23867,7 @@
       <c r="Z133" s="14"/>
       <c r="AA133" s="15"/>
     </row>
-    <row r="134" spans="1:27">
+    <row r="134" spans="1:27" hidden="1">
       <c r="A134" s="16">
         <v>133</v>
       </c>
@@ -24070,7 +23925,7 @@
       <c r="Z134" s="14"/>
       <c r="AA134" s="15"/>
     </row>
-    <row r="135" spans="1:27">
+    <row r="135" spans="1:27" hidden="1">
       <c r="A135" s="16">
         <v>134</v>
       </c>
@@ -24128,7 +23983,7 @@
       <c r="Z135" s="14"/>
       <c r="AA135" s="15"/>
     </row>
-    <row r="136" spans="1:27">
+    <row r="136" spans="1:27" hidden="1">
       <c r="A136" s="16">
         <v>135</v>
       </c>
@@ -24180,7 +24035,7 @@
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
     </row>
-    <row r="137" spans="1:27">
+    <row r="137" spans="1:27" hidden="1">
       <c r="A137" s="16">
         <v>136</v>
       </c>
@@ -24232,7 +24087,7 @@
       <c r="S137" s="22"/>
       <c r="T137" s="22"/>
     </row>
-    <row r="138" spans="1:27">
+    <row r="138" spans="1:27" hidden="1">
       <c r="A138" s="16">
         <v>137</v>
       </c>
@@ -24284,7 +24139,7 @@
       <c r="S138" s="22"/>
       <c r="T138" s="22"/>
     </row>
-    <row r="139" spans="1:27">
+    <row r="139" spans="1:27" hidden="1">
       <c r="A139" s="16">
         <v>138</v>
       </c>
@@ -24336,7 +24191,7 @@
       <c r="S139" s="22"/>
       <c r="T139" s="22"/>
     </row>
-    <row r="140" spans="1:27">
+    <row r="140" spans="1:27" hidden="1">
       <c r="A140" s="16">
         <v>139</v>
       </c>
@@ -24388,7 +24243,7 @@
       <c r="S140" s="22"/>
       <c r="T140" s="22"/>
     </row>
-    <row r="141" spans="1:27">
+    <row r="141" spans="1:27" hidden="1">
       <c r="A141" s="16">
         <v>140</v>
       </c>
@@ -24440,7 +24295,7 @@
       <c r="S141" s="22"/>
       <c r="T141" s="22"/>
     </row>
-    <row r="142" spans="1:27">
+    <row r="142" spans="1:27" hidden="1">
       <c r="A142" s="16">
         <v>141</v>
       </c>
@@ -24492,7 +24347,7 @@
       <c r="S142" s="22"/>
       <c r="T142" s="22"/>
     </row>
-    <row r="143" spans="1:27">
+    <row r="143" spans="1:27" hidden="1">
       <c r="A143" s="16">
         <v>142</v>
       </c>
@@ -24544,7 +24399,7 @@
       <c r="S143" s="22"/>
       <c r="T143" s="22"/>
     </row>
-    <row r="144" spans="1:27">
+    <row r="144" spans="1:27" hidden="1">
       <c r="A144" s="16">
         <v>143</v>
       </c>
@@ -24596,7 +24451,7 @@
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
     </row>
-    <row r="145" spans="1:20">
+    <row r="145" spans="1:20" hidden="1">
       <c r="A145" s="16">
         <v>149</v>
       </c>
@@ -24628,7 +24483,7 @@
       <c r="S145" s="22"/>
       <c r="T145" s="22"/>
     </row>
-    <row r="146" spans="1:20">
+    <row r="146" spans="1:20" hidden="1">
       <c r="A146" s="16">
         <v>150</v>
       </c>
@@ -24678,7 +24533,7 @@
       <c r="S146" s="22"/>
       <c r="T146" s="22"/>
     </row>
-    <row r="147" spans="1:20">
+    <row r="147" spans="1:20" hidden="1">
       <c r="A147" s="16">
         <v>151</v>
       </c>
@@ -24728,7 +24583,7 @@
       <c r="S147" s="22"/>
       <c r="T147" s="22"/>
     </row>
-    <row r="148" spans="1:20">
+    <row r="148" spans="1:20" hidden="1">
       <c r="A148" s="16">
         <v>152</v>
       </c>
@@ -24778,7 +24633,7 @@
       <c r="S148" s="22"/>
       <c r="T148" s="22"/>
     </row>
-    <row r="149" spans="1:20">
+    <row r="149" spans="1:20" hidden="1">
       <c r="A149" s="16">
         <v>153</v>
       </c>
@@ -24828,7 +24683,7 @@
       <c r="S149" s="22"/>
       <c r="T149" s="22"/>
     </row>
-    <row r="150" spans="1:20">
+    <row r="150" spans="1:20" hidden="1">
       <c r="A150" s="16">
         <v>154</v>
       </c>
@@ -24858,7 +24713,7 @@
       <c r="S150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20">
+    <row r="151" spans="1:20" hidden="1">
       <c r="A151" s="16">
         <v>155</v>
       </c>
@@ -24908,7 +24763,7 @@
       <c r="S151" s="22"/>
       <c r="T151" s="22"/>
     </row>
-    <row r="152" spans="1:20">
+    <row r="152" spans="1:20" hidden="1">
       <c r="A152" s="16">
         <v>156</v>
       </c>
@@ -24958,7 +24813,7 @@
       <c r="S152" s="22"/>
       <c r="T152" s="22"/>
     </row>
-    <row r="153" spans="1:20">
+    <row r="153" spans="1:20" hidden="1">
       <c r="A153" s="16">
         <v>157</v>
       </c>
@@ -24994,7 +24849,7 @@
       <c r="S153" s="22"/>
       <c r="T153" s="22"/>
     </row>
-    <row r="154" spans="1:20">
+    <row r="154" spans="1:20" hidden="1">
       <c r="A154" s="16">
         <v>158</v>
       </c>
@@ -25030,7 +24885,7 @@
       <c r="S154" s="22"/>
       <c r="T154" s="22"/>
     </row>
-    <row r="155" spans="1:20">
+    <row r="155" spans="1:20" hidden="1">
       <c r="A155" s="16">
         <v>159</v>
       </c>
@@ -25080,7 +24935,7 @@
       <c r="S155" s="22"/>
       <c r="T155" s="22"/>
     </row>
-    <row r="156" spans="1:20">
+    <row r="156" spans="1:20" hidden="1">
       <c r="A156" s="16">
         <v>160</v>
       </c>
@@ -25228,7 +25083,7 @@
       <c r="S158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20">
+    <row r="159" spans="1:20" hidden="1">
       <c r="A159" s="16">
         <v>163</v>
       </c>
@@ -25278,7 +25133,7 @@
       <c r="S159" s="22"/>
       <c r="T159" s="22"/>
     </row>
-    <row r="160" spans="1:20">
+    <row r="160" spans="1:20" hidden="1">
       <c r="A160" s="16">
         <v>164</v>
       </c>
@@ -25328,7 +25183,7 @@
       <c r="S160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20">
+    <row r="161" spans="1:20" hidden="1">
       <c r="A161" s="16">
         <v>165</v>
       </c>
@@ -25378,7 +25233,7 @@
       <c r="S161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20">
+    <row r="162" spans="1:20" hidden="1">
       <c r="A162" s="16">
         <v>166</v>
       </c>
@@ -25428,7 +25283,7 @@
       <c r="S162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20">
+    <row r="163" spans="1:20" hidden="1">
       <c r="A163" s="16">
         <v>167</v>
       </c>
@@ -25478,7 +25333,7 @@
       <c r="S163" s="22"/>
       <c r="T163" s="22"/>
     </row>
-    <row r="164" spans="1:20">
+    <row r="164" spans="1:20" hidden="1">
       <c r="A164" s="16">
         <v>168</v>
       </c>
@@ -25508,7 +25363,7 @@
       <c r="S164" s="22"/>
       <c r="T164" s="22"/>
     </row>
-    <row r="165" spans="1:20">
+    <row r="165" spans="1:20" hidden="1">
       <c r="A165" s="16">
         <v>169</v>
       </c>
@@ -25560,7 +25415,7 @@
       <c r="S165" s="22"/>
       <c r="T165" s="22"/>
     </row>
-    <row r="166" spans="1:20">
+    <row r="166" spans="1:20" hidden="1">
       <c r="A166" s="16">
         <v>170</v>
       </c>
@@ -25592,7 +25447,7 @@
       <c r="S166" s="22"/>
       <c r="T166" s="22"/>
     </row>
-    <row r="167" spans="1:20">
+    <row r="167" spans="1:20" hidden="1">
       <c r="A167" s="16">
         <v>171</v>
       </c>
@@ -25624,7 +25479,7 @@
       <c r="S167" s="22"/>
       <c r="T167" s="22"/>
     </row>
-    <row r="168" spans="1:20">
+    <row r="168" spans="1:20" hidden="1">
       <c r="A168" s="16">
         <v>172</v>
       </c>
@@ -25654,7 +25509,7 @@
       <c r="S168" s="22"/>
       <c r="T168" s="22"/>
     </row>
-    <row r="169" spans="1:20">
+    <row r="169" spans="1:20" hidden="1">
       <c r="A169" s="16">
         <v>173</v>
       </c>
@@ -25702,7 +25557,7 @@
       <c r="S169" s="22"/>
       <c r="T169" s="22"/>
     </row>
-    <row r="170" spans="1:20">
+    <row r="170" spans="1:20" hidden="1">
       <c r="A170" s="16">
         <v>174</v>
       </c>
@@ -25804,7 +25659,7 @@
       <c r="S172" s="22"/>
       <c r="T172" s="22"/>
     </row>
-    <row r="173" spans="1:20">
+    <row r="173" spans="1:20" hidden="1">
       <c r="A173" s="16">
         <v>177</v>
       </c>
@@ -25834,7 +25689,7 @@
       <c r="S173" s="22"/>
       <c r="T173" s="22"/>
     </row>
-    <row r="174" spans="1:20">
+    <row r="174" spans="1:20" hidden="1">
       <c r="A174" s="16">
         <v>178</v>
       </c>
@@ -25868,7 +25723,7 @@
       <c r="S174" s="22"/>
       <c r="T174" s="22"/>
     </row>
-    <row r="175" spans="1:20">
+    <row r="175" spans="1:20" hidden="1">
       <c r="A175" s="16">
         <v>179</v>
       </c>
@@ -25898,7 +25753,7 @@
       <c r="S175" s="22"/>
       <c r="T175" s="22"/>
     </row>
-    <row r="176" spans="1:20">
+    <row r="176" spans="1:20" hidden="1">
       <c r="A176" s="16">
         <v>180</v>
       </c>
@@ -25928,7 +25783,7 @@
       <c r="S176" s="22"/>
       <c r="T176" s="22"/>
     </row>
-    <row r="177" spans="1:20">
+    <row r="177" spans="1:20" hidden="1">
       <c r="A177" s="16">
         <v>181</v>
       </c>
@@ -25958,7 +25813,7 @@
       <c r="S177" s="22"/>
       <c r="T177" s="22"/>
     </row>
-    <row r="178" spans="1:20">
+    <row r="178" spans="1:20" hidden="1">
       <c r="A178" s="16">
         <v>182</v>
       </c>
@@ -25988,7 +25843,7 @@
       <c r="S178" s="22"/>
       <c r="T178" s="22"/>
     </row>
-    <row r="179" spans="1:20">
+    <row r="179" spans="1:20" hidden="1">
       <c r="A179" s="16">
         <v>183</v>
       </c>
@@ -26018,7 +25873,7 @@
       <c r="S179" s="22"/>
       <c r="T179" s="22"/>
     </row>
-    <row r="180" spans="1:20">
+    <row r="180" spans="1:20" hidden="1">
       <c r="A180" s="16">
         <v>184</v>
       </c>
@@ -26048,7 +25903,7 @@
       <c r="S180" s="22"/>
       <c r="T180" s="22"/>
     </row>
-    <row r="181" spans="1:20">
+    <row r="181" spans="1:20" hidden="1">
       <c r="A181" s="16">
         <v>185</v>
       </c>
@@ -26078,7 +25933,7 @@
       <c r="S181" s="22"/>
       <c r="T181" s="22"/>
     </row>
-    <row r="182" spans="1:20">
+    <row r="182" spans="1:20" hidden="1">
       <c r="A182" s="16">
         <v>186</v>
       </c>
@@ -26108,7 +25963,7 @@
       <c r="S182" s="22"/>
       <c r="T182" s="22"/>
     </row>
-    <row r="183" spans="1:20">
+    <row r="183" spans="1:20" hidden="1">
       <c r="A183" s="16">
         <v>187</v>
       </c>
@@ -26138,7 +25993,7 @@
       <c r="S183" s="22"/>
       <c r="T183" s="22"/>
     </row>
-    <row r="184" spans="1:20">
+    <row r="184" spans="1:20" hidden="1">
       <c r="A184" s="16">
         <v>188</v>
       </c>
@@ -26168,7 +26023,7 @@
       <c r="S184" s="22"/>
       <c r="T184" s="22"/>
     </row>
-    <row r="185" spans="1:20">
+    <row r="185" spans="1:20" hidden="1">
       <c r="A185" s="16">
         <v>189</v>
       </c>
@@ -26198,7 +26053,7 @@
       <c r="S185" s="22"/>
       <c r="T185" s="22"/>
     </row>
-    <row r="186" spans="1:20">
+    <row r="186" spans="1:20" hidden="1">
       <c r="A186" s="16">
         <v>190</v>
       </c>
@@ -26228,7 +26083,7 @@
       <c r="S186" s="22"/>
       <c r="T186" s="22"/>
     </row>
-    <row r="187" spans="1:20">
+    <row r="187" spans="1:20" hidden="1">
       <c r="A187" s="16">
         <v>191</v>
       </c>
@@ -26258,7 +26113,7 @@
       <c r="S187" s="22"/>
       <c r="T187" s="22"/>
     </row>
-    <row r="188" spans="1:20">
+    <row r="188" spans="1:20" hidden="1">
       <c r="A188" s="16">
         <v>192</v>
       </c>
@@ -26288,7 +26143,7 @@
       <c r="S188" s="22"/>
       <c r="T188" s="22"/>
     </row>
-    <row r="189" spans="1:20">
+    <row r="189" spans="1:20" hidden="1">
       <c r="A189" s="16">
         <v>193</v>
       </c>
@@ -26318,7 +26173,7 @@
       <c r="S189" s="22"/>
       <c r="T189" s="22"/>
     </row>
-    <row r="190" spans="1:20">
+    <row r="190" spans="1:20" hidden="1">
       <c r="A190" s="16">
         <v>194</v>
       </c>
@@ -26348,7 +26203,7 @@
       <c r="S190" s="22"/>
       <c r="T190" s="22"/>
     </row>
-    <row r="191" spans="1:20">
+    <row r="191" spans="1:20" hidden="1">
       <c r="A191" s="16">
         <v>195</v>
       </c>
@@ -26378,7 +26233,7 @@
       <c r="S191" s="22"/>
       <c r="T191" s="22"/>
     </row>
-    <row r="192" spans="1:20">
+    <row r="192" spans="1:20" hidden="1">
       <c r="A192" s="16">
         <v>196</v>
       </c>
@@ -26408,7 +26263,7 @@
       <c r="S192" s="22"/>
       <c r="T192" s="22"/>
     </row>
-    <row r="193" spans="1:20">
+    <row r="193" spans="1:20" hidden="1">
       <c r="A193" s="16">
         <v>197</v>
       </c>
@@ -26438,7 +26293,7 @@
       <c r="S193" s="22"/>
       <c r="T193" s="22"/>
     </row>
-    <row r="194" spans="1:20">
+    <row r="194" spans="1:20" hidden="1">
       <c r="A194" s="16">
         <v>198</v>
       </c>
@@ -26468,7 +26323,7 @@
       <c r="S194" s="22"/>
       <c r="T194" s="22"/>
     </row>
-    <row r="195" spans="1:20">
+    <row r="195" spans="1:20" hidden="1">
       <c r="A195" s="16">
         <v>199</v>
       </c>
@@ -26498,7 +26353,7 @@
       <c r="S195" s="22"/>
       <c r="T195" s="22"/>
     </row>
-    <row r="196" spans="1:20">
+    <row r="196" spans="1:20" hidden="1">
       <c r="A196" s="16">
         <v>200</v>
       </c>
@@ -26528,7 +26383,7 @@
       <c r="S196" s="22"/>
       <c r="T196" s="22"/>
     </row>
-    <row r="197" spans="1:20">
+    <row r="197" spans="1:20" hidden="1">
       <c r="A197" s="16">
         <v>201</v>
       </c>
@@ -26558,7 +26413,7 @@
       <c r="S197" s="22"/>
       <c r="T197" s="22"/>
     </row>
-    <row r="198" spans="1:20">
+    <row r="198" spans="1:20" hidden="1">
       <c r="A198" s="16">
         <v>202</v>
       </c>
@@ -26588,7 +26443,7 @@
       <c r="S198" s="22"/>
       <c r="T198" s="22"/>
     </row>
-    <row r="199" spans="1:20">
+    <row r="199" spans="1:20" hidden="1">
       <c r="A199" s="16">
         <v>203</v>
       </c>
@@ -26618,7 +26473,7 @@
       <c r="S199" s="22"/>
       <c r="T199" s="22"/>
     </row>
-    <row r="200" spans="1:20">
+    <row r="200" spans="1:20" hidden="1">
       <c r="A200" s="16">
         <v>204</v>
       </c>
@@ -26648,7 +26503,7 @@
       <c r="S200" s="22"/>
       <c r="T200" s="22"/>
     </row>
-    <row r="201" spans="1:20">
+    <row r="201" spans="1:20" hidden="1">
       <c r="A201" s="16">
         <v>205</v>
       </c>
@@ -26678,7 +26533,7 @@
       <c r="S201" s="22"/>
       <c r="T201" s="22"/>
     </row>
-    <row r="202" spans="1:20">
+    <row r="202" spans="1:20" hidden="1">
       <c r="A202" s="16">
         <v>206</v>
       </c>
@@ -26708,7 +26563,7 @@
       <c r="S202" s="22"/>
       <c r="T202" s="22"/>
     </row>
-    <row r="203" spans="1:20">
+    <row r="203" spans="1:20" hidden="1">
       <c r="A203" s="16">
         <v>207</v>
       </c>
@@ -26738,7 +26593,7 @@
       <c r="S203" s="22"/>
       <c r="T203" s="22"/>
     </row>
-    <row r="204" spans="1:20">
+    <row r="204" spans="1:20" hidden="1">
       <c r="A204" s="16">
         <v>208</v>
       </c>
@@ -26768,7 +26623,7 @@
       <c r="S204" s="22"/>
       <c r="T204" s="22"/>
     </row>
-    <row r="205" spans="1:20">
+    <row r="205" spans="1:20" hidden="1">
       <c r="A205" s="16">
         <v>209</v>
       </c>
@@ -26798,7 +26653,7 @@
       <c r="S205" s="22"/>
       <c r="T205" s="22"/>
     </row>
-    <row r="206" spans="1:20">
+    <row r="206" spans="1:20" hidden="1">
       <c r="A206" s="16">
         <v>210</v>
       </c>
@@ -26828,7 +26683,7 @@
       <c r="S206" s="22"/>
       <c r="T206" s="22"/>
     </row>
-    <row r="207" spans="1:20">
+    <row r="207" spans="1:20" hidden="1">
       <c r="A207" s="16">
         <v>211</v>
       </c>
@@ -26858,7 +26713,7 @@
       <c r="S207" s="22"/>
       <c r="T207" s="22"/>
     </row>
-    <row r="208" spans="1:20">
+    <row r="208" spans="1:20" hidden="1">
       <c r="A208" s="16">
         <v>212</v>
       </c>
@@ -26888,7 +26743,7 @@
       <c r="S208" s="22"/>
       <c r="T208" s="22"/>
     </row>
-    <row r="209" spans="1:20">
+    <row r="209" spans="1:20" hidden="1">
       <c r="A209" s="16">
         <v>213</v>
       </c>
@@ -26918,7 +26773,7 @@
       <c r="S209" s="22"/>
       <c r="T209" s="22"/>
     </row>
-    <row r="210" spans="1:20">
+    <row r="210" spans="1:20" hidden="1">
       <c r="A210" s="16">
         <v>214</v>
       </c>
@@ -26948,7 +26803,7 @@
       <c r="S210" s="22"/>
       <c r="T210" s="22"/>
     </row>
-    <row r="211" spans="1:20">
+    <row r="211" spans="1:20" hidden="1">
       <c r="A211" s="16">
         <v>215</v>
       </c>
@@ -26978,7 +26833,7 @@
       <c r="S211" s="22"/>
       <c r="T211" s="22"/>
     </row>
-    <row r="212" spans="1:20">
+    <row r="212" spans="1:20" hidden="1">
       <c r="A212" s="16">
         <v>216</v>
       </c>
@@ -27008,7 +26863,7 @@
       <c r="S212" s="22"/>
       <c r="T212" s="22"/>
     </row>
-    <row r="213" spans="1:20">
+    <row r="213" spans="1:20" hidden="1">
       <c r="A213" s="16">
         <v>217</v>
       </c>
@@ -27038,7 +26893,7 @@
       <c r="S213" s="22"/>
       <c r="T213" s="22"/>
     </row>
-    <row r="214" spans="1:20">
+    <row r="214" spans="1:20" hidden="1">
       <c r="A214" s="16">
         <v>218</v>
       </c>
@@ -27068,7 +26923,7 @@
       <c r="S214" s="22"/>
       <c r="T214" s="22"/>
     </row>
-    <row r="215" spans="1:20">
+    <row r="215" spans="1:20" hidden="1">
       <c r="A215" s="16">
         <v>219</v>
       </c>
@@ -27098,7 +26953,7 @@
       <c r="S215" s="22"/>
       <c r="T215" s="22"/>
     </row>
-    <row r="216" spans="1:20">
+    <row r="216" spans="1:20" hidden="1">
       <c r="A216" s="16">
         <v>220</v>
       </c>
@@ -27128,7 +26983,7 @@
       <c r="S216" s="22"/>
       <c r="T216" s="22"/>
     </row>
-    <row r="217" spans="1:20">
+    <row r="217" spans="1:20" hidden="1">
       <c r="A217" s="16">
         <v>221</v>
       </c>
@@ -27158,7 +27013,7 @@
       <c r="S217" s="22"/>
       <c r="T217" s="22"/>
     </row>
-    <row r="218" spans="1:20">
+    <row r="218" spans="1:20" hidden="1">
       <c r="A218" s="16">
         <v>222</v>
       </c>
@@ -27188,7 +27043,7 @@
       <c r="S218" s="22"/>
       <c r="T218" s="22"/>
     </row>
-    <row r="219" spans="1:20">
+    <row r="219" spans="1:20" hidden="1">
       <c r="A219" s="16">
         <v>223</v>
       </c>
@@ -27218,7 +27073,7 @@
       <c r="S219" s="22"/>
       <c r="T219" s="22"/>
     </row>
-    <row r="220" spans="1:20">
+    <row r="220" spans="1:20" hidden="1">
       <c r="A220" s="16">
         <v>224</v>
       </c>
@@ -27248,7 +27103,7 @@
       <c r="S220" s="22"/>
       <c r="T220" s="22"/>
     </row>
-    <row r="221" spans="1:20">
+    <row r="221" spans="1:20" hidden="1">
       <c r="A221" s="16">
         <v>225</v>
       </c>
@@ -27278,7 +27133,7 @@
       <c r="S221" s="22"/>
       <c r="T221" s="22"/>
     </row>
-    <row r="222" spans="1:20">
+    <row r="222" spans="1:20" hidden="1">
       <c r="A222" s="16">
         <v>226</v>
       </c>
@@ -27308,7 +27163,7 @@
       <c r="S222" s="22"/>
       <c r="T222" s="22"/>
     </row>
-    <row r="223" spans="1:20">
+    <row r="223" spans="1:20" hidden="1">
       <c r="A223" s="16">
         <v>227</v>
       </c>
@@ -27338,7 +27193,7 @@
       <c r="S223" s="22"/>
       <c r="T223" s="22"/>
     </row>
-    <row r="224" spans="1:20">
+    <row r="224" spans="1:20" hidden="1">
       <c r="A224" s="16">
         <v>228</v>
       </c>
@@ -27368,7 +27223,7 @@
       <c r="S224" s="22"/>
       <c r="T224" s="22"/>
     </row>
-    <row r="225" spans="1:20">
+    <row r="225" spans="1:20" hidden="1">
       <c r="A225" s="16">
         <v>229</v>
       </c>
@@ -27398,7 +27253,7 @@
       <c r="S225" s="22"/>
       <c r="T225" s="22"/>
     </row>
-    <row r="226" spans="1:20">
+    <row r="226" spans="1:20" hidden="1">
       <c r="A226" s="16">
         <v>230</v>
       </c>
@@ -27428,7 +27283,7 @@
       <c r="S226" s="22"/>
       <c r="T226" s="22"/>
     </row>
-    <row r="227" spans="1:20">
+    <row r="227" spans="1:20" hidden="1">
       <c r="A227" s="16">
         <v>231</v>
       </c>
@@ -27458,7 +27313,7 @@
       <c r="S227" s="22"/>
       <c r="T227" s="22"/>
     </row>
-    <row r="228" spans="1:20">
+    <row r="228" spans="1:20" hidden="1">
       <c r="A228" s="16">
         <v>232</v>
       </c>
@@ -27488,7 +27343,7 @@
       <c r="S228" s="22"/>
       <c r="T228" s="22"/>
     </row>
-    <row r="229" spans="1:20">
+    <row r="229" spans="1:20" hidden="1">
       <c r="A229" s="16">
         <v>233</v>
       </c>
@@ -27518,7 +27373,7 @@
       <c r="S229" s="22"/>
       <c r="T229" s="22"/>
     </row>
-    <row r="230" spans="1:20">
+    <row r="230" spans="1:20" hidden="1">
       <c r="A230" s="16">
         <v>234</v>
       </c>
@@ -27548,7 +27403,7 @@
       <c r="S230" s="22"/>
       <c r="T230" s="22"/>
     </row>
-    <row r="231" spans="1:20">
+    <row r="231" spans="1:20" hidden="1">
       <c r="A231" s="16">
         <v>235</v>
       </c>
@@ -27578,7 +27433,7 @@
       <c r="S231" s="22"/>
       <c r="T231" s="22"/>
     </row>
-    <row r="232" spans="1:20">
+    <row r="232" spans="1:20" hidden="1">
       <c r="A232" s="16">
         <v>236</v>
       </c>
@@ -27608,7 +27463,7 @@
       <c r="S232" s="22"/>
       <c r="T232" s="22"/>
     </row>
-    <row r="233" spans="1:20">
+    <row r="233" spans="1:20" hidden="1">
       <c r="A233" s="16">
         <v>237</v>
       </c>
@@ -27638,7 +27493,7 @@
       <c r="S233" s="22"/>
       <c r="T233" s="22"/>
     </row>
-    <row r="234" spans="1:20">
+    <row r="234" spans="1:20" hidden="1">
       <c r="A234" s="16">
         <v>238</v>
       </c>
@@ -27668,7 +27523,7 @@
       <c r="S234" s="22"/>
       <c r="T234" s="22"/>
     </row>
-    <row r="235" spans="1:20">
+    <row r="235" spans="1:20" hidden="1">
       <c r="A235" s="16">
         <v>239</v>
       </c>
@@ -27698,7 +27553,7 @@
       <c r="S235" s="22"/>
       <c r="T235" s="22"/>
     </row>
-    <row r="236" spans="1:20">
+    <row r="236" spans="1:20" hidden="1">
       <c r="A236" s="16">
         <v>240</v>
       </c>
@@ -27728,7 +27583,7 @@
       <c r="S236" s="22"/>
       <c r="T236" s="22"/>
     </row>
-    <row r="237" spans="1:20">
+    <row r="237" spans="1:20" hidden="1">
       <c r="A237" s="16">
         <v>241</v>
       </c>
@@ -27758,7 +27613,7 @@
       <c r="S237" s="22"/>
       <c r="T237" s="22"/>
     </row>
-    <row r="238" spans="1:20">
+    <row r="238" spans="1:20" hidden="1">
       <c r="A238" s="16">
         <v>242</v>
       </c>
@@ -27788,7 +27643,7 @@
       <c r="S238" s="22"/>
       <c r="T238" s="22"/>
     </row>
-    <row r="239" spans="1:20">
+    <row r="239" spans="1:20" hidden="1">
       <c r="A239" s="16">
         <v>243</v>
       </c>
@@ -27818,7 +27673,7 @@
       <c r="S239" s="22"/>
       <c r="T239" s="22"/>
     </row>
-    <row r="240" spans="1:20">
+    <row r="240" spans="1:20" hidden="1">
       <c r="A240" s="16">
         <v>244</v>
       </c>
@@ -27848,7 +27703,7 @@
       <c r="S240" s="22"/>
       <c r="T240" s="22"/>
     </row>
-    <row r="241" spans="1:20">
+    <row r="241" spans="1:20" hidden="1">
       <c r="A241" s="16">
         <v>245</v>
       </c>
@@ -27878,7 +27733,7 @@
       <c r="S241" s="22"/>
       <c r="T241" s="22"/>
     </row>
-    <row r="242" spans="1:20">
+    <row r="242" spans="1:20" hidden="1">
       <c r="A242" s="16">
         <v>246</v>
       </c>
@@ -27908,7 +27763,7 @@
       <c r="S242" s="22"/>
       <c r="T242" s="22"/>
     </row>
-    <row r="243" spans="1:20">
+    <row r="243" spans="1:20" hidden="1">
       <c r="A243" s="16">
         <v>247</v>
       </c>
@@ -27938,7 +27793,7 @@
       <c r="S243" s="22"/>
       <c r="T243" s="22"/>
     </row>
-    <row r="244" spans="1:20">
+    <row r="244" spans="1:20" hidden="1">
       <c r="A244" s="16">
         <v>248</v>
       </c>
@@ -27968,7 +27823,7 @@
       <c r="S244" s="22"/>
       <c r="T244" s="22"/>
     </row>
-    <row r="245" spans="1:20">
+    <row r="245" spans="1:20" hidden="1">
       <c r="A245" s="16">
         <v>249</v>
       </c>
@@ -27998,7 +27853,7 @@
       <c r="S245" s="22"/>
       <c r="T245" s="22"/>
     </row>
-    <row r="246" spans="1:20">
+    <row r="246" spans="1:20" hidden="1">
       <c r="A246" s="16">
         <v>250</v>
       </c>
@@ -28028,7 +27883,7 @@
       <c r="S246" s="22"/>
       <c r="T246" s="22"/>
     </row>
-    <row r="247" spans="1:20">
+    <row r="247" spans="1:20" hidden="1">
       <c r="A247" s="16">
         <v>251</v>
       </c>
@@ -28058,7 +27913,7 @@
       <c r="S247" s="22"/>
       <c r="T247" s="22"/>
     </row>
-    <row r="248" spans="1:20">
+    <row r="248" spans="1:20" hidden="1">
       <c r="A248" s="16">
         <v>252</v>
       </c>
@@ -28088,7 +27943,7 @@
       <c r="S248" s="22"/>
       <c r="T248" s="22"/>
     </row>
-    <row r="249" spans="1:20">
+    <row r="249" spans="1:20" hidden="1">
       <c r="A249" s="16">
         <v>253</v>
       </c>
@@ -28118,7 +27973,7 @@
       <c r="S249" s="22"/>
       <c r="T249" s="22"/>
     </row>
-    <row r="250" spans="1:20">
+    <row r="250" spans="1:20" hidden="1">
       <c r="A250" s="16">
         <v>254</v>
       </c>
@@ -28148,7 +28003,7 @@
       <c r="S250" s="22"/>
       <c r="T250" s="22"/>
     </row>
-    <row r="251" spans="1:20">
+    <row r="251" spans="1:20" hidden="1">
       <c r="A251" s="16">
         <v>255</v>
       </c>
@@ -28178,7 +28033,7 @@
       <c r="S251" s="22"/>
       <c r="T251" s="22"/>
     </row>
-    <row r="252" spans="1:20">
+    <row r="252" spans="1:20" hidden="1">
       <c r="A252" s="16">
         <v>256</v>
       </c>
@@ -28208,7 +28063,7 @@
       <c r="S252" s="22"/>
       <c r="T252" s="22"/>
     </row>
-    <row r="253" spans="1:20">
+    <row r="253" spans="1:20" hidden="1">
       <c r="A253" s="16">
         <v>257</v>
       </c>
@@ -28238,7 +28093,7 @@
       <c r="S253" s="22"/>
       <c r="T253" s="22"/>
     </row>
-    <row r="254" spans="1:20">
+    <row r="254" spans="1:20" hidden="1">
       <c r="A254" s="16">
         <v>258</v>
       </c>
@@ -28268,7 +28123,7 @@
       <c r="S254" s="22"/>
       <c r="T254" s="22"/>
     </row>
-    <row r="255" spans="1:20">
+    <row r="255" spans="1:20" hidden="1">
       <c r="A255" s="16">
         <v>259</v>
       </c>
@@ -28298,7 +28153,7 @@
       <c r="S255" s="22"/>
       <c r="T255" s="22"/>
     </row>
-    <row r="256" spans="1:20">
+    <row r="256" spans="1:20" hidden="1">
       <c r="A256" s="16">
         <v>260</v>
       </c>
@@ -28328,7 +28183,7 @@
       <c r="S256" s="22"/>
       <c r="T256" s="22"/>
     </row>
-    <row r="257" spans="1:20">
+    <row r="257" spans="1:20" hidden="1">
       <c r="A257" s="16">
         <v>261</v>
       </c>
@@ -28358,7 +28213,7 @@
       <c r="S257" s="22"/>
       <c r="T257" s="22"/>
     </row>
-    <row r="258" spans="1:20">
+    <row r="258" spans="1:20" hidden="1">
       <c r="A258" s="16">
         <v>262</v>
       </c>
@@ -28388,7 +28243,7 @@
       <c r="S258" s="22"/>
       <c r="T258" s="22"/>
     </row>
-    <row r="259" spans="1:20">
+    <row r="259" spans="1:20" hidden="1">
       <c r="A259" s="16">
         <v>263</v>
       </c>
@@ -28418,7 +28273,7 @@
       <c r="S259" s="22"/>
       <c r="T259" s="22"/>
     </row>
-    <row r="260" spans="1:20">
+    <row r="260" spans="1:20" hidden="1">
       <c r="A260" s="16">
         <v>264</v>
       </c>
@@ -28448,7 +28303,7 @@
       <c r="S260" s="22"/>
       <c r="T260" s="22"/>
     </row>
-    <row r="261" spans="1:20">
+    <row r="261" spans="1:20" hidden="1">
       <c r="A261" s="16">
         <v>265</v>
       </c>
@@ -28478,7 +28333,7 @@
       <c r="S261" s="22"/>
       <c r="T261" s="22"/>
     </row>
-    <row r="262" spans="1:20">
+    <row r="262" spans="1:20" hidden="1">
       <c r="A262" s="16">
         <v>266</v>
       </c>
@@ -28508,7 +28363,7 @@
       <c r="S262" s="22"/>
       <c r="T262" s="22"/>
     </row>
-    <row r="263" spans="1:20">
+    <row r="263" spans="1:20" hidden="1">
       <c r="A263" s="16">
         <v>267</v>
       </c>
@@ -28538,7 +28393,7 @@
       <c r="S263" s="22"/>
       <c r="T263" s="22"/>
     </row>
-    <row r="264" spans="1:20">
+    <row r="264" spans="1:20" hidden="1">
       <c r="A264" s="16">
         <v>268</v>
       </c>
@@ -28568,7 +28423,7 @@
       <c r="S264" s="22"/>
       <c r="T264" s="22"/>
     </row>
-    <row r="265" spans="1:20">
+    <row r="265" spans="1:20" hidden="1">
       <c r="A265" s="16">
         <v>269</v>
       </c>
@@ -28598,7 +28453,7 @@
       <c r="S265" s="22"/>
       <c r="T265" s="22"/>
     </row>
-    <row r="266" spans="1:20">
+    <row r="266" spans="1:20" hidden="1">
       <c r="A266" s="16">
         <v>270</v>
       </c>
@@ -28628,7 +28483,7 @@
       <c r="S266" s="22"/>
       <c r="T266" s="22"/>
     </row>
-    <row r="267" spans="1:20">
+    <row r="267" spans="1:20" hidden="1">
       <c r="A267" s="16">
         <v>271</v>
       </c>
@@ -28658,7 +28513,7 @@
       <c r="S267" s="22"/>
       <c r="T267" s="22"/>
     </row>
-    <row r="268" spans="1:20">
+    <row r="268" spans="1:20" hidden="1">
       <c r="A268" s="16">
         <v>272</v>
       </c>
@@ -28688,7 +28543,7 @@
       <c r="S268" s="22"/>
       <c r="T268" s="22"/>
     </row>
-    <row r="269" spans="1:20">
+    <row r="269" spans="1:20" hidden="1">
       <c r="A269" s="16">
         <v>273</v>
       </c>
@@ -28718,7 +28573,7 @@
       <c r="S269" s="22"/>
       <c r="T269" s="22"/>
     </row>
-    <row r="270" spans="1:20">
+    <row r="270" spans="1:20" hidden="1">
       <c r="A270" s="16">
         <v>274</v>
       </c>
@@ -28748,7 +28603,7 @@
       <c r="S270" s="22"/>
       <c r="T270" s="22"/>
     </row>
-    <row r="271" spans="1:20">
+    <row r="271" spans="1:20" hidden="1">
       <c r="A271" s="16">
         <v>275</v>
       </c>
@@ -28778,7 +28633,7 @@
       <c r="S271" s="22"/>
       <c r="T271" s="22"/>
     </row>
-    <row r="272" spans="1:20">
+    <row r="272" spans="1:20" hidden="1">
       <c r="A272" s="16">
         <v>276</v>
       </c>
@@ -28808,7 +28663,7 @@
       <c r="S272" s="22"/>
       <c r="T272" s="22"/>
     </row>
-    <row r="273" spans="1:20">
+    <row r="273" spans="1:20" hidden="1">
       <c r="A273" s="16">
         <v>277</v>
       </c>
@@ -28838,7 +28693,7 @@
       <c r="S273" s="22"/>
       <c r="T273" s="22"/>
     </row>
-    <row r="274" spans="1:20">
+    <row r="274" spans="1:20" hidden="1">
       <c r="A274" s="16">
         <v>278</v>
       </c>
@@ -28868,7 +28723,7 @@
       <c r="S274" s="22"/>
       <c r="T274" s="22"/>
     </row>
-    <row r="275" spans="1:20">
+    <row r="275" spans="1:20" hidden="1">
       <c r="A275" s="16">
         <v>279</v>
       </c>
@@ -28898,7 +28753,7 @@
       <c r="S275" s="22"/>
       <c r="T275" s="22"/>
     </row>
-    <row r="276" spans="1:20">
+    <row r="276" spans="1:20" hidden="1">
       <c r="A276" s="16">
         <v>280</v>
       </c>
@@ -28928,7 +28783,7 @@
       <c r="S276" s="22"/>
       <c r="T276" s="22"/>
     </row>
-    <row r="277" spans="1:20">
+    <row r="277" spans="1:20" hidden="1">
       <c r="A277" s="16">
         <v>281</v>
       </c>
@@ -28958,7 +28813,7 @@
       <c r="S277" s="22"/>
       <c r="T277" s="22"/>
     </row>
-    <row r="278" spans="1:20">
+    <row r="278" spans="1:20" hidden="1">
       <c r="A278" s="16">
         <v>282</v>
       </c>
@@ -28988,7 +28843,7 @@
       <c r="S278" s="22"/>
       <c r="T278" s="22"/>
     </row>
-    <row r="279" spans="1:20">
+    <row r="279" spans="1:20" hidden="1">
       <c r="A279" s="16">
         <v>283</v>
       </c>
@@ -29018,7 +28873,7 @@
       <c r="S279" s="22"/>
       <c r="T279" s="22"/>
     </row>
-    <row r="280" spans="1:20">
+    <row r="280" spans="1:20" hidden="1">
       <c r="A280" s="16">
         <v>284</v>
       </c>
@@ -29048,7 +28903,7 @@
       <c r="S280" s="22"/>
       <c r="T280" s="22"/>
     </row>
-    <row r="281" spans="1:20">
+    <row r="281" spans="1:20" hidden="1">
       <c r="A281" s="16">
         <v>285</v>
       </c>
@@ -29078,7 +28933,7 @@
       <c r="S281" s="22"/>
       <c r="T281" s="22"/>
     </row>
-    <row r="282" spans="1:20">
+    <row r="282" spans="1:20" hidden="1">
       <c r="A282" s="16">
         <v>286</v>
       </c>
@@ -29108,7 +28963,7 @@
       <c r="S282" s="22"/>
       <c r="T282" s="22"/>
     </row>
-    <row r="283" spans="1:20">
+    <row r="283" spans="1:20" hidden="1">
       <c r="A283" s="16">
         <v>287</v>
       </c>
@@ -29138,7 +28993,7 @@
       <c r="S283" s="22"/>
       <c r="T283" s="22"/>
     </row>
-    <row r="284" spans="1:20">
+    <row r="284" spans="1:20" hidden="1">
       <c r="A284" s="16">
         <v>288</v>
       </c>
@@ -29168,7 +29023,7 @@
       <c r="S284" s="22"/>
       <c r="T284" s="22"/>
     </row>
-    <row r="285" spans="1:20">
+    <row r="285" spans="1:20" hidden="1">
       <c r="A285" s="16">
         <v>289</v>
       </c>
@@ -29198,7 +29053,7 @@
       <c r="S285" s="22"/>
       <c r="T285" s="22"/>
     </row>
-    <row r="286" spans="1:20">
+    <row r="286" spans="1:20" hidden="1">
       <c r="A286" s="16">
         <v>290</v>
       </c>
@@ -29230,6 +29085,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:J286">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="頼紀"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A8:J286">
       <sortCondition ref="A1:A286"/>
     </sortState>

--- a/Document/01班スプリントバックログ.xlsx
+++ b/Document/01班スプリントバックログ.xlsx
@@ -542,7 +542,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="301">
   <si>
     <t>担当者</t>
     <rPh sb="0" eb="3">
@@ -3263,6 +3263,13 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>ライトの調整</t>
+    <rPh sb="4" eb="6">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3273,7 +3280,7 @@
     <numFmt numFmtId="177" formatCode="0_ "/>
     <numFmt numFmtId="178" formatCode="\(aaa\)"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -3398,8 +3405,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3457,6 +3478,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4103,7 +4130,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4351,6 +4378,29 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4421,26 +4471,29 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4451,7 +4504,14 @@
     <cellStyle name="標準_チーム編成" xfId="2"/>
     <cellStyle name="標準_バグシート" xfId="3"/>
   </cellStyles>
-  <dxfs count="114">
+  <dxfs count="81">
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="12"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <condense val="0"/>
@@ -4464,13 +4524,6 @@
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
       </font>
     </dxf>
     <dxf>
@@ -4519,115 +4572,39 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="55"/>
+        <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="45"/>
+          <bgColor indexed="44"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
         <condense val="0"/>
         <extend val="0"/>
-        <color indexed="10"/>
+        <color auto="1"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="9"/>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -4721,6 +4698,13 @@
       <font>
         <condense val="0"/>
         <extend val="0"/>
+        <color indexed="10"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
         <color indexed="55"/>
       </font>
     </dxf>
@@ -4728,20 +4712,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -4986,169 +4956,6 @@
       <font>
         <b/>
         <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="45"/>
-          <bgColor indexed="44"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="9"/>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="55"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="10"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color indexed="22"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <condense val="0"/>
         <extend val="0"/>
         <color indexed="12"/>
@@ -6016,7 +5823,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6150,7 +5956,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6284,7 +6089,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6397,7 +6201,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -6810,7 +6613,10 @@
                   <c:v>70.599999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>57.1</c:v>
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8446,7 +8252,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8566,7 +8371,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8686,7 +8490,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -8799,7 +8602,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -9163,7 +8965,7 @@
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>307</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9562,19 +9364,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="112" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
     </row>
     <row r="2" spans="1:5" ht="27" customHeight="1">
-      <c r="D2" s="107" t="s">
+      <c r="D2" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="113"/>
     </row>
     <row r="3" spans="1:5" ht="7.5" customHeight="1" thickBot="1"/>
     <row r="4" spans="1:5" s="46" customFormat="1" ht="14.25" thickBot="1">
@@ -9593,7 +9395,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="114" t="s">
         <v>44</v>
       </c>
       <c r="B5" s="76"/>
@@ -9602,21 +9404,21 @@
       <c r="E5" s="49"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="109"/>
+      <c r="A6" s="115"/>
       <c r="B6" s="70"/>
       <c r="C6" s="50"/>
       <c r="D6" s="51"/>
       <c r="E6" s="52"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="109"/>
+      <c r="A7" s="115"/>
       <c r="B7" s="70"/>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
       <c r="E7" s="52"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="109"/>
+      <c r="A8" s="115"/>
       <c r="B8" s="71">
         <v>43025</v>
       </c>
@@ -9625,7 +9427,7 @@
       <c r="E8" s="52"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="109"/>
+      <c r="A9" s="115"/>
       <c r="B9" s="72">
         <f>B8</f>
         <v>43025</v>
@@ -9635,49 +9437,49 @@
       <c r="E9" s="52"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="109"/>
+      <c r="A10" s="115"/>
       <c r="B10" s="72"/>
       <c r="C10" s="50"/>
       <c r="D10" s="51"/>
       <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="109"/>
+      <c r="A11" s="115"/>
       <c r="B11" s="71"/>
       <c r="C11" s="50"/>
       <c r="D11" s="51"/>
       <c r="E11" s="52"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="109"/>
+      <c r="A12" s="115"/>
       <c r="B12" s="69"/>
       <c r="C12" s="55"/>
       <c r="D12" s="51"/>
       <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="109"/>
+      <c r="A13" s="115"/>
       <c r="B13" s="68"/>
       <c r="C13" s="53"/>
       <c r="D13" s="51"/>
       <c r="E13" s="52"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="109"/>
+      <c r="A14" s="115"/>
       <c r="B14" s="70"/>
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="E14" s="52"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="109"/>
+      <c r="A15" s="115"/>
       <c r="B15" s="71"/>
       <c r="C15" s="50"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="109"/>
+      <c r="A16" s="115"/>
       <c r="B16" s="71">
         <v>43028</v>
       </c>
@@ -9686,7 +9488,7 @@
       <c r="E16" s="52"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="109"/>
+      <c r="A17" s="115"/>
       <c r="B17" s="72">
         <f>B16</f>
         <v>43028</v>
@@ -9696,49 +9498,49 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="109"/>
+      <c r="A18" s="115"/>
       <c r="B18" s="72"/>
       <c r="C18" s="50"/>
       <c r="D18" s="51"/>
       <c r="E18" s="52"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="109"/>
+      <c r="A19" s="115"/>
       <c r="B19" s="71"/>
       <c r="C19" s="50"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="109"/>
+      <c r="A20" s="115"/>
       <c r="B20" s="69"/>
       <c r="C20" s="55"/>
       <c r="D20" s="51"/>
       <c r="E20" s="52"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A21" s="109"/>
+      <c r="A21" s="115"/>
       <c r="B21" s="68"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A22" s="109"/>
+      <c r="A22" s="115"/>
       <c r="B22" s="70"/>
       <c r="C22" s="50"/>
       <c r="D22" s="51"/>
       <c r="E22" s="52"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A23" s="109"/>
+      <c r="A23" s="115"/>
       <c r="B23" s="70"/>
       <c r="C23" s="50"/>
       <c r="D23" s="51"/>
       <c r="E23" s="52"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A24" s="109"/>
+      <c r="A24" s="115"/>
       <c r="B24" s="71">
         <v>43032</v>
       </c>
@@ -9747,7 +9549,7 @@
       <c r="E24" s="52"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A25" s="109"/>
+      <c r="A25" s="115"/>
       <c r="B25" s="72">
         <f>B24</f>
         <v>43032</v>
@@ -9757,49 +9559,49 @@
       <c r="E25" s="52"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A26" s="109"/>
+      <c r="A26" s="115"/>
       <c r="B26" s="72"/>
       <c r="C26" s="50"/>
       <c r="D26" s="51"/>
       <c r="E26" s="52"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A27" s="109"/>
+      <c r="A27" s="115"/>
       <c r="B27" s="71"/>
       <c r="C27" s="50"/>
       <c r="D27" s="51"/>
       <c r="E27" s="52"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A28" s="109"/>
+      <c r="A28" s="115"/>
       <c r="B28" s="70"/>
       <c r="C28" s="55"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="109"/>
+      <c r="A29" s="115"/>
       <c r="B29" s="68"/>
       <c r="C29" s="78"/>
       <c r="D29" s="51"/>
       <c r="E29" s="54"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="109"/>
+      <c r="A30" s="115"/>
       <c r="B30" s="70"/>
       <c r="C30" s="75"/>
       <c r="D30" s="51"/>
       <c r="E30" s="54"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A31" s="109"/>
+      <c r="A31" s="115"/>
       <c r="B31" s="70"/>
       <c r="C31" s="50"/>
       <c r="D31" s="51"/>
       <c r="E31" s="54"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A32" s="109"/>
+      <c r="A32" s="115"/>
       <c r="B32" s="71">
         <v>43035</v>
       </c>
@@ -9808,7 +9610,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A33" s="109"/>
+      <c r="A33" s="115"/>
       <c r="B33" s="72">
         <f>B32</f>
         <v>43035</v>
@@ -9818,49 +9620,49 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A34" s="109"/>
+      <c r="A34" s="115"/>
       <c r="B34" s="72"/>
       <c r="C34" s="50"/>
       <c r="D34" s="51"/>
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A35" s="109"/>
+      <c r="A35" s="115"/>
       <c r="B35" s="71"/>
       <c r="C35" s="50"/>
       <c r="D35" s="51"/>
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A36" s="109"/>
+      <c r="A36" s="115"/>
       <c r="B36" s="69"/>
       <c r="C36" s="55"/>
       <c r="D36" s="51"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A37" s="109"/>
+      <c r="A37" s="115"/>
       <c r="B37" s="68"/>
       <c r="C37" s="50"/>
       <c r="D37" s="51"/>
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A38" s="109"/>
+      <c r="A38" s="115"/>
       <c r="B38" s="70"/>
       <c r="C38" s="50"/>
       <c r="D38" s="51"/>
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A39" s="109"/>
+      <c r="A39" s="115"/>
       <c r="B39" s="70"/>
       <c r="C39" s="50"/>
       <c r="D39" s="51"/>
       <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A40" s="109"/>
+      <c r="A40" s="115"/>
       <c r="B40" s="71">
         <v>43039</v>
       </c>
@@ -9869,7 +9671,7 @@
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A41" s="109"/>
+      <c r="A41" s="115"/>
       <c r="B41" s="72">
         <f>B40</f>
         <v>43039</v>
@@ -9879,28 +9681,28 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A42" s="109"/>
+      <c r="A42" s="115"/>
       <c r="B42" s="72"/>
       <c r="C42" s="50"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A43" s="109"/>
+      <c r="A43" s="115"/>
       <c r="B43" s="71"/>
       <c r="C43" s="50"/>
       <c r="D43" s="51"/>
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A44" s="109"/>
+      <c r="A44" s="115"/>
       <c r="B44" s="69"/>
       <c r="C44" s="50"/>
       <c r="D44" s="51"/>
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A45" s="109"/>
+      <c r="A45" s="115"/>
       <c r="B45" s="87" t="s">
         <v>43</v>
       </c>
@@ -9909,21 +9711,21 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A46" s="109"/>
+      <c r="A46" s="115"/>
       <c r="B46" s="70"/>
       <c r="C46" s="50"/>
       <c r="D46" s="51"/>
       <c r="E46" s="54"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A47" s="109"/>
+      <c r="A47" s="115"/>
       <c r="B47" s="70"/>
       <c r="C47" s="50"/>
       <c r="D47" s="51"/>
       <c r="E47" s="54"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A48" s="109"/>
+      <c r="A48" s="115"/>
       <c r="B48" s="71">
         <v>43042</v>
       </c>
@@ -9932,7 +9734,7 @@
       <c r="E48" s="54"/>
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A49" s="109"/>
+      <c r="A49" s="115"/>
       <c r="B49" s="72">
         <f>B48</f>
         <v>43042</v>
@@ -9942,28 +9744,28 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A50" s="109"/>
+      <c r="A50" s="115"/>
       <c r="B50" s="72"/>
       <c r="C50" s="50"/>
       <c r="D50" s="56"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A51" s="109"/>
+      <c r="A51" s="115"/>
       <c r="B51" s="71"/>
       <c r="C51" s="50"/>
       <c r="D51" s="56"/>
       <c r="E51" s="63"/>
     </row>
     <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A52" s="109"/>
+      <c r="A52" s="115"/>
       <c r="B52" s="69"/>
       <c r="C52" s="55"/>
       <c r="D52" s="56"/>
       <c r="E52" s="57"/>
     </row>
     <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A53" s="109"/>
+      <c r="A53" s="115"/>
       <c r="B53" s="80"/>
       <c r="C53" s="78" t="s">
         <v>41</v>
@@ -9972,7 +9774,7 @@
       <c r="E53" s="57"/>
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A54" s="109"/>
+      <c r="A54" s="115"/>
       <c r="B54" s="81"/>
       <c r="C54" s="75" t="s">
         <v>40</v>
@@ -9981,14 +9783,14 @@
       <c r="E54" s="57"/>
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A55" s="109"/>
+      <c r="A55" s="115"/>
       <c r="B55" s="81"/>
       <c r="C55" s="50"/>
       <c r="D55" s="56"/>
       <c r="E55" s="57"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A56" s="109"/>
+      <c r="A56" s="115"/>
       <c r="B56" s="82">
         <v>43046</v>
       </c>
@@ -9997,7 +9799,7 @@
       <c r="E56" s="57"/>
     </row>
     <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A57" s="109"/>
+      <c r="A57" s="115"/>
       <c r="B57" s="83">
         <f>B56</f>
         <v>43046</v>
@@ -10007,28 +9809,28 @@
       <c r="E57" s="57"/>
     </row>
     <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A58" s="109"/>
+      <c r="A58" s="115"/>
       <c r="B58" s="83"/>
       <c r="C58" s="50"/>
       <c r="D58" s="56"/>
       <c r="E58" s="57"/>
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A59" s="109"/>
+      <c r="A59" s="115"/>
       <c r="B59" s="82"/>
       <c r="C59" s="50"/>
       <c r="D59" s="56"/>
       <c r="E59" s="57"/>
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A60" s="109"/>
+      <c r="A60" s="115"/>
       <c r="B60" s="84"/>
       <c r="C60" s="55"/>
       <c r="D60" s="56"/>
       <c r="E60" s="57"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A61" s="109"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="80"/>
       <c r="C61" s="78" t="s">
         <v>41</v>
@@ -10037,7 +9839,7 @@
       <c r="E61" s="57"/>
     </row>
     <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A62" s="109"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="81"/>
       <c r="C62" s="75" t="s">
         <v>40</v>
@@ -10046,14 +9848,14 @@
       <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A63" s="109"/>
+      <c r="A63" s="115"/>
       <c r="B63" s="81"/>
       <c r="C63" s="50"/>
       <c r="D63" s="56"/>
       <c r="E63" s="57"/>
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A64" s="109"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="82">
         <v>43049</v>
       </c>
@@ -10062,7 +9864,7 @@
       <c r="E64" s="57"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A65" s="109"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="83">
         <f>B64</f>
         <v>43049</v>
@@ -10072,28 +9874,28 @@
       <c r="E65" s="57"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A66" s="109"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="83"/>
       <c r="C66" s="50"/>
       <c r="D66" s="56"/>
       <c r="E66" s="57"/>
     </row>
     <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A67" s="109"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="82"/>
       <c r="C67" s="50"/>
       <c r="D67" s="56"/>
       <c r="E67" s="57"/>
     </row>
     <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A68" s="109"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="84"/>
       <c r="C68" s="55"/>
       <c r="D68" s="56"/>
       <c r="E68" s="57"/>
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A69" s="110" t="s">
+      <c r="A69" s="116" t="s">
         <v>45</v>
       </c>
       <c r="B69" s="76"/>
@@ -10102,21 +9904,21 @@
       <c r="E69" s="49"/>
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A70" s="111"/>
+      <c r="A70" s="117"/>
       <c r="B70" s="70"/>
       <c r="C70" s="50"/>
       <c r="D70" s="89"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A71" s="111"/>
+      <c r="A71" s="117"/>
       <c r="B71" s="70"/>
       <c r="C71" s="50"/>
       <c r="D71" s="89"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A72" s="111"/>
+      <c r="A72" s="117"/>
       <c r="B72" s="71">
         <v>43053</v>
       </c>
@@ -10125,7 +9927,7 @@
       <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A73" s="111"/>
+      <c r="A73" s="117"/>
       <c r="B73" s="72">
         <f>B72</f>
         <v>43053</v>
@@ -10135,49 +9937,49 @@
       <c r="E73" s="57"/>
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A74" s="111"/>
+      <c r="A74" s="117"/>
       <c r="B74" s="72"/>
       <c r="C74" s="50"/>
       <c r="D74" s="90"/>
       <c r="E74" s="57"/>
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A75" s="111"/>
+      <c r="A75" s="117"/>
       <c r="B75" s="71"/>
       <c r="C75" s="50"/>
       <c r="D75" s="90"/>
       <c r="E75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A76" s="111"/>
+      <c r="A76" s="117"/>
       <c r="B76" s="69"/>
       <c r="C76" s="55"/>
       <c r="D76" s="90"/>
       <c r="E76" s="57"/>
     </row>
     <row r="77" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A77" s="111"/>
+      <c r="A77" s="117"/>
       <c r="B77" s="70"/>
       <c r="C77" s="78"/>
       <c r="D77" s="89"/>
       <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A78" s="111"/>
+      <c r="A78" s="117"/>
       <c r="B78" s="70"/>
       <c r="C78" s="75"/>
       <c r="D78" s="91"/>
       <c r="E78" s="54"/>
     </row>
     <row r="79" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A79" s="111"/>
+      <c r="A79" s="117"/>
       <c r="B79" s="70"/>
       <c r="C79" s="73"/>
       <c r="D79" s="91"/>
       <c r="E79" s="54"/>
     </row>
     <row r="80" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A80" s="111"/>
+      <c r="A80" s="117"/>
       <c r="B80" s="71">
         <v>43056</v>
       </c>
@@ -10186,7 +9988,7 @@
       <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A81" s="111"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="72">
         <f>B80</f>
         <v>43056</v>
@@ -10196,49 +9998,49 @@
       <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A82" s="111"/>
+      <c r="A82" s="117"/>
       <c r="B82" s="72"/>
       <c r="C82" s="50"/>
       <c r="D82" s="89"/>
       <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A83" s="111"/>
+      <c r="A83" s="117"/>
       <c r="B83" s="71"/>
       <c r="C83" s="50"/>
       <c r="D83" s="89"/>
       <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A84" s="111"/>
+      <c r="A84" s="117"/>
       <c r="B84" s="70"/>
       <c r="C84" s="55"/>
       <c r="D84" s="90"/>
       <c r="E84" s="57"/>
     </row>
     <row r="85" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A85" s="111"/>
+      <c r="A85" s="117"/>
       <c r="B85" s="68"/>
       <c r="C85" s="73"/>
       <c r="D85" s="89"/>
       <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A86" s="111"/>
+      <c r="A86" s="117"/>
       <c r="B86" s="70"/>
       <c r="C86" s="73"/>
       <c r="D86" s="91"/>
       <c r="E86" s="54"/>
     </row>
     <row r="87" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A87" s="111"/>
+      <c r="A87" s="117"/>
       <c r="B87" s="70"/>
       <c r="C87" s="73"/>
       <c r="D87" s="91"/>
       <c r="E87" s="54"/>
     </row>
     <row r="88" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A88" s="111"/>
+      <c r="A88" s="117"/>
       <c r="B88" s="71">
         <v>43060</v>
       </c>
@@ -10247,7 +10049,7 @@
       <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A89" s="111"/>
+      <c r="A89" s="117"/>
       <c r="B89" s="72">
         <f>B88</f>
         <v>43060</v>
@@ -10257,49 +10059,49 @@
       <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A90" s="111"/>
+      <c r="A90" s="117"/>
       <c r="B90" s="72"/>
       <c r="C90" s="50"/>
       <c r="D90" s="89"/>
       <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A91" s="111"/>
+      <c r="A91" s="117"/>
       <c r="B91" s="71"/>
       <c r="C91" s="50"/>
       <c r="D91" s="89"/>
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A92" s="111"/>
+      <c r="A92" s="117"/>
       <c r="B92" s="69"/>
       <c r="C92" s="55"/>
       <c r="D92" s="89"/>
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A93" s="111"/>
+      <c r="A93" s="117"/>
       <c r="B93" s="70"/>
       <c r="C93" s="73"/>
       <c r="D93" s="89"/>
       <c r="E93" s="54"/>
     </row>
     <row r="94" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A94" s="111"/>
+      <c r="A94" s="117"/>
       <c r="B94" s="70"/>
       <c r="C94" s="75"/>
       <c r="D94" s="89"/>
       <c r="E94" s="54"/>
     </row>
     <row r="95" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A95" s="111"/>
+      <c r="A95" s="117"/>
       <c r="B95" s="70"/>
       <c r="C95" s="75"/>
       <c r="D95" s="89"/>
       <c r="E95" s="54"/>
     </row>
     <row r="96" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A96" s="111"/>
+      <c r="A96" s="117"/>
       <c r="B96" s="71">
         <v>43063</v>
       </c>
@@ -10308,7 +10110,7 @@
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A97" s="111"/>
+      <c r="A97" s="117"/>
       <c r="B97" s="72">
         <f>B96</f>
         <v>43063</v>
@@ -10318,49 +10120,49 @@
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A98" s="111"/>
+      <c r="A98" s="117"/>
       <c r="B98" s="72"/>
       <c r="C98" s="50"/>
       <c r="D98" s="89"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A99" s="111"/>
+      <c r="A99" s="117"/>
       <c r="B99" s="71"/>
       <c r="C99" s="50"/>
       <c r="D99" s="89"/>
       <c r="E99" s="52"/>
     </row>
     <row r="100" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A100" s="111"/>
+      <c r="A100" s="117"/>
       <c r="B100" s="69"/>
       <c r="C100" s="55"/>
       <c r="D100" s="89"/>
       <c r="E100" s="52"/>
     </row>
     <row r="101" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A101" s="111"/>
+      <c r="A101" s="117"/>
       <c r="B101" s="70"/>
       <c r="C101" s="78"/>
       <c r="D101" s="89"/>
       <c r="E101" s="54"/>
     </row>
     <row r="102" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A102" s="111"/>
+      <c r="A102" s="117"/>
       <c r="B102" s="70"/>
       <c r="C102" s="75"/>
       <c r="D102" s="89"/>
       <c r="E102" s="52"/>
     </row>
     <row r="103" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A103" s="111"/>
+      <c r="A103" s="117"/>
       <c r="B103" s="70"/>
       <c r="C103" s="75"/>
       <c r="D103" s="89"/>
       <c r="E103" s="52"/>
     </row>
     <row r="104" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A104" s="111"/>
+      <c r="A104" s="117"/>
       <c r="B104" s="71">
         <v>43067</v>
       </c>
@@ -10369,7 +10171,7 @@
       <c r="E104" s="52"/>
     </row>
     <row r="105" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A105" s="111"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="72">
         <f>B104</f>
         <v>43067</v>
@@ -10379,49 +10181,49 @@
       <c r="E105" s="52"/>
     </row>
     <row r="106" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A106" s="111"/>
+      <c r="A106" s="117"/>
       <c r="B106" s="72"/>
       <c r="C106" s="50"/>
       <c r="D106" s="89"/>
       <c r="E106" s="52"/>
     </row>
     <row r="107" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A107" s="111"/>
+      <c r="A107" s="117"/>
       <c r="B107" s="71"/>
       <c r="C107" s="50"/>
       <c r="D107" s="89"/>
       <c r="E107" s="52"/>
     </row>
     <row r="108" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A108" s="111"/>
+      <c r="A108" s="117"/>
       <c r="B108" s="69"/>
       <c r="C108" s="55"/>
       <c r="D108" s="51"/>
       <c r="E108" s="52"/>
     </row>
     <row r="109" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A109" s="111"/>
+      <c r="A109" s="117"/>
       <c r="B109" s="70"/>
       <c r="C109" s="73"/>
       <c r="D109" s="91"/>
       <c r="E109" s="54"/>
     </row>
     <row r="110" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A110" s="111"/>
+      <c r="A110" s="117"/>
       <c r="B110" s="70"/>
       <c r="C110" s="75"/>
       <c r="D110" s="89"/>
       <c r="E110" s="54"/>
     </row>
     <row r="111" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A111" s="111"/>
+      <c r="A111" s="117"/>
       <c r="B111" s="70"/>
       <c r="C111" s="75"/>
       <c r="D111" s="89"/>
       <c r="E111" s="54"/>
     </row>
     <row r="112" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A112" s="111"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="71">
         <v>43070</v>
       </c>
@@ -10430,7 +10232,7 @@
       <c r="E112" s="52"/>
     </row>
     <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A113" s="111"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="72">
         <f>B112</f>
         <v>43070</v>
@@ -10440,49 +10242,49 @@
       <c r="E113" s="52"/>
     </row>
     <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A114" s="111"/>
+      <c r="A114" s="117"/>
       <c r="B114" s="72"/>
       <c r="C114" s="50"/>
       <c r="D114" s="89"/>
       <c r="E114" s="52"/>
     </row>
     <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A115" s="111"/>
+      <c r="A115" s="117"/>
       <c r="B115" s="71"/>
       <c r="C115" s="50"/>
       <c r="D115" s="89"/>
       <c r="E115" s="52"/>
     </row>
     <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="111"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="69"/>
       <c r="C116" s="55"/>
       <c r="D116" s="89"/>
       <c r="E116" s="52"/>
     </row>
     <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A117" s="111"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="70"/>
       <c r="C117" s="73"/>
       <c r="D117" s="89"/>
       <c r="E117" s="52"/>
     </row>
     <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A118" s="111"/>
+      <c r="A118" s="117"/>
       <c r="B118" s="70"/>
       <c r="C118" s="75"/>
       <c r="D118" s="89"/>
       <c r="E118" s="52"/>
     </row>
     <row r="119" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A119" s="111"/>
+      <c r="A119" s="117"/>
       <c r="B119" s="70"/>
       <c r="C119" s="75"/>
       <c r="D119" s="89"/>
       <c r="E119" s="52"/>
     </row>
     <row r="120" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A120" s="111"/>
+      <c r="A120" s="117"/>
       <c r="B120" s="71">
         <v>43074</v>
       </c>
@@ -10491,7 +10293,7 @@
       <c r="E120" s="52"/>
     </row>
     <row r="121" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A121" s="111"/>
+      <c r="A121" s="117"/>
       <c r="B121" s="72">
         <f>B120</f>
         <v>43074</v>
@@ -10501,49 +10303,49 @@
       <c r="E121" s="52"/>
     </row>
     <row r="122" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A122" s="111"/>
+      <c r="A122" s="117"/>
       <c r="B122" s="72"/>
       <c r="C122" s="50"/>
       <c r="D122" s="89"/>
       <c r="E122" s="52"/>
     </row>
     <row r="123" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A123" s="111"/>
+      <c r="A123" s="117"/>
       <c r="B123" s="71"/>
       <c r="C123" s="50"/>
       <c r="D123" s="89"/>
       <c r="E123" s="52"/>
     </row>
     <row r="124" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A124" s="111"/>
+      <c r="A124" s="117"/>
       <c r="B124" s="69"/>
       <c r="C124" s="55"/>
       <c r="D124" s="89"/>
       <c r="E124" s="52"/>
     </row>
     <row r="125" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A125" s="111"/>
+      <c r="A125" s="117"/>
       <c r="B125" s="70"/>
       <c r="C125" s="73"/>
       <c r="D125" s="89"/>
       <c r="E125" s="52"/>
     </row>
     <row r="126" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A126" s="111"/>
+      <c r="A126" s="117"/>
       <c r="B126" s="70"/>
       <c r="C126" s="75"/>
       <c r="D126" s="89"/>
       <c r="E126" s="52"/>
     </row>
     <row r="127" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A127" s="111"/>
+      <c r="A127" s="117"/>
       <c r="B127" s="70"/>
       <c r="C127" s="75"/>
       <c r="D127" s="89"/>
       <c r="E127" s="52"/>
     </row>
     <row r="128" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A128" s="111"/>
+      <c r="A128" s="117"/>
       <c r="B128" s="71">
         <v>43077</v>
       </c>
@@ -10552,7 +10354,7 @@
       <c r="E128" s="52"/>
     </row>
     <row r="129" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A129" s="111"/>
+      <c r="A129" s="117"/>
       <c r="B129" s="72">
         <f>B128</f>
         <v>43077</v>
@@ -10562,28 +10364,28 @@
       <c r="E129" s="52"/>
     </row>
     <row r="130" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A130" s="111"/>
+      <c r="A130" s="117"/>
       <c r="B130" s="72"/>
       <c r="C130" s="50"/>
       <c r="D130" s="89"/>
       <c r="E130" s="52"/>
     </row>
     <row r="131" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A131" s="111"/>
+      <c r="A131" s="117"/>
       <c r="B131" s="71"/>
       <c r="C131" s="50"/>
       <c r="D131" s="89"/>
       <c r="E131" s="52"/>
     </row>
     <row r="132" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A132" s="111"/>
+      <c r="A132" s="117"/>
       <c r="B132" s="69"/>
       <c r="C132" s="55"/>
       <c r="D132" s="89"/>
       <c r="E132" s="52"/>
     </row>
     <row r="133" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A133" s="111"/>
+      <c r="A133" s="117"/>
       <c r="B133" s="81"/>
       <c r="C133" s="78" t="s">
         <v>42</v>
@@ -10592,7 +10394,7 @@
       <c r="E133" s="52"/>
     </row>
     <row r="134" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A134" s="111"/>
+      <c r="A134" s="117"/>
       <c r="B134" s="81"/>
       <c r="C134" s="75" t="s">
         <v>40</v>
@@ -10601,14 +10403,14 @@
       <c r="E134" s="52"/>
     </row>
     <row r="135" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A135" s="111"/>
+      <c r="A135" s="117"/>
       <c r="B135" s="81"/>
       <c r="C135" s="75"/>
       <c r="D135" s="89"/>
       <c r="E135" s="52"/>
     </row>
     <row r="136" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A136" s="111"/>
+      <c r="A136" s="117"/>
       <c r="B136" s="82">
         <v>43081</v>
       </c>
@@ -10617,7 +10419,7 @@
       <c r="E136" s="52"/>
     </row>
     <row r="137" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A137" s="111"/>
+      <c r="A137" s="117"/>
       <c r="B137" s="83">
         <f>B136</f>
         <v>43081</v>
@@ -10627,28 +10429,28 @@
       <c r="E137" s="52"/>
     </row>
     <row r="138" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A138" s="111"/>
+      <c r="A138" s="117"/>
       <c r="B138" s="83"/>
       <c r="C138" s="50"/>
       <c r="D138" s="89"/>
       <c r="E138" s="52"/>
     </row>
     <row r="139" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A139" s="111"/>
+      <c r="A139" s="117"/>
       <c r="B139" s="82"/>
       <c r="C139" s="50"/>
       <c r="D139" s="89"/>
       <c r="E139" s="52"/>
     </row>
     <row r="140" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A140" s="111"/>
+      <c r="A140" s="117"/>
       <c r="B140" s="84"/>
       <c r="C140" s="55"/>
       <c r="D140" s="89"/>
       <c r="E140" s="52"/>
     </row>
     <row r="141" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A141" s="111"/>
+      <c r="A141" s="117"/>
       <c r="B141" s="81"/>
       <c r="C141" s="78" t="s">
         <v>42</v>
@@ -10657,7 +10459,7 @@
       <c r="E141" s="52"/>
     </row>
     <row r="142" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A142" s="111"/>
+      <c r="A142" s="117"/>
       <c r="B142" s="81"/>
       <c r="C142" s="75" t="s">
         <v>40</v>
@@ -10666,14 +10468,14 @@
       <c r="E142" s="52"/>
     </row>
     <row r="143" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A143" s="111"/>
+      <c r="A143" s="117"/>
       <c r="B143" s="81"/>
       <c r="C143" s="75"/>
       <c r="D143" s="89"/>
       <c r="E143" s="52"/>
     </row>
     <row r="144" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A144" s="111"/>
+      <c r="A144" s="117"/>
       <c r="B144" s="82">
         <v>43084</v>
       </c>
@@ -10682,7 +10484,7 @@
       <c r="E144" s="52"/>
     </row>
     <row r="145" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A145" s="111"/>
+      <c r="A145" s="117"/>
       <c r="B145" s="83">
         <f>B144</f>
         <v>43084</v>
@@ -10692,28 +10494,28 @@
       <c r="E145" s="52"/>
     </row>
     <row r="146" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A146" s="111"/>
+      <c r="A146" s="117"/>
       <c r="B146" s="83"/>
       <c r="C146" s="50"/>
       <c r="D146" s="89"/>
       <c r="E146" s="52"/>
     </row>
     <row r="147" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A147" s="111"/>
+      <c r="A147" s="117"/>
       <c r="B147" s="82"/>
       <c r="C147" s="50"/>
       <c r="D147" s="89"/>
       <c r="E147" s="52"/>
     </row>
     <row r="148" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A148" s="112"/>
+      <c r="A148" s="118"/>
       <c r="B148" s="94"/>
       <c r="C148" s="58"/>
       <c r="D148" s="92"/>
       <c r="E148" s="59"/>
     </row>
     <row r="149" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A149" s="113" t="s">
+      <c r="A149" s="119" t="s">
         <v>47</v>
       </c>
       <c r="B149" s="76"/>
@@ -10722,21 +10524,21 @@
       <c r="E149" s="49"/>
     </row>
     <row r="150" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A150" s="114"/>
+      <c r="A150" s="120"/>
       <c r="B150" s="70"/>
       <c r="C150" s="75"/>
       <c r="D150" s="89"/>
       <c r="E150" s="52"/>
     </row>
     <row r="151" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A151" s="114"/>
+      <c r="A151" s="120"/>
       <c r="B151" s="70"/>
       <c r="C151" s="75"/>
       <c r="D151" s="89"/>
       <c r="E151" s="52"/>
     </row>
     <row r="152" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A152" s="114"/>
+      <c r="A152" s="120"/>
       <c r="B152" s="71">
         <v>43088</v>
       </c>
@@ -10745,7 +10547,7 @@
       <c r="E152" s="52"/>
     </row>
     <row r="153" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A153" s="114"/>
+      <c r="A153" s="120"/>
       <c r="B153" s="72">
         <f>B152</f>
         <v>43088</v>
@@ -10755,49 +10557,49 @@
       <c r="E153" s="52"/>
     </row>
     <row r="154" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A154" s="114"/>
+      <c r="A154" s="120"/>
       <c r="B154" s="72"/>
       <c r="C154" s="50"/>
       <c r="D154" s="89"/>
       <c r="E154" s="52"/>
     </row>
     <row r="155" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A155" s="114"/>
+      <c r="A155" s="120"/>
       <c r="B155" s="71"/>
       <c r="C155" s="50"/>
       <c r="D155" s="89"/>
       <c r="E155" s="52"/>
     </row>
     <row r="156" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A156" s="114"/>
+      <c r="A156" s="120"/>
       <c r="B156" s="69"/>
       <c r="C156" s="60"/>
       <c r="D156" s="89"/>
       <c r="E156" s="52"/>
     </row>
     <row r="157" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A157" s="114"/>
+      <c r="A157" s="120"/>
       <c r="B157" s="70"/>
       <c r="C157" s="75"/>
       <c r="D157" s="91"/>
       <c r="E157" s="54"/>
     </row>
     <row r="158" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A158" s="114"/>
+      <c r="A158" s="120"/>
       <c r="B158" s="65"/>
       <c r="C158" s="75"/>
       <c r="D158" s="91"/>
       <c r="E158" s="54"/>
     </row>
     <row r="159" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A159" s="114"/>
+      <c r="A159" s="120"/>
       <c r="B159" s="65"/>
       <c r="C159" s="50"/>
       <c r="D159" s="91"/>
       <c r="E159" s="54"/>
     </row>
     <row r="160" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A160" s="114"/>
+      <c r="A160" s="120"/>
       <c r="B160" s="71">
         <v>43091</v>
       </c>
@@ -10806,7 +10608,7 @@
       <c r="E160" s="52"/>
     </row>
     <row r="161" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A161" s="114"/>
+      <c r="A161" s="120"/>
       <c r="B161" s="77">
         <f>B160</f>
         <v>43091</v>
@@ -10816,28 +10618,28 @@
       <c r="E161" s="52"/>
     </row>
     <row r="162" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A162" s="114"/>
+      <c r="A162" s="120"/>
       <c r="B162" s="77"/>
       <c r="C162" s="50"/>
       <c r="D162" s="89"/>
       <c r="E162" s="52"/>
     </row>
     <row r="163" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A163" s="114"/>
+      <c r="A163" s="120"/>
       <c r="B163" s="66"/>
       <c r="C163" s="50"/>
       <c r="D163" s="89"/>
       <c r="E163" s="52"/>
     </row>
     <row r="164" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A164" s="114"/>
+      <c r="A164" s="120"/>
       <c r="B164" s="67"/>
       <c r="C164" s="55"/>
       <c r="D164" s="89"/>
       <c r="E164" s="52"/>
     </row>
     <row r="165" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A165" s="114"/>
+      <c r="A165" s="120"/>
       <c r="B165" s="70"/>
       <c r="C165" s="75" t="s">
         <v>66</v>
@@ -10846,7 +10648,7 @@
       <c r="E165" s="54"/>
     </row>
     <row r="166" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A166" s="114"/>
+      <c r="A166" s="120"/>
       <c r="B166" s="70"/>
       <c r="C166" s="75" t="s">
         <v>65</v>
@@ -10855,14 +10657,14 @@
       <c r="E166" s="54"/>
     </row>
     <row r="167" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A167" s="114"/>
+      <c r="A167" s="120"/>
       <c r="B167" s="70"/>
       <c r="C167" s="75"/>
       <c r="D167" s="89"/>
       <c r="E167" s="54"/>
     </row>
     <row r="168" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A168" s="114"/>
+      <c r="A168" s="120"/>
       <c r="B168" s="71">
         <v>43105</v>
       </c>
@@ -10871,7 +10673,7 @@
       <c r="E168" s="54"/>
     </row>
     <row r="169" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A169" s="114"/>
+      <c r="A169" s="120"/>
       <c r="B169" s="72">
         <f>B168</f>
         <v>43105</v>
@@ -10881,49 +10683,49 @@
       <c r="E169" s="54"/>
     </row>
     <row r="170" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A170" s="114"/>
+      <c r="A170" s="120"/>
       <c r="B170" s="72"/>
       <c r="C170" s="50"/>
       <c r="D170" s="89"/>
       <c r="E170" s="54"/>
     </row>
     <row r="171" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A171" s="114"/>
+      <c r="A171" s="120"/>
       <c r="B171" s="71"/>
       <c r="C171" s="50"/>
       <c r="D171" s="89"/>
       <c r="E171" s="54"/>
     </row>
     <row r="172" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A172" s="114"/>
+      <c r="A172" s="120"/>
       <c r="B172" s="69"/>
       <c r="C172" s="55"/>
       <c r="D172" s="89"/>
       <c r="E172" s="54"/>
     </row>
     <row r="173" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A173" s="114"/>
+      <c r="A173" s="120"/>
       <c r="B173" s="70"/>
       <c r="C173" s="73"/>
       <c r="D173" s="89"/>
       <c r="E173" s="54"/>
     </row>
     <row r="174" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A174" s="114"/>
+      <c r="A174" s="120"/>
       <c r="B174" s="70"/>
       <c r="C174" s="75"/>
       <c r="D174" s="89"/>
       <c r="E174" s="54"/>
     </row>
     <row r="175" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A175" s="114"/>
+      <c r="A175" s="120"/>
       <c r="B175" s="70"/>
       <c r="C175" s="75"/>
       <c r="D175" s="89"/>
       <c r="E175" s="54"/>
     </row>
     <row r="176" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A176" s="114"/>
+      <c r="A176" s="120"/>
       <c r="B176" s="71">
         <v>43109</v>
       </c>
@@ -10932,7 +10734,7 @@
       <c r="E176" s="54"/>
     </row>
     <row r="177" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A177" s="114"/>
+      <c r="A177" s="120"/>
       <c r="B177" s="72">
         <f>B176</f>
         <v>43109</v>
@@ -10942,49 +10744,49 @@
       <c r="E177" s="54"/>
     </row>
     <row r="178" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A178" s="114"/>
+      <c r="A178" s="120"/>
       <c r="B178" s="72"/>
       <c r="C178" s="50"/>
       <c r="D178" s="89"/>
       <c r="E178" s="54"/>
     </row>
     <row r="179" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A179" s="114"/>
+      <c r="A179" s="120"/>
       <c r="B179" s="71"/>
       <c r="C179" s="50"/>
       <c r="D179" s="89"/>
       <c r="E179" s="54"/>
     </row>
     <row r="180" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A180" s="114"/>
+      <c r="A180" s="120"/>
       <c r="B180" s="69"/>
       <c r="C180" s="55"/>
       <c r="D180" s="89"/>
       <c r="E180" s="54"/>
     </row>
     <row r="181" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A181" s="114"/>
+      <c r="A181" s="120"/>
       <c r="B181" s="70"/>
       <c r="C181" s="75"/>
       <c r="D181" s="89"/>
       <c r="E181" s="54"/>
     </row>
     <row r="182" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A182" s="114"/>
+      <c r="A182" s="120"/>
       <c r="B182" s="70"/>
       <c r="C182" s="75"/>
       <c r="D182" s="89"/>
       <c r="E182" s="54"/>
     </row>
     <row r="183" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A183" s="114"/>
+      <c r="A183" s="120"/>
       <c r="B183" s="70"/>
       <c r="C183" s="75"/>
       <c r="D183" s="89"/>
       <c r="E183" s="54"/>
     </row>
     <row r="184" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A184" s="114"/>
+      <c r="A184" s="120"/>
       <c r="B184" s="71">
         <v>43112</v>
       </c>
@@ -10993,7 +10795,7 @@
       <c r="E184" s="54"/>
     </row>
     <row r="185" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A185" s="114"/>
+      <c r="A185" s="120"/>
       <c r="B185" s="72">
         <f>B184</f>
         <v>43112</v>
@@ -11003,28 +10805,28 @@
       <c r="E185" s="54"/>
     </row>
     <row r="186" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A186" s="114"/>
+      <c r="A186" s="120"/>
       <c r="B186" s="72"/>
       <c r="C186" s="50"/>
       <c r="D186" s="89"/>
       <c r="E186" s="54"/>
     </row>
     <row r="187" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A187" s="114"/>
+      <c r="A187" s="120"/>
       <c r="B187" s="71"/>
       <c r="C187" s="50"/>
       <c r="D187" s="89"/>
       <c r="E187" s="54"/>
     </row>
     <row r="188" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A188" s="114"/>
+      <c r="A188" s="120"/>
       <c r="B188" s="69"/>
       <c r="C188" s="55"/>
       <c r="D188" s="89"/>
       <c r="E188" s="54"/>
     </row>
     <row r="189" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A189" s="114"/>
+      <c r="A189" s="120"/>
       <c r="B189" s="95"/>
       <c r="C189" s="75" t="s">
         <v>48</v>
@@ -11033,7 +10835,7 @@
       <c r="E189" s="54"/>
     </row>
     <row r="190" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A190" s="114"/>
+      <c r="A190" s="120"/>
       <c r="B190" s="96"/>
       <c r="C190" s="75" t="s">
         <v>40</v>
@@ -11042,14 +10844,14 @@
       <c r="E190" s="54"/>
     </row>
     <row r="191" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A191" s="114"/>
+      <c r="A191" s="120"/>
       <c r="B191" s="96"/>
       <c r="C191" s="75"/>
       <c r="D191" s="89"/>
       <c r="E191" s="54"/>
     </row>
     <row r="192" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A192" s="114"/>
+      <c r="A192" s="120"/>
       <c r="B192" s="82">
         <v>43116</v>
       </c>
@@ -11058,7 +10860,7 @@
       <c r="E192" s="52"/>
     </row>
     <row r="193" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A193" s="114"/>
+      <c r="A193" s="120"/>
       <c r="B193" s="97">
         <f>B192</f>
         <v>43116</v>
@@ -11068,28 +10870,28 @@
       <c r="E193" s="52"/>
     </row>
     <row r="194" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A194" s="114"/>
+      <c r="A194" s="120"/>
       <c r="B194" s="97"/>
       <c r="C194" s="50"/>
       <c r="D194" s="89"/>
       <c r="E194" s="52"/>
     </row>
     <row r="195" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A195" s="114"/>
+      <c r="A195" s="120"/>
       <c r="B195" s="98"/>
       <c r="C195" s="50"/>
       <c r="D195" s="89"/>
       <c r="E195" s="52"/>
     </row>
     <row r="196" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A196" s="114"/>
+      <c r="A196" s="120"/>
       <c r="B196" s="84"/>
       <c r="C196" s="55"/>
       <c r="D196" s="89"/>
       <c r="E196" s="52"/>
     </row>
     <row r="197" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A197" s="114"/>
+      <c r="A197" s="120"/>
       <c r="B197" s="95"/>
       <c r="C197" s="75" t="s">
         <v>48</v>
@@ -11098,7 +10900,7 @@
       <c r="E197" s="54"/>
     </row>
     <row r="198" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A198" s="114"/>
+      <c r="A198" s="120"/>
       <c r="B198" s="96"/>
       <c r="C198" s="75" t="s">
         <v>40</v>
@@ -11107,14 +10909,14 @@
       <c r="E198" s="54"/>
     </row>
     <row r="199" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A199" s="114"/>
+      <c r="A199" s="120"/>
       <c r="B199" s="96"/>
       <c r="C199" s="50"/>
       <c r="D199" s="89"/>
       <c r="E199" s="54"/>
     </row>
     <row r="200" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A200" s="114"/>
+      <c r="A200" s="120"/>
       <c r="B200" s="82">
         <v>43119</v>
       </c>
@@ -11123,7 +10925,7 @@
       <c r="E200" s="54"/>
     </row>
     <row r="201" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A201" s="114"/>
+      <c r="A201" s="120"/>
       <c r="B201" s="97">
         <f>B200</f>
         <v>43119</v>
@@ -11133,21 +10935,21 @@
       <c r="E201" s="54"/>
     </row>
     <row r="202" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A202" s="114"/>
+      <c r="A202" s="120"/>
       <c r="B202" s="97"/>
       <c r="C202" s="50"/>
       <c r="D202" s="89"/>
       <c r="E202" s="54"/>
     </row>
     <row r="203" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A203" s="114"/>
+      <c r="A203" s="120"/>
       <c r="B203" s="98"/>
       <c r="C203" s="50"/>
       <c r="D203" s="89"/>
       <c r="E203" s="54"/>
     </row>
     <row r="204" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1">
-      <c r="A204" s="115"/>
+      <c r="A204" s="121"/>
       <c r="B204" s="94"/>
       <c r="C204" s="58"/>
       <c r="D204" s="92"/>
@@ -11263,57 +11065,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="125" t="s">
+      <c r="B1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="122" t="s">
+      <c r="E1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
-      <c r="Q1" s="118"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
+      <c r="Q1" s="124"/>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="23" t="s">
         <v>49</v>
       </c>
@@ -11337,16 +11139,16 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="8" customFormat="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="119"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="125"/>
       <c r="K3" s="20">
         <f t="shared" ref="K3:Q3" si="0">INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$Q$2))))</f>
         <v>110</v>
@@ -11377,16 +11179,16 @@
       </c>
     </row>
     <row r="4" spans="1:32" s="8" customFormat="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="119"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="21">
         <f t="shared" ref="K4:Q4" si="1">SUM(K5:K104)</f>
         <v>110.4</v>
@@ -16910,70 +16712,70 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="E105:E65536">
-    <cfRule type="expression" dxfId="113" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="80" priority="8" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="112" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="79" priority="9" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="111" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="78" priority="10" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E6:E104 L5:M42 O5:O42 A5:C104 E7:I104 J6:J183 Q5:Q63 E5:XFD6 K7:XFD104">
-    <cfRule type="expression" dxfId="110" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="77" priority="12" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="76" priority="13" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="108" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="75" priority="14" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="107" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="74" priority="15" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="106" priority="16" stopIfTrue="1">
+    <cfRule type="expression" dxfId="73" priority="16" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184:D65536 C105:C183">
-    <cfRule type="expression" dxfId="105" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="72" priority="17" stopIfTrue="1">
       <formula>E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="104" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="71" priority="18" stopIfTrue="1">
       <formula>E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="103" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="70" priority="19" stopIfTrue="1">
       <formula>OR(E105="終了",E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F184:Q65536 F105:I183 K105:Q183">
-    <cfRule type="expression" dxfId="102" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="69" priority="20" stopIfTrue="1">
       <formula>$E105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="101" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="68" priority="21" stopIfTrue="1">
       <formula>$E105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="100" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="22" stopIfTrue="1">
       <formula>OR($E105="終了",$E105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D183">
-    <cfRule type="expression" dxfId="99" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="5" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="98" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="65" priority="6" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="97" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="64" priority="7" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:Q183">
-    <cfRule type="expression" dxfId="96" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="63" priority="11" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16999,8 +16801,8 @@
   <dimension ref="A1:AF286"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G43" sqref="G43"/>
+      <pane ySplit="4" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17022,60 +16824,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="8" customFormat="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="125" t="s">
+      <c r="B1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="122" t="s">
+      <c r="E1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="123" t="s">
+      <c r="I1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="119" t="s">
+      <c r="J1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="128" t="s">
+      <c r="K1" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-      <c r="O1" s="129"/>
-      <c r="P1" s="129"/>
-      <c r="Q1" s="129"/>
-      <c r="R1" s="129"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="129"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
+      <c r="N1" s="135"/>
+      <c r="O1" s="135"/>
+      <c r="P1" s="135"/>
+      <c r="Q1" s="135"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="135"/>
+      <c r="T1" s="135"/>
     </row>
     <row r="2" spans="1:32" s="8" customFormat="1" hidden="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="122"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
-      <c r="J2" s="119"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="130"/>
+      <c r="J2" s="125"/>
       <c r="K2" s="23" t="s">
         <v>138</v>
       </c>
@@ -17108,16 +16910,16 @@
       </c>
     </row>
     <row r="3" spans="1:32" s="8" customFormat="1" hidden="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="124"/>
-      <c r="J3" s="119"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="130"/>
+      <c r="J3" s="125"/>
       <c r="K3" s="20">
         <f>INT(($K$4-(COLUMN()-COLUMN($K4))*($K$4/COUNTA($K$2:$T$2))))</f>
         <v>146</v>
@@ -17160,16 +16962,16 @@
       </c>
     </row>
     <row r="4" spans="1:32" s="8" customFormat="1" hidden="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="119"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="119"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="125"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="128"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="125"/>
       <c r="K4" s="21">
         <f>SUM(K5:K101)</f>
         <v>146.5</v>
@@ -17183,7 +16985,7 @@
         <v>90.6</v>
       </c>
       <c r="N4" s="21">
-        <f t="shared" ref="N4:R4" si="1">SUM(N5:N101)</f>
+        <f t="shared" ref="N4:Q4" si="1">SUM(N5:N101)</f>
         <v>76.099999999999994</v>
       </c>
       <c r="O4" s="21">
@@ -17192,9 +16994,12 @@
       </c>
       <c r="P4" s="21">
         <f t="shared" si="1"/>
-        <v>57.1</v>
-      </c>
-      <c r="Q4" s="21"/>
+        <v>39.1</v>
+      </c>
+      <c r="Q4" s="21">
+        <f t="shared" si="1"/>
+        <v>32.6</v>
+      </c>
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
@@ -17217,7 +17022,7 @@
       <c r="H5" s="19"/>
       <c r="I5" s="19"/>
       <c r="J5" s="12" t="str">
-        <f t="shared" ref="J5:J13" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:Q5)),"")</f>
+        <f t="shared" ref="J5" ca="1" si="2">IF(ISBLANK(K5)=FALSE,OFFSET(J5,0,COUNTA(K5:Q5)),"")</f>
         <v/>
       </c>
       <c r="K5" s="19"/>
@@ -17283,7 +17088,9 @@
       <c r="P6" s="19">
         <v>0</v>
       </c>
-      <c r="Q6" s="19"/>
+      <c r="Q6" s="19">
+        <v>0</v>
+      </c>
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
       <c r="T6" s="22"/>
@@ -17340,7 +17147,9 @@
       <c r="P7" s="22">
         <v>0</v>
       </c>
-      <c r="Q7" s="22"/>
+      <c r="Q7" s="22">
+        <v>0</v>
+      </c>
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
       <c r="T7" s="22"/>
@@ -17397,7 +17206,9 @@
       <c r="P8" s="19">
         <v>0</v>
       </c>
-      <c r="Q8" s="22"/>
+      <c r="Q8" s="19">
+        <v>0</v>
+      </c>
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
       <c r="T8" s="22"/>
@@ -17479,7 +17290,9 @@
       <c r="P10" s="19">
         <v>0</v>
       </c>
-      <c r="Q10" s="22"/>
+      <c r="Q10" s="19">
+        <v>0</v>
+      </c>
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
       <c r="T10" s="22"/>
@@ -17531,7 +17344,9 @@
       <c r="P11" s="19">
         <v>0</v>
       </c>
-      <c r="Q11" s="22"/>
+      <c r="Q11" s="19">
+        <v>0</v>
+      </c>
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
       <c r="T11" s="22"/>
@@ -17583,12 +17398,14 @@
       <c r="P12" s="19">
         <v>0</v>
       </c>
-      <c r="Q12" s="22"/>
+      <c r="Q12" s="19">
+        <v>0</v>
+      </c>
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
       <c r="T12" s="22"/>
     </row>
-    <row r="13" spans="1:32" hidden="1">
+    <row r="13" spans="1:32">
       <c r="A13" s="16">
         <v>9</v>
       </c>
@@ -17635,7 +17452,9 @@
       <c r="P13" s="19">
         <v>1</v>
       </c>
-      <c r="Q13" s="22"/>
+      <c r="Q13" s="19">
+        <v>1</v>
+      </c>
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
       <c r="T13" s="22"/>
@@ -17670,7 +17489,7 @@
       <c r="S14" s="22"/>
       <c r="T14" s="22"/>
     </row>
-    <row r="15" spans="1:32" hidden="1">
+    <row r="15" spans="1:32">
       <c r="A15" s="16">
         <v>11</v>
       </c>
@@ -17717,12 +17536,14 @@
       <c r="P15" s="19">
         <v>0</v>
       </c>
-      <c r="Q15" s="22"/>
+      <c r="Q15" s="19">
+        <v>0</v>
+      </c>
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
       <c r="T15" s="22"/>
     </row>
-    <row r="16" spans="1:32" hidden="1">
+    <row r="16" spans="1:32">
       <c r="A16" s="16">
         <v>12</v>
       </c>
@@ -17767,12 +17588,14 @@
       <c r="P16" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q16" s="22"/>
+      <c r="Q16" s="19">
+        <v>1.5</v>
+      </c>
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
       <c r="T16" s="22"/>
     </row>
-    <row r="17" spans="1:20" hidden="1">
+    <row r="17" spans="1:20">
       <c r="A17" s="16">
         <v>13</v>
       </c>
@@ -17819,12 +17642,14 @@
       <c r="P17" s="19">
         <v>0</v>
       </c>
-      <c r="Q17" s="22"/>
+      <c r="Q17" s="19">
+        <v>0</v>
+      </c>
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
       <c r="T17" s="22"/>
     </row>
-    <row r="18" spans="1:20" hidden="1">
+    <row r="18" spans="1:20">
       <c r="A18" s="16">
         <v>14</v>
       </c>
@@ -17869,12 +17694,14 @@
       <c r="P18" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q18" s="22"/>
+      <c r="Q18" s="19">
+        <v>1.5</v>
+      </c>
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
       <c r="T18" s="22"/>
     </row>
-    <row r="19" spans="1:20" hidden="1">
+    <row r="19" spans="1:20">
       <c r="A19" s="16">
         <v>15</v>
       </c>
@@ -17919,12 +17746,14 @@
       <c r="P19" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q19" s="22"/>
+      <c r="Q19" s="19">
+        <v>1.5</v>
+      </c>
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
     </row>
-    <row r="20" spans="1:20" hidden="1">
+    <row r="20" spans="1:20">
       <c r="A20" s="16">
         <v>16</v>
       </c>
@@ -17969,12 +17798,14 @@
       <c r="P20" s="19">
         <v>1</v>
       </c>
-      <c r="Q20" s="22"/>
+      <c r="Q20" s="19">
+        <v>1</v>
+      </c>
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
       <c r="T20" s="22"/>
     </row>
-    <row r="21" spans="1:20" hidden="1">
+    <row r="21" spans="1:20">
       <c r="A21" s="16">
         <v>17</v>
       </c>
@@ -18019,12 +17850,14 @@
       <c r="P21" s="19">
         <v>1</v>
       </c>
-      <c r="Q21" s="22"/>
+      <c r="Q21" s="19">
+        <v>1</v>
+      </c>
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
       <c r="T21" s="22"/>
     </row>
-    <row r="22" spans="1:20" hidden="1">
+    <row r="22" spans="1:20">
       <c r="A22" s="16">
         <v>18</v>
       </c>
@@ -18069,12 +17902,14 @@
       <c r="P22" s="19">
         <v>1</v>
       </c>
-      <c r="Q22" s="22"/>
+      <c r="Q22" s="19">
+        <v>1</v>
+      </c>
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
       <c r="T22" s="22"/>
     </row>
-    <row r="23" spans="1:20" hidden="1">
+    <row r="23" spans="1:20">
       <c r="A23" s="16">
         <v>19</v>
       </c>
@@ -18121,12 +17956,14 @@
       <c r="P23" s="19">
         <v>0</v>
       </c>
-      <c r="Q23" s="22"/>
+      <c r="Q23" s="19">
+        <v>0</v>
+      </c>
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
     </row>
-    <row r="24" spans="1:20" hidden="1">
+    <row r="24" spans="1:20">
       <c r="A24" s="16">
         <v>20</v>
       </c>
@@ -18173,7 +18010,9 @@
       <c r="P24" s="19">
         <v>0</v>
       </c>
-      <c r="Q24" s="22"/>
+      <c r="Q24" s="19">
+        <v>0</v>
+      </c>
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
       <c r="T24" s="22"/>
@@ -18259,12 +18098,14 @@
       <c r="P26" s="22">
         <v>0</v>
       </c>
-      <c r="Q26" s="22"/>
+      <c r="Q26" s="22">
+        <v>0</v>
+      </c>
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
       <c r="T26" s="22"/>
     </row>
-    <row r="27" spans="1:20" hidden="1">
+    <row r="27" spans="1:20">
       <c r="A27" s="16">
         <v>23</v>
       </c>
@@ -18311,7 +18152,9 @@
       <c r="P27" s="19">
         <v>0</v>
       </c>
-      <c r="Q27" s="22"/>
+      <c r="Q27" s="19">
+        <v>0</v>
+      </c>
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
       <c r="T27" s="22"/>
@@ -18365,7 +18208,9 @@
       <c r="P28" s="22">
         <v>4</v>
       </c>
-      <c r="Q28" s="22"/>
+      <c r="Q28" s="22">
+        <v>4</v>
+      </c>
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
       <c r="T28" s="22"/>
@@ -18417,7 +18262,9 @@
       <c r="P29" s="22">
         <v>3</v>
       </c>
-      <c r="Q29" s="22"/>
+      <c r="Q29" s="22">
+        <v>3</v>
+      </c>
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
       <c r="T29" s="22"/>
@@ -18437,7 +18284,7 @@
       </c>
       <c r="E30" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F30" s="4">
         <v>43053</v>
@@ -18451,7 +18298,7 @@
       <c r="I30" s="19"/>
       <c r="J30" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K30" s="19">
         <v>3</v>
@@ -18469,9 +18316,11 @@
         <v>0.5</v>
       </c>
       <c r="P30" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="Q30" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="22">
+        <v>0</v>
+      </c>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -18490,20 +18339,22 @@
         <v>109</v>
       </c>
       <c r="E31" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F31" s="4">
         <v>43063</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4">
+        <v>43063</v>
+      </c>
       <c r="H31" s="19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I31" s="19"/>
       <c r="J31" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K31" s="19">
         <v>6</v>
@@ -18521,9 +18372,11 @@
         <v>6</v>
       </c>
       <c r="P31" s="22">
-        <v>6</v>
-      </c>
-      <c r="Q31" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="22">
+        <v>0</v>
+      </c>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
@@ -18542,13 +18395,15 @@
         <v>109</v>
       </c>
       <c r="E32" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F32" s="4">
         <v>43063</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4">
+        <v>43063</v>
+      </c>
       <c r="H32" s="19">
         <v>2</v>
       </c>
@@ -18575,7 +18430,9 @@
       <c r="P32" s="19">
         <v>0</v>
       </c>
-      <c r="Q32" s="22"/>
+      <c r="Q32" s="19">
+        <v>0</v>
+      </c>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
@@ -18594,13 +18451,15 @@
         <v>109</v>
       </c>
       <c r="E33" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F33" s="4">
         <v>43063</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4">
+        <v>43063</v>
+      </c>
       <c r="H33" s="19">
         <v>3</v>
       </c>
@@ -18627,7 +18486,9 @@
       <c r="P33" s="19">
         <v>0</v>
       </c>
-      <c r="Q33" s="22"/>
+      <c r="Q33" s="19">
+        <v>0</v>
+      </c>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
@@ -18646,20 +18507,22 @@
         <v>109</v>
       </c>
       <c r="E34" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>完了</v>
       </c>
       <c r="F34" s="4">
         <v>43067</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4">
+        <v>43063</v>
+      </c>
       <c r="H34" s="19">
         <v>2</v>
       </c>
       <c r="I34" s="19"/>
       <c r="J34" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K34" s="19">
         <v>3</v>
@@ -18677,14 +18540,16 @@
         <v>3</v>
       </c>
       <c r="P34" s="19">
-        <v>3</v>
-      </c>
-      <c r="Q34" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="19">
+        <v>0</v>
+      </c>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" hidden="1">
       <c r="A35" s="16">
         <v>31</v>
       </c>
@@ -18733,7 +18598,9 @@
       <c r="P35" s="19">
         <v>0</v>
       </c>
-      <c r="Q35" s="22"/>
+      <c r="Q35" s="19">
+        <v>0</v>
+      </c>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
@@ -18787,7 +18654,9 @@
       <c r="P36" s="19">
         <v>0</v>
       </c>
-      <c r="Q36" s="22"/>
+      <c r="Q36" s="19">
+        <v>0</v>
+      </c>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
@@ -18839,12 +18708,14 @@
       <c r="P37" s="22">
         <v>2</v>
       </c>
-      <c r="Q37" s="22"/>
+      <c r="Q37" s="22">
+        <v>2</v>
+      </c>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
     </row>
-    <row r="38" spans="1:20" hidden="1">
+    <row r="38" spans="1:20">
       <c r="A38" s="16">
         <v>34</v>
       </c>
@@ -18857,7 +18728,7 @@
       <c r="D38" s="12"/>
       <c r="E38" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F38" s="4">
         <v>43063</v>
@@ -18871,7 +18742,7 @@
       <c r="I38" s="19"/>
       <c r="J38" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" s="19">
         <v>2</v>
@@ -18889,9 +18760,11 @@
         <v>1</v>
       </c>
       <c r="P38" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>0</v>
+      </c>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
@@ -18943,7 +18816,9 @@
       <c r="P39" s="19">
         <v>0</v>
       </c>
-      <c r="Q39" s="22"/>
+      <c r="Q39" s="19">
+        <v>0</v>
+      </c>
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
       <c r="T39" s="22"/>
@@ -18999,7 +18874,9 @@
       <c r="P40" s="22">
         <v>0</v>
       </c>
-      <c r="Q40" s="22"/>
+      <c r="Q40" s="22">
+        <v>0</v>
+      </c>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
@@ -19051,7 +18928,9 @@
       <c r="P41" s="19">
         <v>0</v>
       </c>
-      <c r="Q41" s="22"/>
+      <c r="Q41" s="19">
+        <v>0</v>
+      </c>
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
       <c r="T41" s="22"/>
@@ -19101,62 +18980,64 @@
       <c r="P42" s="19">
         <v>1</v>
       </c>
-      <c r="Q42" s="22"/>
+      <c r="Q42" s="19">
+        <v>1</v>
+      </c>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" hidden="1">
       <c r="A43" s="16">
         <v>39</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="106" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="131" t="s">
+      <c r="C43" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D43" s="132" t="s">
+      <c r="D43" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E43" s="132" t="str">
+      <c r="E43" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F43" s="133">
+      <c r="F43" s="109">
         <v>43060</v>
       </c>
-      <c r="G43" s="133">
+      <c r="G43" s="109">
         <v>43061</v>
       </c>
-      <c r="H43" s="134">
-        <v>1</v>
-      </c>
-      <c r="I43" s="134"/>
-      <c r="J43" s="132">
+      <c r="H43" s="110">
+        <v>1</v>
+      </c>
+      <c r="I43" s="110"/>
+      <c r="J43" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K43" s="134">
-        <v>1</v>
-      </c>
-      <c r="L43" s="134">
-        <v>1</v>
-      </c>
-      <c r="M43" s="134">
-        <v>1</v>
-      </c>
-      <c r="N43" s="135">
-        <v>0</v>
-      </c>
-      <c r="O43" s="135"/>
-      <c r="P43" s="135"/>
-      <c r="Q43" s="22"/>
+      <c r="K43" s="110">
+        <v>1</v>
+      </c>
+      <c r="L43" s="110">
+        <v>1</v>
+      </c>
+      <c r="M43" s="110">
+        <v>1</v>
+      </c>
+      <c r="N43" s="111">
+        <v>0</v>
+      </c>
+      <c r="O43" s="111"/>
+      <c r="P43" s="111"/>
+      <c r="Q43" s="111"/>
       <c r="R43" s="22"/>
       <c r="S43" s="22"/>
       <c r="T43" s="22"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" hidden="1">
       <c r="A44" s="16">
         <v>40</v>
       </c>
@@ -19205,7 +19086,9 @@
       <c r="P44" s="19">
         <v>0</v>
       </c>
-      <c r="Q44" s="22"/>
+      <c r="Q44" s="19">
+        <v>0</v>
+      </c>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
@@ -19257,7 +19140,9 @@
       <c r="P45" s="19">
         <v>0</v>
       </c>
-      <c r="Q45" s="22"/>
+      <c r="Q45" s="19">
+        <v>0</v>
+      </c>
       <c r="R45" s="22"/>
       <c r="S45" s="22"/>
       <c r="T45" s="22"/>
@@ -19275,7 +19160,7 @@
       <c r="D46" s="12"/>
       <c r="E46" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F46" s="4">
         <v>43060</v>
@@ -19289,7 +19174,7 @@
       <c r="I46" s="19"/>
       <c r="J46" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K46" s="19">
         <v>1</v>
@@ -19307,9 +19192,11 @@
         <v>1</v>
       </c>
       <c r="P46" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="Q46" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="22">
+        <v>0</v>
+      </c>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
@@ -19327,7 +19214,7 @@
       <c r="D47" s="12"/>
       <c r="E47" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F47" s="4">
         <v>43060</v>
@@ -19341,7 +19228,7 @@
       <c r="I47" s="19"/>
       <c r="J47" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K47" s="19">
         <v>1</v>
@@ -19359,9 +19246,11 @@
         <v>1</v>
       </c>
       <c r="P47" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="Q47" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="22">
+        <v>0</v>
+      </c>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
       <c r="T47" s="22"/>
@@ -19379,7 +19268,7 @@
       <c r="D48" s="12"/>
       <c r="E48" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F48" s="4">
         <v>43060</v>
@@ -19393,7 +19282,7 @@
       <c r="I48" s="19"/>
       <c r="J48" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K48" s="19">
         <v>1</v>
@@ -19411,9 +19300,11 @@
         <v>1</v>
       </c>
       <c r="P48" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="Q48" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="22">
+        <v>0</v>
+      </c>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
@@ -19465,7 +19356,9 @@
       <c r="P49" s="22">
         <v>0</v>
       </c>
-      <c r="Q49" s="22"/>
+      <c r="Q49" s="22">
+        <v>0</v>
+      </c>
       <c r="R49" s="22"/>
       <c r="S49" s="22"/>
       <c r="T49" s="22"/>
@@ -19517,7 +19410,9 @@
       <c r="P50" s="22">
         <v>0</v>
       </c>
-      <c r="Q50" s="22"/>
+      <c r="Q50" s="22">
+        <v>0</v>
+      </c>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
@@ -19569,7 +19464,9 @@
       <c r="P51" s="22">
         <v>0.5</v>
       </c>
-      <c r="Q51" s="22"/>
+      <c r="Q51" s="22">
+        <v>0.5</v>
+      </c>
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
       <c r="T51" s="22"/>
@@ -19621,7 +19518,9 @@
       <c r="P52" s="22">
         <v>0.5</v>
       </c>
-      <c r="Q52" s="22"/>
+      <c r="Q52" s="22">
+        <v>0.5</v>
+      </c>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -19673,7 +19572,9 @@
       <c r="P53" s="22">
         <v>0.5</v>
       </c>
-      <c r="Q53" s="22"/>
+      <c r="Q53" s="22">
+        <v>0.5</v>
+      </c>
       <c r="R53" s="22"/>
       <c r="S53" s="22"/>
       <c r="T53" s="22"/>
@@ -19725,282 +19626,294 @@
       <c r="P54" s="22" t="s">
         <v>294</v>
       </c>
-      <c r="Q54" s="22"/>
+      <c r="Q54" s="22" t="s">
+        <v>294</v>
+      </c>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" hidden="1">
       <c r="A55" s="16">
         <v>51</v>
       </c>
-      <c r="B55" s="130" t="s">
+      <c r="B55" s="106" t="s">
         <v>193</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D55" s="132" t="s">
+      <c r="D55" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="132" t="str">
+      <c r="E55" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F55" s="133">
+      <c r="F55" s="109">
         <v>43060</v>
       </c>
-      <c r="G55" s="133">
+      <c r="G55" s="109">
         <v>43060</v>
       </c>
-      <c r="H55" s="134">
-        <v>1</v>
-      </c>
-      <c r="I55" s="134"/>
-      <c r="J55" s="132">
+      <c r="H55" s="110">
+        <v>1</v>
+      </c>
+      <c r="I55" s="110"/>
+      <c r="J55" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K55" s="134">
-        <v>1</v>
-      </c>
-      <c r="L55" s="134">
-        <v>1</v>
-      </c>
-      <c r="M55" s="134">
-        <v>1</v>
-      </c>
-      <c r="N55" s="135">
-        <v>1</v>
-      </c>
-      <c r="O55" s="135">
-        <v>1</v>
-      </c>
-      <c r="P55" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="22"/>
+      <c r="K55" s="110">
+        <v>1</v>
+      </c>
+      <c r="L55" s="110">
+        <v>1</v>
+      </c>
+      <c r="M55" s="110">
+        <v>1</v>
+      </c>
+      <c r="N55" s="111">
+        <v>1</v>
+      </c>
+      <c r="O55" s="111">
+        <v>1</v>
+      </c>
+      <c r="P55" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="111">
+        <v>0</v>
+      </c>
       <c r="R55" s="22"/>
       <c r="S55" s="22"/>
       <c r="T55" s="22"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" hidden="1">
       <c r="A56" s="16">
         <v>52</v>
       </c>
-      <c r="B56" s="130" t="s">
+      <c r="B56" s="106" t="s">
         <v>194</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D56" s="132" t="s">
+      <c r="D56" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E56" s="132" t="str">
+      <c r="E56" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F56" s="133">
+      <c r="F56" s="109">
         <v>43060</v>
       </c>
-      <c r="G56" s="133">
+      <c r="G56" s="109">
         <v>43063</v>
       </c>
-      <c r="H56" s="134">
-        <v>1</v>
-      </c>
-      <c r="I56" s="134"/>
-      <c r="J56" s="132">
+      <c r="H56" s="110">
+        <v>1</v>
+      </c>
+      <c r="I56" s="110"/>
+      <c r="J56" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K56" s="134">
-        <v>1</v>
-      </c>
-      <c r="L56" s="134">
-        <v>1</v>
-      </c>
-      <c r="M56" s="134">
-        <v>1</v>
-      </c>
-      <c r="N56" s="135">
-        <v>1</v>
-      </c>
-      <c r="O56" s="135">
-        <v>1</v>
-      </c>
-      <c r="P56" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="22"/>
+      <c r="K56" s="110">
+        <v>1</v>
+      </c>
+      <c r="L56" s="110">
+        <v>1</v>
+      </c>
+      <c r="M56" s="110">
+        <v>1</v>
+      </c>
+      <c r="N56" s="111">
+        <v>1</v>
+      </c>
+      <c r="O56" s="111">
+        <v>1</v>
+      </c>
+      <c r="P56" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="111">
+        <v>0</v>
+      </c>
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" hidden="1">
       <c r="A57" s="16">
         <v>53</v>
       </c>
-      <c r="B57" s="130" t="s">
+      <c r="B57" s="106" t="s">
         <v>195</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D57" s="132" t="s">
+      <c r="D57" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E57" s="132" t="str">
+      <c r="E57" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F57" s="133">
+      <c r="F57" s="109">
         <v>43060</v>
       </c>
-      <c r="G57" s="133">
+      <c r="G57" s="109">
         <v>43063</v>
       </c>
-      <c r="H57" s="134">
-        <v>1</v>
-      </c>
-      <c r="I57" s="134"/>
-      <c r="J57" s="132">
+      <c r="H57" s="110">
+        <v>1</v>
+      </c>
+      <c r="I57" s="110"/>
+      <c r="J57" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K57" s="134">
-        <v>1</v>
-      </c>
-      <c r="L57" s="134">
-        <v>1</v>
-      </c>
-      <c r="M57" s="134">
-        <v>1</v>
-      </c>
-      <c r="N57" s="135">
-        <v>1</v>
-      </c>
-      <c r="O57" s="135">
-        <v>0</v>
-      </c>
-      <c r="P57" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="22"/>
+      <c r="K57" s="110">
+        <v>1</v>
+      </c>
+      <c r="L57" s="110">
+        <v>1</v>
+      </c>
+      <c r="M57" s="110">
+        <v>1</v>
+      </c>
+      <c r="N57" s="111">
+        <v>1</v>
+      </c>
+      <c r="O57" s="111">
+        <v>0</v>
+      </c>
+      <c r="P57" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="111">
+        <v>0</v>
+      </c>
       <c r="R57" s="22"/>
       <c r="S57" s="22"/>
       <c r="T57" s="22"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" hidden="1">
       <c r="A58" s="16">
         <v>54</v>
       </c>
-      <c r="B58" s="130" t="s">
+      <c r="B58" s="106" t="s">
         <v>192</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D58" s="132" t="s">
+      <c r="D58" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E58" s="132" t="str">
+      <c r="E58" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F58" s="133">
+      <c r="F58" s="109">
         <v>43060</v>
       </c>
-      <c r="G58" s="133">
+      <c r="G58" s="109">
         <v>43063</v>
       </c>
-      <c r="H58" s="134">
-        <v>1</v>
-      </c>
-      <c r="I58" s="134"/>
-      <c r="J58" s="132">
+      <c r="H58" s="110">
+        <v>1</v>
+      </c>
+      <c r="I58" s="110"/>
+      <c r="J58" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K58" s="134">
-        <v>1</v>
-      </c>
-      <c r="L58" s="134">
-        <v>1</v>
-      </c>
-      <c r="M58" s="134">
-        <v>1</v>
-      </c>
-      <c r="N58" s="134">
-        <v>1</v>
-      </c>
-      <c r="O58" s="134">
-        <v>0</v>
-      </c>
-      <c r="P58" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="22"/>
+      <c r="K58" s="110">
+        <v>1</v>
+      </c>
+      <c r="L58" s="110">
+        <v>1</v>
+      </c>
+      <c r="M58" s="110">
+        <v>1</v>
+      </c>
+      <c r="N58" s="110">
+        <v>1</v>
+      </c>
+      <c r="O58" s="110">
+        <v>0</v>
+      </c>
+      <c r="P58" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="111">
+        <v>0</v>
+      </c>
       <c r="R58" s="22"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" hidden="1">
       <c r="A59" s="16">
         <v>55</v>
       </c>
-      <c r="B59" s="130" t="s">
+      <c r="B59" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D59" s="132" t="s">
+      <c r="D59" s="108" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="132" t="str">
+      <c r="E59" s="108" t="str">
         <f t="shared" ca="1" si="3"/>
         <v>完了</v>
       </c>
-      <c r="F59" s="133">
+      <c r="F59" s="109">
         <v>43060</v>
       </c>
-      <c r="G59" s="133">
+      <c r="G59" s="109">
         <v>43063</v>
       </c>
-      <c r="H59" s="134">
-        <v>1</v>
-      </c>
-      <c r="I59" s="134"/>
-      <c r="J59" s="132">
+      <c r="H59" s="110">
+        <v>1</v>
+      </c>
+      <c r="I59" s="110"/>
+      <c r="J59" s="108">
         <f t="shared" ca="1" si="4"/>
         <v>0</v>
       </c>
-      <c r="K59" s="134">
-        <v>1</v>
-      </c>
-      <c r="L59" s="134">
-        <v>1</v>
-      </c>
-      <c r="M59" s="134">
-        <v>1</v>
-      </c>
-      <c r="N59" s="134">
-        <v>0</v>
-      </c>
-      <c r="O59" s="134">
-        <v>0</v>
-      </c>
-      <c r="P59" s="135">
-        <v>0</v>
-      </c>
-      <c r="Q59" s="22"/>
+      <c r="K59" s="110">
+        <v>1</v>
+      </c>
+      <c r="L59" s="110">
+        <v>1</v>
+      </c>
+      <c r="M59" s="110">
+        <v>1</v>
+      </c>
+      <c r="N59" s="110">
+        <v>0</v>
+      </c>
+      <c r="O59" s="110">
+        <v>0</v>
+      </c>
+      <c r="P59" s="111">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="111">
+        <v>0</v>
+      </c>
       <c r="R59" s="22"/>
       <c r="S59" s="22"/>
       <c r="T59" s="22"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" hidden="1">
       <c r="A60" s="16">
         <v>56</v>
       </c>
@@ -20049,12 +19962,14 @@
       <c r="P60" s="22">
         <v>0</v>
       </c>
-      <c r="Q60" s="22"/>
+      <c r="Q60" s="22">
+        <v>0</v>
+      </c>
       <c r="R60" s="22"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" hidden="1">
       <c r="A61" s="16">
         <v>57</v>
       </c>
@@ -20103,12 +20018,14 @@
       <c r="P61" s="22">
         <v>0</v>
       </c>
-      <c r="Q61" s="22"/>
+      <c r="Q61" s="22">
+        <v>0</v>
+      </c>
       <c r="R61" s="22"/>
       <c r="S61" s="22"/>
       <c r="T61" s="22"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" hidden="1">
       <c r="A62" s="16">
         <v>58</v>
       </c>
@@ -20157,12 +20074,14 @@
       <c r="P62" s="22">
         <v>0</v>
       </c>
-      <c r="Q62" s="22"/>
+      <c r="Q62" s="22">
+        <v>0</v>
+      </c>
       <c r="R62" s="22"/>
       <c r="S62" s="22"/>
       <c r="T62" s="22"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" hidden="1">
       <c r="A63" s="16">
         <v>59</v>
       </c>
@@ -20177,7 +20096,7 @@
       </c>
       <c r="E63" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F63" s="4">
         <v>43060</v>
@@ -20191,7 +20110,7 @@
       <c r="I63" s="19"/>
       <c r="J63" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K63" s="19">
         <v>1</v>
@@ -20209,14 +20128,16 @@
         <v>0</v>
       </c>
       <c r="P63" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="Q63" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="22">
+        <v>0</v>
+      </c>
       <c r="R63" s="22"/>
       <c r="S63" s="22"/>
       <c r="T63" s="22"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" hidden="1">
       <c r="A64" s="16">
         <v>60</v>
       </c>
@@ -20265,7 +20186,9 @@
       <c r="P64" s="22">
         <v>0</v>
       </c>
-      <c r="Q64" s="22"/>
+      <c r="Q64" s="22">
+        <v>0</v>
+      </c>
       <c r="R64" s="22"/>
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
@@ -20300,7 +20223,7 @@
       <c r="S65" s="22"/>
       <c r="T65" s="22"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" hidden="1">
       <c r="A66" s="16">
         <v>62</v>
       </c>
@@ -20349,7 +20272,9 @@
       <c r="P66" s="19">
         <v>0</v>
       </c>
-      <c r="Q66" s="22"/>
+      <c r="Q66" s="19">
+        <v>0</v>
+      </c>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
@@ -20364,13 +20289,15 @@
       <c r="C67" s="18"/>
       <c r="D67" s="12"/>
       <c r="E67" s="12" t="str">
-        <f t="shared" si="3"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>作業中</v>
       </c>
       <c r="F67" s="4">
         <v>43060</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4">
+        <v>43060</v>
+      </c>
       <c r="H67" s="19">
         <v>1</v>
       </c>
@@ -20397,7 +20324,9 @@
       <c r="P67" s="19">
         <v>1</v>
       </c>
-      <c r="Q67" s="22"/>
+      <c r="Q67" s="19">
+        <v>1</v>
+      </c>
       <c r="R67" s="22"/>
       <c r="S67" s="22"/>
       <c r="T67" s="22"/>
@@ -20445,12 +20374,14 @@
       <c r="P68" s="19">
         <v>1</v>
       </c>
-      <c r="Q68" s="22"/>
+      <c r="Q68" s="19">
+        <v>1</v>
+      </c>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
     </row>
-    <row r="69" spans="1:20" hidden="1">
+    <row r="69" spans="1:20">
       <c r="A69" s="16">
         <v>65</v>
       </c>
@@ -20463,7 +20394,7 @@
       <c r="D69" s="12"/>
       <c r="E69" s="12" t="str">
         <f t="shared" ca="1" si="3"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F69" s="4">
         <v>43060</v>
@@ -20477,7 +20408,7 @@
       <c r="I69" s="19"/>
       <c r="J69" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K69" s="19">
         <v>0.5</v>
@@ -20497,12 +20428,14 @@
       <c r="P69" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q69" s="22"/>
+      <c r="Q69" s="19">
+        <v>0</v>
+      </c>
       <c r="R69" s="22"/>
       <c r="S69" s="22"/>
       <c r="T69" s="22"/>
     </row>
-    <row r="70" spans="1:20" hidden="1">
+    <row r="70" spans="1:20">
       <c r="A70" s="16">
         <v>66</v>
       </c>
@@ -20515,7 +20448,7 @@
       <c r="D70" s="12"/>
       <c r="E70" s="12" t="str">
         <f t="shared" ref="E70:E133" ca="1" si="5">IF(ISBLANK($B70),"",IF(ISBLANK(G70),"未着手",IF($J70=0,"完了","作業中")))</f>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F70" s="4">
         <v>43060</v>
@@ -20529,7 +20462,7 @@
       <c r="I70" s="19"/>
       <c r="J70" s="12">
         <f t="shared" ca="1" si="4"/>
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K70" s="19">
         <v>0.5</v>
@@ -20549,12 +20482,14 @@
       <c r="P70" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q70" s="22"/>
+      <c r="Q70" s="19">
+        <v>0</v>
+      </c>
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22"/>
     </row>
-    <row r="71" spans="1:20" hidden="1">
+    <row r="71" spans="1:20">
       <c r="A71" s="16">
         <v>67</v>
       </c>
@@ -20567,7 +20502,7 @@
       <c r="D71" s="12"/>
       <c r="E71" s="12" t="str">
         <f t="shared" ca="1" si="5"/>
-        <v>作業中</v>
+        <v>完了</v>
       </c>
       <c r="F71" s="4">
         <v>43060</v>
@@ -20581,7 +20516,7 @@
       <c r="I71" s="19"/>
       <c r="J71" s="12">
         <f t="shared" ref="J71:J134" ca="1" si="6">IF(ISBLANK(K71)=FALSE,OFFSET(J71,0,COUNTA(K71:T71)),"")</f>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K71" s="19">
         <v>2</v>
@@ -20601,7 +20536,9 @@
       <c r="P71" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q71" s="22"/>
+      <c r="Q71" s="19">
+        <v>0</v>
+      </c>
       <c r="R71" s="22"/>
       <c r="S71" s="22"/>
       <c r="T71" s="22"/>
@@ -20618,20 +20555,22 @@
       </c>
       <c r="D72" s="12"/>
       <c r="E72" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F72" s="4">
         <v>43067</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4">
+        <v>43067</v>
+      </c>
       <c r="H72" s="19">
         <v>1</v>
       </c>
       <c r="I72" s="19"/>
       <c r="J72" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K72" s="19">
         <v>1</v>
@@ -20649,9 +20588,11 @@
         <v>1</v>
       </c>
       <c r="P72" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q72" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q72" s="19">
+        <v>0</v>
+      </c>
       <c r="R72" s="22"/>
       <c r="S72" s="22"/>
       <c r="T72" s="22"/>
@@ -20668,20 +20609,22 @@
       </c>
       <c r="D73" s="12"/>
       <c r="E73" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F73" s="4">
         <v>43067</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4">
+        <v>43067</v>
+      </c>
       <c r="H73" s="19">
         <v>1</v>
       </c>
       <c r="I73" s="19"/>
       <c r="J73" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="19">
         <v>1</v>
@@ -20699,9 +20642,11 @@
         <v>1</v>
       </c>
       <c r="P73" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q73" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q73" s="19">
+        <v>0</v>
+      </c>
       <c r="R73" s="22"/>
       <c r="S73" s="22"/>
       <c r="T73" s="22"/>
@@ -20718,20 +20663,22 @@
       </c>
       <c r="D74" s="12"/>
       <c r="E74" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F74" s="4">
         <v>43067</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4">
+        <v>43067</v>
+      </c>
       <c r="H74" s="19">
         <v>1</v>
       </c>
       <c r="I74" s="19"/>
       <c r="J74" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="19">
         <v>1</v>
@@ -20749,9 +20696,11 @@
         <v>1</v>
       </c>
       <c r="P74" s="19">
-        <v>1</v>
-      </c>
-      <c r="Q74" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q74" s="19">
+        <v>0</v>
+      </c>
       <c r="R74" s="22"/>
       <c r="S74" s="22"/>
       <c r="T74" s="22"/>
@@ -20803,7 +20752,9 @@
       <c r="P75" s="22">
         <v>1</v>
       </c>
-      <c r="Q75" s="22"/>
+      <c r="Q75" s="22">
+        <v>1</v>
+      </c>
       <c r="R75" s="22"/>
       <c r="S75" s="22"/>
       <c r="T75" s="22"/>
@@ -20822,20 +20773,22 @@
         <v>107</v>
       </c>
       <c r="E76" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F76" s="4">
         <v>43070</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4">
+        <v>43070</v>
+      </c>
       <c r="H76" s="19">
         <v>1</v>
       </c>
       <c r="I76" s="19"/>
       <c r="J76" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76" s="19">
         <v>1</v>
@@ -20853,9 +20806,11 @@
         <v>1</v>
       </c>
       <c r="P76" s="22">
-        <v>1</v>
-      </c>
-      <c r="Q76" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q76" s="22">
+        <v>0</v>
+      </c>
       <c r="R76" s="22"/>
       <c r="S76" s="22"/>
       <c r="T76" s="22"/>
@@ -20905,7 +20860,9 @@
       <c r="P77" s="19">
         <v>1</v>
       </c>
-      <c r="Q77" s="22"/>
+      <c r="Q77" s="19">
+        <v>1</v>
+      </c>
       <c r="R77" s="22"/>
       <c r="S77" s="22"/>
       <c r="T77" s="22"/>
@@ -20957,7 +20914,9 @@
       <c r="P78" s="22">
         <v>1</v>
       </c>
-      <c r="Q78" s="22"/>
+      <c r="Q78" s="22">
+        <v>1</v>
+      </c>
       <c r="R78" s="22"/>
       <c r="S78" s="22"/>
       <c r="T78" s="22"/>
@@ -21007,7 +20966,9 @@
       <c r="P79" s="19">
         <v>1</v>
       </c>
-      <c r="Q79" s="22"/>
+      <c r="Q79" s="19">
+        <v>1</v>
+      </c>
       <c r="R79" s="22"/>
       <c r="S79" s="22"/>
       <c r="T79" s="22"/>
@@ -21059,7 +21020,9 @@
       <c r="P80" s="19">
         <v>0</v>
       </c>
-      <c r="Q80" s="22"/>
+      <c r="Q80" s="19">
+        <v>0</v>
+      </c>
       <c r="R80" s="22"/>
       <c r="S80" s="22"/>
       <c r="T80" s="22"/>
@@ -21109,7 +21072,9 @@
       <c r="P81" s="19">
         <v>2</v>
       </c>
-      <c r="Q81" s="22"/>
+      <c r="Q81" s="19">
+        <v>2</v>
+      </c>
       <c r="R81" s="22"/>
       <c r="S81" s="22"/>
       <c r="T81" s="22"/>
@@ -21159,12 +21124,14 @@
       <c r="P82" s="19">
         <v>2</v>
       </c>
-      <c r="Q82" s="22"/>
+      <c r="Q82" s="19">
+        <v>2</v>
+      </c>
       <c r="R82" s="22"/>
       <c r="S82" s="22"/>
       <c r="T82" s="22"/>
     </row>
-    <row r="83" spans="1:20" hidden="1">
+    <row r="83" spans="1:20">
       <c r="A83" s="16">
         <v>79</v>
       </c>
@@ -21209,12 +21176,14 @@
       <c r="P83" s="19">
         <v>0.5</v>
       </c>
-      <c r="Q83" s="22"/>
+      <c r="Q83" s="19">
+        <v>0.5</v>
+      </c>
       <c r="R83" s="22"/>
       <c r="S83" s="22"/>
       <c r="T83" s="22"/>
     </row>
-    <row r="84" spans="1:20" hidden="1">
+    <row r="84" spans="1:20">
       <c r="A84" s="16">
         <v>80</v>
       </c>
@@ -21259,7 +21228,9 @@
       <c r="P84" s="19">
         <v>0.1</v>
       </c>
-      <c r="Q84" s="22"/>
+      <c r="Q84" s="19">
+        <v>0.1</v>
+      </c>
       <c r="R84" s="22"/>
       <c r="S84" s="22"/>
       <c r="T84" s="22"/>
@@ -21341,12 +21312,14 @@
       <c r="P86" s="19">
         <v>0</v>
       </c>
-      <c r="Q86" s="22"/>
+      <c r="Q86" s="19">
+        <v>0</v>
+      </c>
       <c r="R86" s="22"/>
       <c r="S86" s="22"/>
       <c r="T86" s="22"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" hidden="1">
       <c r="A87" s="16">
         <v>83</v>
       </c>
@@ -21395,12 +21368,14 @@
       <c r="P87" s="19">
         <v>0</v>
       </c>
-      <c r="Q87" s="22"/>
+      <c r="Q87" s="19">
+        <v>0</v>
+      </c>
       <c r="R87" s="22"/>
       <c r="S87" s="22"/>
       <c r="T87" s="22"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" hidden="1">
       <c r="A88" s="16">
         <v>84</v>
       </c>
@@ -21449,12 +21424,14 @@
       <c r="P88" s="19">
         <v>0</v>
       </c>
-      <c r="Q88" s="22"/>
+      <c r="Q88" s="19">
+        <v>0</v>
+      </c>
       <c r="R88" s="22"/>
       <c r="S88" s="22"/>
       <c r="T88" s="22"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" hidden="1">
       <c r="A89" s="16">
         <v>85</v>
       </c>
@@ -21503,12 +21480,14 @@
       <c r="P89" s="19">
         <v>0</v>
       </c>
-      <c r="Q89" s="22"/>
+      <c r="Q89" s="19">
+        <v>0</v>
+      </c>
       <c r="R89" s="22"/>
       <c r="S89" s="22"/>
       <c r="T89" s="22"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" hidden="1">
       <c r="A90" s="16">
         <v>86</v>
       </c>
@@ -21557,7 +21536,9 @@
       <c r="P90" s="19">
         <v>0</v>
       </c>
-      <c r="Q90" s="22"/>
+      <c r="Q90" s="19">
+        <v>0</v>
+      </c>
       <c r="R90" s="22"/>
       <c r="S90" s="22"/>
       <c r="T90" s="22"/>
@@ -21726,20 +21707,22 @@
       </c>
       <c r="D95" s="12"/>
       <c r="E95" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F95" s="4">
         <v>43063</v>
       </c>
-      <c r="G95" s="4"/>
+      <c r="G95" s="4">
+        <v>43063</v>
+      </c>
       <c r="H95" s="19">
         <v>1.5</v>
       </c>
       <c r="I95" s="19"/>
       <c r="J95" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="K95" s="19">
         <v>1.5</v>
@@ -21757,9 +21740,11 @@
         <v>1.5</v>
       </c>
       <c r="P95" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="Q95" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q95" s="19">
+        <v>0</v>
+      </c>
       <c r="R95" s="22"/>
       <c r="S95" s="22"/>
       <c r="T95" s="22"/>
@@ -21811,7 +21796,9 @@
       <c r="P96" s="19">
         <v>0</v>
       </c>
-      <c r="Q96" s="22"/>
+      <c r="Q96" s="19">
+        <v>0</v>
+      </c>
       <c r="R96" s="22"/>
       <c r="S96" s="22"/>
       <c r="T96" s="22"/>
@@ -21858,20 +21845,22 @@
       </c>
       <c r="D98" s="12"/>
       <c r="E98" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F98" s="4">
         <v>43067</v>
       </c>
-      <c r="G98" s="4"/>
+      <c r="G98" s="4">
+        <v>43067</v>
+      </c>
       <c r="H98" s="19">
         <v>2</v>
       </c>
       <c r="I98" s="19"/>
       <c r="J98" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K98" s="19">
         <v>2</v>
@@ -21891,7 +21880,9 @@
       <c r="P98" s="19">
         <v>2</v>
       </c>
-      <c r="Q98" s="22"/>
+      <c r="Q98" s="19">
+        <v>0</v>
+      </c>
       <c r="R98" s="22"/>
       <c r="S98" s="22"/>
       <c r="T98" s="22"/>
@@ -21908,20 +21899,22 @@
       </c>
       <c r="D99" s="12"/>
       <c r="E99" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F99" s="4">
         <v>43067</v>
       </c>
-      <c r="G99" s="4"/>
+      <c r="G99" s="4">
+        <v>43067</v>
+      </c>
       <c r="H99" s="19">
         <v>2</v>
       </c>
       <c r="I99" s="19"/>
       <c r="J99" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K99" s="19">
         <v>2</v>
@@ -21941,7 +21934,9 @@
       <c r="P99" s="19">
         <v>2</v>
       </c>
-      <c r="Q99" s="22"/>
+      <c r="Q99" s="19">
+        <v>0</v>
+      </c>
       <c r="R99" s="22"/>
       <c r="S99" s="22"/>
       <c r="T99" s="22"/>
@@ -21991,7 +21986,9 @@
       <c r="P100" s="19">
         <v>2</v>
       </c>
-      <c r="Q100" s="22"/>
+      <c r="Q100" s="19">
+        <v>2</v>
+      </c>
       <c r="R100" s="22"/>
       <c r="S100" s="22"/>
       <c r="T100" s="22"/>
@@ -22043,7 +22040,9 @@
       <c r="P101" s="19">
         <v>0</v>
       </c>
-      <c r="Q101" s="22"/>
+      <c r="Q101" s="19">
+        <v>0</v>
+      </c>
       <c r="R101" s="22"/>
       <c r="S101" s="22"/>
       <c r="T101" s="22"/>
@@ -22095,7 +22094,9 @@
       <c r="P102" s="19">
         <v>0</v>
       </c>
-      <c r="Q102" s="22"/>
+      <c r="Q102" s="19">
+        <v>0</v>
+      </c>
       <c r="R102" s="22"/>
       <c r="S102" s="22"/>
       <c r="T102" s="22"/>
@@ -22147,7 +22148,9 @@
       <c r="P103" s="19">
         <v>0</v>
       </c>
-      <c r="Q103" s="22"/>
+      <c r="Q103" s="19">
+        <v>0</v>
+      </c>
       <c r="R103" s="22"/>
       <c r="S103" s="22"/>
       <c r="T103" s="22"/>
@@ -22190,7 +22193,7 @@
       <c r="W104" s="103"/>
       <c r="X104" s="104"/>
     </row>
-    <row r="105" spans="1:24">
+    <row r="105" spans="1:24" hidden="1">
       <c r="A105" s="16">
         <v>104</v>
       </c>
@@ -22237,7 +22240,9 @@
       <c r="P105" s="22">
         <v>0</v>
       </c>
-      <c r="Q105" s="22"/>
+      <c r="Q105" s="22">
+        <v>0</v>
+      </c>
       <c r="R105" s="22"/>
       <c r="S105" s="22"/>
       <c r="T105" s="22"/>
@@ -22246,7 +22251,7 @@
       <c r="W105" s="103"/>
       <c r="X105" s="104"/>
     </row>
-    <row r="106" spans="1:24">
+    <row r="106" spans="1:24" hidden="1">
       <c r="A106" s="16">
         <v>105</v>
       </c>
@@ -22293,7 +22298,9 @@
       <c r="P106" s="22">
         <v>0</v>
       </c>
-      <c r="Q106" s="22"/>
+      <c r="Q106" s="22">
+        <v>0</v>
+      </c>
       <c r="R106" s="22"/>
       <c r="S106" s="22"/>
       <c r="T106" s="22"/>
@@ -22302,7 +22309,7 @@
       <c r="W106" s="103"/>
       <c r="X106" s="104"/>
     </row>
-    <row r="107" spans="1:24">
+    <row r="107" spans="1:24" hidden="1">
       <c r="A107" s="16">
         <v>106</v>
       </c>
@@ -22349,7 +22356,9 @@
       <c r="P107" s="22">
         <v>0</v>
       </c>
-      <c r="Q107" s="22"/>
+      <c r="Q107" s="22">
+        <v>0</v>
+      </c>
       <c r="R107" s="22"/>
       <c r="S107" s="22"/>
       <c r="T107" s="22"/>
@@ -22405,7 +22414,9 @@
       <c r="P108" s="19">
         <v>0</v>
       </c>
-      <c r="Q108" s="22"/>
+      <c r="Q108" s="19">
+        <v>0</v>
+      </c>
       <c r="R108" s="22"/>
       <c r="S108" s="22"/>
       <c r="T108" s="22"/>
@@ -22461,7 +22472,9 @@
       <c r="P109" s="19">
         <v>0</v>
       </c>
-      <c r="Q109" s="22"/>
+      <c r="Q109" s="19">
+        <v>0</v>
+      </c>
       <c r="R109" s="22"/>
       <c r="S109" s="22"/>
       <c r="T109" s="22"/>
@@ -22470,7 +22483,7 @@
       <c r="W109" s="103"/>
       <c r="X109" s="104"/>
     </row>
-    <row r="110" spans="1:24" hidden="1">
+    <row r="110" spans="1:24">
       <c r="A110" s="16">
         <v>109</v>
       </c>
@@ -22482,20 +22495,22 @@
       </c>
       <c r="D110" s="12"/>
       <c r="E110" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F110" s="4">
         <v>43060</v>
       </c>
-      <c r="G110" s="4"/>
+      <c r="G110" s="4">
+        <v>43060</v>
+      </c>
       <c r="H110" s="19">
         <v>2</v>
       </c>
       <c r="I110" s="19"/>
       <c r="J110" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K110" s="19">
         <v>2</v>
@@ -22513,9 +22528,11 @@
         <v>2</v>
       </c>
       <c r="P110" s="19">
-        <v>2</v>
-      </c>
-      <c r="Q110" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q110" s="19">
+        <v>0</v>
+      </c>
       <c r="R110" s="22"/>
       <c r="S110" s="22"/>
       <c r="T110" s="22"/>
@@ -22569,7 +22586,9 @@
       <c r="P111" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q111" s="22"/>
+      <c r="Q111" s="19">
+        <v>0.2</v>
+      </c>
       <c r="R111" s="22"/>
       <c r="S111" s="22"/>
       <c r="T111" s="22"/>
@@ -22625,7 +22644,9 @@
       <c r="P112" s="19">
         <v>0</v>
       </c>
-      <c r="Q112" s="22"/>
+      <c r="Q112" s="19">
+        <v>0</v>
+      </c>
       <c r="R112" s="22"/>
       <c r="S112" s="22"/>
       <c r="T112" s="22"/>
@@ -22646,20 +22667,22 @@
       </c>
       <c r="D113" s="12"/>
       <c r="E113" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F113" s="4">
         <v>43060</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4">
+        <v>43074</v>
+      </c>
       <c r="H113" s="19">
         <v>0.2</v>
       </c>
       <c r="I113" s="19"/>
       <c r="J113" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="K113" s="19">
         <v>0.2</v>
@@ -22679,7 +22702,9 @@
       <c r="P113" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q113" s="22"/>
+      <c r="Q113" s="19">
+        <v>0</v>
+      </c>
       <c r="R113" s="22"/>
       <c r="S113" s="22"/>
       <c r="T113" s="22"/>
@@ -22733,7 +22758,9 @@
       <c r="P114" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q114" s="22"/>
+      <c r="Q114" s="19">
+        <v>0.2</v>
+      </c>
       <c r="R114" s="22"/>
       <c r="S114" s="22"/>
       <c r="T114" s="22"/>
@@ -22783,7 +22810,9 @@
       <c r="P115" s="19">
         <v>0.2</v>
       </c>
-      <c r="Q115" s="22"/>
+      <c r="Q115" s="19">
+        <v>0.2</v>
+      </c>
       <c r="R115" s="22"/>
       <c r="S115" s="22"/>
       <c r="T115" s="22"/>
@@ -22835,7 +22864,9 @@
       <c r="P116" s="19">
         <v>0</v>
       </c>
-      <c r="Q116" s="22"/>
+      <c r="Q116" s="19">
+        <v>0</v>
+      </c>
       <c r="R116" s="22"/>
       <c r="S116" s="22"/>
       <c r="T116" s="22"/>
@@ -22852,20 +22883,22 @@
       </c>
       <c r="D117" s="12"/>
       <c r="E117" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F117" s="4">
         <v>43060</v>
       </c>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4">
+        <v>43074</v>
+      </c>
       <c r="H117" s="19">
         <v>3</v>
       </c>
       <c r="I117" s="19"/>
       <c r="J117" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K117" s="19">
         <v>3</v>
@@ -22885,8 +22918,12 @@
       <c r="P117" s="19">
         <v>3</v>
       </c>
-      <c r="Q117" s="22"/>
-      <c r="R117" s="22"/>
+      <c r="Q117" s="19">
+        <v>3</v>
+      </c>
+      <c r="R117" s="22">
+        <v>0</v>
+      </c>
       <c r="S117" s="22"/>
       <c r="T117" s="22"/>
     </row>
@@ -22902,20 +22939,22 @@
       </c>
       <c r="D118" s="12"/>
       <c r="E118" s="12" t="str">
-        <f t="shared" si="5"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>完了</v>
       </c>
       <c r="F118" s="4">
         <v>43060</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4">
+        <v>43074</v>
+      </c>
       <c r="H118" s="19">
         <v>3</v>
       </c>
       <c r="I118" s="19"/>
       <c r="J118" s="12">
         <f t="shared" ca="1" si="6"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K118" s="19">
         <v>3</v>
@@ -22935,8 +22974,12 @@
       <c r="P118" s="19">
         <v>3</v>
       </c>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="22"/>
+      <c r="Q118" s="19">
+        <v>3</v>
+      </c>
+      <c r="R118" s="22">
+        <v>0</v>
+      </c>
       <c r="S118" s="22"/>
       <c r="T118" s="22"/>
     </row>
@@ -22985,7 +23028,9 @@
       <c r="P119" s="19">
         <v>1</v>
       </c>
-      <c r="Q119" s="22"/>
+      <c r="Q119" s="19">
+        <v>1</v>
+      </c>
       <c r="R119" s="22"/>
       <c r="S119" s="22"/>
       <c r="T119" s="22"/>
@@ -23035,7 +23080,9 @@
       <c r="P120" s="19">
         <v>1</v>
       </c>
-      <c r="Q120" s="22"/>
+      <c r="Q120" s="19">
+        <v>1</v>
+      </c>
       <c r="R120" s="22"/>
       <c r="S120" s="22"/>
       <c r="T120" s="22"/>
@@ -23087,7 +23134,9 @@
       <c r="P121" s="19">
         <v>0</v>
       </c>
-      <c r="Q121" s="22"/>
+      <c r="Q121" s="19">
+        <v>0</v>
+      </c>
       <c r="R121" s="22"/>
       <c r="S121" s="22"/>
       <c r="T121" s="22"/>
@@ -23139,62 +23188,66 @@
       <c r="P122" s="19">
         <v>2</v>
       </c>
-      <c r="Q122" s="22"/>
+      <c r="Q122" s="19">
+        <v>2</v>
+      </c>
       <c r="R122" s="22"/>
       <c r="S122" s="22"/>
       <c r="T122" s="22"/>
     </row>
-    <row r="123" spans="1:27" hidden="1">
+    <row r="123" spans="1:27">
       <c r="A123" s="16">
         <v>122</v>
       </c>
-      <c r="B123" s="130" t="s">
+      <c r="B123" s="106" t="s">
         <v>250</v>
       </c>
-      <c r="C123" s="131" t="s">
+      <c r="C123" s="107" t="s">
         <v>163</v>
       </c>
-      <c r="D123" s="132"/>
-      <c r="E123" s="132" t="str">
+      <c r="D123" s="108"/>
+      <c r="E123" s="108" t="str">
         <f t="shared" ca="1" si="5"/>
         <v>完了</v>
       </c>
-      <c r="F123" s="133">
+      <c r="F123" s="109">
         <v>43056</v>
       </c>
-      <c r="G123" s="133">
+      <c r="G123" s="109">
         <v>43060</v>
       </c>
-      <c r="H123" s="134">
-        <v>2</v>
-      </c>
-      <c r="I123" s="134"/>
-      <c r="J123" s="132">
+      <c r="H123" s="110">
+        <v>2</v>
+      </c>
+      <c r="I123" s="110"/>
+      <c r="J123" s="108">
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="K123" s="134">
-        <v>2</v>
-      </c>
-      <c r="L123" s="134">
-        <v>2</v>
-      </c>
-      <c r="M123" s="134">
-        <v>0</v>
-      </c>
-      <c r="N123" s="134">
-        <v>0</v>
-      </c>
-      <c r="O123" s="134">
-        <v>0</v>
-      </c>
-      <c r="P123" s="134">
-        <v>0</v>
-      </c>
-      <c r="Q123" s="135"/>
-      <c r="R123" s="135"/>
-      <c r="S123" s="135"/>
-      <c r="T123" s="135"/>
+      <c r="K123" s="110">
+        <v>2</v>
+      </c>
+      <c r="L123" s="110">
+        <v>2</v>
+      </c>
+      <c r="M123" s="110">
+        <v>0</v>
+      </c>
+      <c r="N123" s="110">
+        <v>0</v>
+      </c>
+      <c r="O123" s="110">
+        <v>0</v>
+      </c>
+      <c r="P123" s="110">
+        <v>0</v>
+      </c>
+      <c r="Q123" s="110">
+        <v>0</v>
+      </c>
+      <c r="R123" s="111"/>
+      <c r="S123" s="111"/>
+      <c r="T123" s="111"/>
     </row>
     <row r="124" spans="1:27" hidden="1">
       <c r="A124" s="16">
@@ -23243,7 +23296,9 @@
       <c r="P124" s="19">
         <v>1.5</v>
       </c>
-      <c r="Q124" s="22"/>
+      <c r="Q124" s="19">
+        <v>1.5</v>
+      </c>
       <c r="R124" s="22"/>
       <c r="S124" s="22"/>
       <c r="T124" s="22"/>
@@ -23295,7 +23350,9 @@
       <c r="P125" s="22">
         <v>0</v>
       </c>
-      <c r="Q125" s="22"/>
+      <c r="Q125" s="22">
+        <v>0</v>
+      </c>
       <c r="R125" s="22"/>
       <c r="S125" s="22"/>
       <c r="T125" s="22"/>
@@ -23365,7 +23422,9 @@
       <c r="P126" s="22">
         <v>0</v>
       </c>
-      <c r="Q126" s="22"/>
+      <c r="Q126" s="22">
+        <v>0</v>
+      </c>
       <c r="R126" s="22"/>
       <c r="S126" s="22"/>
       <c r="T126" s="22"/>
@@ -23378,7 +23437,7 @@
       </c>
       <c r="X126" s="10">
         <f ca="1">SUMIF($C$5:$C$286,V126,$J$5:$J$286)</f>
-        <v>29.799999999999997</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="Y126" s="10">
         <f>SUMIF($C$5:$C$101,V126,$I$5:$I$101)</f>
@@ -23386,11 +23445,11 @@
       </c>
       <c r="Z126" s="14">
         <f>COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA126" s="15">
         <f ca="1">IF(Z126&gt;X126,0,X126-Z126)</f>
-        <v>5.7999999999999972</v>
+        <v>0.10000000000000142</v>
       </c>
     </row>
     <row r="127" spans="1:27" hidden="1">
@@ -23440,7 +23499,9 @@
       <c r="P127" s="22">
         <v>0</v>
       </c>
-      <c r="Q127" s="22"/>
+      <c r="Q127" s="22">
+        <v>0</v>
+      </c>
       <c r="R127" s="22"/>
       <c r="S127" s="22"/>
       <c r="T127" s="22"/>
@@ -23453,7 +23514,7 @@
       </c>
       <c r="X127" s="10">
         <f ca="1">SUMIF($C$5:$C$286,V127,$J$5:$J$286)</f>
-        <v>30</v>
+        <v>15.5</v>
       </c>
       <c r="Y127" s="10">
         <f>SUMIF($C$5:$C$101,V127,$I$5:$I$101)</f>
@@ -23461,11 +23522,11 @@
       </c>
       <c r="Z127" s="14">
         <f t="shared" ref="Z127:Z130" si="8">COUNTA($K$2:$T$2)*6-COUNTA($K$4:$T$4)*6</f>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA127" s="15">
         <f ca="1">IF(Z127&gt;X127,0,X127-Z127)</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:27" hidden="1">
@@ -23515,7 +23576,9 @@
       <c r="P128" s="22">
         <v>0</v>
       </c>
-      <c r="Q128" s="22"/>
+      <c r="Q128" s="22">
+        <v>0</v>
+      </c>
       <c r="R128" s="22"/>
       <c r="S128" s="22"/>
       <c r="T128" s="22"/>
@@ -23524,11 +23587,11 @@
       </c>
       <c r="W128" s="10">
         <f t="shared" si="7"/>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="X128" s="10">
         <f ca="1">SUMIF($C$5:$C$286,V128,$J$5:$J$286)</f>
-        <v>21.5</v>
+        <v>11</v>
       </c>
       <c r="Y128" s="10">
         <f>SUMIF($C$5:$C$101,V128,$I$5:$I$101)</f>
@@ -23536,7 +23599,7 @@
       </c>
       <c r="Z128" s="14">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA128" s="15">
         <f t="shared" ref="AA128:AA130" ca="1" si="9">IF(Z128&gt;X128,0,X128-Z128)</f>
@@ -23590,7 +23653,9 @@
       <c r="P129" s="22">
         <v>0</v>
       </c>
-      <c r="Q129" s="22"/>
+      <c r="Q129" s="22">
+        <v>0</v>
+      </c>
       <c r="R129" s="22"/>
       <c r="S129" s="22"/>
       <c r="T129" s="22"/>
@@ -23603,7 +23668,7 @@
       </c>
       <c r="X129" s="10">
         <f t="shared" ref="X129:X130" ca="1" si="10">SUMIF($C$5:$C$286,V129,$J$5:$J$286)</f>
-        <v>26.6</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Y129" s="10">
         <f>SUMIF($C$5:$C$101,V129,$I$5:$I$101)</f>
@@ -23611,11 +23676,11 @@
       </c>
       <c r="Z129" s="14">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA129" s="15">
         <f t="shared" ca="1" si="9"/>
-        <v>2.6000000000000014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:27" hidden="1">
@@ -23665,7 +23730,9 @@
       <c r="P130" s="22">
         <v>0</v>
       </c>
-      <c r="Q130" s="22"/>
+      <c r="Q130" s="22">
+        <v>0</v>
+      </c>
       <c r="R130" s="22"/>
       <c r="S130" s="22"/>
       <c r="T130" s="22"/>
@@ -23674,11 +23741,11 @@
       </c>
       <c r="W130" s="10">
         <f t="shared" si="7"/>
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="X130" s="10">
         <f t="shared" ca="1" si="10"/>
-        <v>4.5</v>
+        <v>2</v>
       </c>
       <c r="Y130" s="10">
         <f>SUMIF($C$5:$C$101,V130,$I$5:$I$101)</f>
@@ -23686,7 +23753,7 @@
       </c>
       <c r="Z130" s="14">
         <f t="shared" si="8"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AA130" s="15">
         <f t="shared" ca="1" si="9"/>
@@ -23740,7 +23807,9 @@
       <c r="P131" s="22">
         <v>0</v>
       </c>
-      <c r="Q131" s="22"/>
+      <c r="Q131" s="22">
+        <v>0</v>
+      </c>
       <c r="R131" s="22"/>
       <c r="S131" s="22"/>
       <c r="T131" s="22"/>
@@ -23798,7 +23867,9 @@
       <c r="P132" s="22">
         <v>0</v>
       </c>
-      <c r="Q132" s="22"/>
+      <c r="Q132" s="22">
+        <v>0</v>
+      </c>
       <c r="R132" s="22"/>
       <c r="S132" s="22"/>
       <c r="T132" s="22"/>
@@ -23856,7 +23927,9 @@
       <c r="P133" s="22">
         <v>0</v>
       </c>
-      <c r="Q133" s="22"/>
+      <c r="Q133" s="22">
+        <v>0</v>
+      </c>
       <c r="R133" s="22"/>
       <c r="S133" s="22"/>
       <c r="T133" s="22"/>
@@ -23914,7 +23987,9 @@
       <c r="P134" s="22">
         <v>0</v>
       </c>
-      <c r="Q134" s="22"/>
+      <c r="Q134" s="22">
+        <v>0</v>
+      </c>
       <c r="R134" s="22"/>
       <c r="S134" s="22"/>
       <c r="T134" s="22"/>
@@ -23972,7 +24047,9 @@
       <c r="P135" s="22">
         <v>0</v>
       </c>
-      <c r="Q135" s="22"/>
+      <c r="Q135" s="22">
+        <v>0</v>
+      </c>
       <c r="R135" s="22"/>
       <c r="S135" s="22"/>
       <c r="T135" s="22"/>
@@ -24030,7 +24107,9 @@
       <c r="P136" s="22">
         <v>0</v>
       </c>
-      <c r="Q136" s="22"/>
+      <c r="Q136" s="22">
+        <v>0</v>
+      </c>
       <c r="R136" s="22"/>
       <c r="S136" s="22"/>
       <c r="T136" s="22"/>
@@ -24082,7 +24161,9 @@
       <c r="P137" s="22">
         <v>0</v>
       </c>
-      <c r="Q137" s="22"/>
+      <c r="Q137" s="22">
+        <v>0</v>
+      </c>
       <c r="R137" s="22"/>
       <c r="S137" s="22"/>
       <c r="T137" s="22"/>
@@ -24134,7 +24215,9 @@
       <c r="P138" s="22">
         <v>0</v>
       </c>
-      <c r="Q138" s="22"/>
+      <c r="Q138" s="22">
+        <v>0</v>
+      </c>
       <c r="R138" s="22"/>
       <c r="S138" s="22"/>
       <c r="T138" s="22"/>
@@ -24186,7 +24269,9 @@
       <c r="P139" s="22">
         <v>0</v>
       </c>
-      <c r="Q139" s="22"/>
+      <c r="Q139" s="22">
+        <v>0</v>
+      </c>
       <c r="R139" s="22"/>
       <c r="S139" s="22"/>
       <c r="T139" s="22"/>
@@ -24238,7 +24323,9 @@
       <c r="P140" s="22">
         <v>0</v>
       </c>
-      <c r="Q140" s="22"/>
+      <c r="Q140" s="22">
+        <v>0</v>
+      </c>
       <c r="R140" s="22"/>
       <c r="S140" s="22"/>
       <c r="T140" s="22"/>
@@ -24290,7 +24377,9 @@
       <c r="P141" s="22">
         <v>0</v>
       </c>
-      <c r="Q141" s="22"/>
+      <c r="Q141" s="22">
+        <v>0</v>
+      </c>
       <c r="R141" s="22"/>
       <c r="S141" s="22"/>
       <c r="T141" s="22"/>
@@ -24342,7 +24431,9 @@
       <c r="P142" s="22">
         <v>0</v>
       </c>
-      <c r="Q142" s="22"/>
+      <c r="Q142" s="22">
+        <v>0</v>
+      </c>
       <c r="R142" s="22"/>
       <c r="S142" s="22"/>
       <c r="T142" s="22"/>
@@ -24394,7 +24485,9 @@
       <c r="P143" s="22">
         <v>0</v>
       </c>
-      <c r="Q143" s="22"/>
+      <c r="Q143" s="22">
+        <v>0</v>
+      </c>
       <c r="R143" s="22"/>
       <c r="S143" s="22"/>
       <c r="T143" s="22"/>
@@ -24446,7 +24539,9 @@
       <c r="P144" s="22">
         <v>0</v>
       </c>
-      <c r="Q144" s="22"/>
+      <c r="Q144" s="22">
+        <v>0</v>
+      </c>
       <c r="R144" s="22"/>
       <c r="S144" s="22"/>
       <c r="T144" s="22"/>
@@ -24528,7 +24623,9 @@
       <c r="P146" s="19">
         <v>2</v>
       </c>
-      <c r="Q146" s="22"/>
+      <c r="Q146" s="19">
+        <v>2</v>
+      </c>
       <c r="R146" s="22"/>
       <c r="S146" s="22"/>
       <c r="T146" s="22"/>
@@ -24578,7 +24675,9 @@
       <c r="P147" s="19">
         <v>2</v>
       </c>
-      <c r="Q147" s="22"/>
+      <c r="Q147" s="19">
+        <v>2</v>
+      </c>
       <c r="R147" s="22"/>
       <c r="S147" s="22"/>
       <c r="T147" s="22"/>
@@ -24628,7 +24727,9 @@
       <c r="P148" s="19">
         <v>2</v>
       </c>
-      <c r="Q148" s="22"/>
+      <c r="Q148" s="19">
+        <v>2</v>
+      </c>
       <c r="R148" s="22"/>
       <c r="S148" s="22"/>
       <c r="T148" s="22"/>
@@ -24678,7 +24779,9 @@
       <c r="P149" s="19">
         <v>2</v>
       </c>
-      <c r="Q149" s="22"/>
+      <c r="Q149" s="19">
+        <v>2</v>
+      </c>
       <c r="R149" s="22"/>
       <c r="S149" s="22"/>
       <c r="T149" s="22"/>
@@ -24713,7 +24816,7 @@
       <c r="S150" s="22"/>
       <c r="T150" s="22"/>
     </row>
-    <row r="151" spans="1:20" hidden="1">
+    <row r="151" spans="1:20">
       <c r="A151" s="16">
         <v>155</v>
       </c>
@@ -24725,20 +24828,22 @@
       </c>
       <c r="D151" s="12"/>
       <c r="E151" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>完了</v>
       </c>
       <c r="F151" s="4">
         <v>43067</v>
       </c>
-      <c r="G151" s="4"/>
+      <c r="G151" s="4">
+        <v>43074</v>
+      </c>
       <c r="H151" s="19">
         <v>4</v>
       </c>
       <c r="I151" s="19"/>
       <c r="J151" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K151" s="22">
         <v>4</v>
@@ -24758,7 +24863,9 @@
       <c r="P151" s="22">
         <v>4</v>
       </c>
-      <c r="Q151" s="22"/>
+      <c r="Q151" s="22">
+        <v>0</v>
+      </c>
       <c r="R151" s="22"/>
       <c r="S151" s="22"/>
       <c r="T151" s="22"/>
@@ -24775,20 +24882,22 @@
       </c>
       <c r="D152" s="12"/>
       <c r="E152" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>完了</v>
       </c>
       <c r="F152" s="4">
         <v>43067</v>
       </c>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4">
+        <v>43074</v>
+      </c>
       <c r="H152" s="19">
         <v>4</v>
       </c>
       <c r="I152" s="19"/>
       <c r="J152" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K152" s="22">
         <v>4</v>
@@ -24808,7 +24917,9 @@
       <c r="P152" s="22">
         <v>4</v>
       </c>
-      <c r="Q152" s="22"/>
+      <c r="Q152" s="22">
+        <v>0</v>
+      </c>
       <c r="R152" s="22"/>
       <c r="S152" s="22"/>
       <c r="T152" s="22"/>
@@ -24930,7 +25041,9 @@
       <c r="P155" s="22">
         <v>3</v>
       </c>
-      <c r="Q155" s="22"/>
+      <c r="Q155" s="22">
+        <v>3</v>
+      </c>
       <c r="R155" s="22"/>
       <c r="S155" s="22"/>
       <c r="T155" s="22"/>
@@ -24980,12 +25093,14 @@
       <c r="P156" s="22">
         <v>4</v>
       </c>
-      <c r="Q156" s="22"/>
+      <c r="Q156" s="22">
+        <v>4</v>
+      </c>
       <c r="R156" s="22"/>
       <c r="S156" s="22"/>
       <c r="T156" s="22"/>
     </row>
-    <row r="157" spans="1:20">
+    <row r="157" spans="1:20" hidden="1">
       <c r="A157" s="16">
         <v>161</v>
       </c>
@@ -24997,20 +25112,22 @@
       </c>
       <c r="D157" s="12"/>
       <c r="E157" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>完了</v>
       </c>
       <c r="F157" s="4">
         <v>43074</v>
       </c>
-      <c r="G157" s="4"/>
+      <c r="G157" s="4">
+        <v>43074</v>
+      </c>
       <c r="H157" s="19">
         <v>4</v>
       </c>
       <c r="I157" s="19"/>
       <c r="J157" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K157" s="22">
         <v>4</v>
@@ -25030,60 +25147,62 @@
       <c r="P157" s="22">
         <v>4</v>
       </c>
-      <c r="Q157" s="22"/>
+      <c r="Q157" s="22">
+        <v>0</v>
+      </c>
       <c r="R157" s="22"/>
       <c r="S157" s="22"/>
       <c r="T157" s="22"/>
     </row>
-    <row r="158" spans="1:20">
+    <row r="158" spans="1:20" hidden="1">
       <c r="A158" s="16">
         <v>162</v>
       </c>
-      <c r="B158" s="130" t="s">
+      <c r="B158" s="106" t="s">
         <v>285</v>
       </c>
-      <c r="C158" s="131" t="s">
+      <c r="C158" s="107" t="s">
         <v>99</v>
       </c>
-      <c r="D158" s="132"/>
-      <c r="E158" s="132" t="str">
+      <c r="D158" s="108"/>
+      <c r="E158" s="108" t="str">
         <f t="shared" ca="1" si="11"/>
         <v>完了</v>
       </c>
-      <c r="F158" s="133">
+      <c r="F158" s="109">
         <v>43074</v>
       </c>
-      <c r="G158" s="133">
+      <c r="G158" s="109">
         <v>43075</v>
       </c>
-      <c r="H158" s="134">
+      <c r="H158" s="110">
         <v>4</v>
       </c>
-      <c r="I158" s="134"/>
-      <c r="J158" s="132">
+      <c r="I158" s="110"/>
+      <c r="J158" s="108">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="K158" s="135">
+      <c r="K158" s="111">
         <v>4</v>
       </c>
-      <c r="L158" s="135">
+      <c r="L158" s="111">
         <v>4</v>
       </c>
-      <c r="M158" s="135">
+      <c r="M158" s="111">
         <v>4</v>
       </c>
-      <c r="N158" s="135">
-        <v>0</v>
-      </c>
-      <c r="O158" s="135"/>
-      <c r="P158" s="135"/>
-      <c r="Q158" s="22"/>
+      <c r="N158" s="111">
+        <v>0</v>
+      </c>
+      <c r="O158" s="111"/>
+      <c r="P158" s="111"/>
+      <c r="Q158" s="111"/>
       <c r="R158" s="22"/>
       <c r="S158" s="22"/>
       <c r="T158" s="22"/>
     </row>
-    <row r="159" spans="1:20" hidden="1">
+    <row r="159" spans="1:20">
       <c r="A159" s="16">
         <v>163</v>
       </c>
@@ -25128,7 +25247,9 @@
       <c r="P159" s="22">
         <v>2</v>
       </c>
-      <c r="Q159" s="22"/>
+      <c r="Q159" s="22">
+        <v>2</v>
+      </c>
       <c r="R159" s="22"/>
       <c r="S159" s="22"/>
       <c r="T159" s="22"/>
@@ -25145,20 +25266,22 @@
       </c>
       <c r="D160" s="12"/>
       <c r="E160" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>完了</v>
       </c>
       <c r="F160" s="4">
         <v>43070</v>
       </c>
-      <c r="G160" s="4"/>
+      <c r="G160" s="4">
+        <v>43070</v>
+      </c>
       <c r="H160" s="19">
         <v>6</v>
       </c>
       <c r="I160" s="19"/>
       <c r="J160" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K160" s="22">
         <v>6</v>
@@ -25176,14 +25299,16 @@
         <v>6</v>
       </c>
       <c r="P160" s="22">
-        <v>6</v>
-      </c>
-      <c r="Q160" s="22"/>
+        <v>4</v>
+      </c>
+      <c r="Q160" s="22">
+        <v>0</v>
+      </c>
       <c r="R160" s="22"/>
       <c r="S160" s="22"/>
       <c r="T160" s="22"/>
     </row>
-    <row r="161" spans="1:20" hidden="1">
+    <row r="161" spans="1:20">
       <c r="A161" s="16">
         <v>165</v>
       </c>
@@ -25228,12 +25353,14 @@
       <c r="P161" s="22">
         <v>2</v>
       </c>
-      <c r="Q161" s="22"/>
+      <c r="Q161" s="22">
+        <v>2</v>
+      </c>
       <c r="R161" s="22"/>
       <c r="S161" s="22"/>
       <c r="T161" s="22"/>
     </row>
-    <row r="162" spans="1:20" hidden="1">
+    <row r="162" spans="1:20">
       <c r="A162" s="16">
         <v>166</v>
       </c>
@@ -25278,12 +25405,14 @@
       <c r="P162" s="22">
         <v>2</v>
       </c>
-      <c r="Q162" s="22"/>
+      <c r="Q162" s="22">
+        <v>2</v>
+      </c>
       <c r="R162" s="22"/>
       <c r="S162" s="22"/>
       <c r="T162" s="22"/>
     </row>
-    <row r="163" spans="1:20" hidden="1">
+    <row r="163" spans="1:20">
       <c r="A163" s="16">
         <v>167</v>
       </c>
@@ -25328,7 +25457,9 @@
       <c r="P163" s="22">
         <v>2</v>
       </c>
-      <c r="Q163" s="22"/>
+      <c r="Q163" s="22">
+        <v>2</v>
+      </c>
       <c r="R163" s="22"/>
       <c r="S163" s="22"/>
       <c r="T163" s="22"/>
@@ -25410,71 +25541,73 @@
       <c r="P165" s="22">
         <v>0</v>
       </c>
-      <c r="Q165" s="22"/>
+      <c r="Q165" s="22">
+        <v>0</v>
+      </c>
       <c r="R165" s="22"/>
       <c r="S165" s="22"/>
       <c r="T165" s="22"/>
     </row>
     <row r="166" spans="1:20" hidden="1">
-      <c r="A166" s="16">
+      <c r="A166" s="136">
         <v>170</v>
       </c>
-      <c r="B166" s="17" t="s">
+      <c r="B166" s="137" t="s">
         <v>292</v>
       </c>
-      <c r="C166" s="18"/>
-      <c r="D166" s="12"/>
-      <c r="E166" s="12" t="str">
+      <c r="C166" s="138"/>
+      <c r="D166" s="139"/>
+      <c r="E166" s="139" t="str">
         <f t="shared" si="11"/>
         <v>未着手</v>
       </c>
-      <c r="F166" s="4"/>
-      <c r="G166" s="4"/>
-      <c r="H166" s="19"/>
-      <c r="I166" s="19"/>
-      <c r="J166" s="12" t="str">
+      <c r="F166" s="140"/>
+      <c r="G166" s="140"/>
+      <c r="H166" s="141"/>
+      <c r="I166" s="141"/>
+      <c r="J166" s="139" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="K166" s="22"/>
-      <c r="L166" s="22"/>
-      <c r="M166" s="22"/>
-      <c r="N166" s="22"/>
-      <c r="O166" s="22"/>
-      <c r="P166" s="22"/>
-      <c r="Q166" s="22"/>
+      <c r="K166" s="142"/>
+      <c r="L166" s="142"/>
+      <c r="M166" s="142"/>
+      <c r="N166" s="142"/>
+      <c r="O166" s="142"/>
+      <c r="P166" s="142"/>
+      <c r="Q166" s="142"/>
       <c r="R166" s="22"/>
       <c r="S166" s="22"/>
       <c r="T166" s="22"/>
     </row>
     <row r="167" spans="1:20" hidden="1">
-      <c r="A167" s="16">
+      <c r="A167" s="136">
         <v>171</v>
       </c>
-      <c r="B167" s="17" t="s">
+      <c r="B167" s="137" t="s">
         <v>293</v>
       </c>
-      <c r="C167" s="18"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12" t="str">
+      <c r="C167" s="138"/>
+      <c r="D167" s="139"/>
+      <c r="E167" s="139" t="str">
         <f t="shared" si="11"/>
         <v>未着手</v>
       </c>
-      <c r="F167" s="4"/>
-      <c r="G167" s="4"/>
-      <c r="H167" s="19"/>
-      <c r="I167" s="19"/>
-      <c r="J167" s="12" t="str">
+      <c r="F167" s="140"/>
+      <c r="G167" s="140"/>
+      <c r="H167" s="141"/>
+      <c r="I167" s="141"/>
+      <c r="J167" s="139" t="str">
         <f t="shared" ca="1" si="12"/>
         <v/>
       </c>
-      <c r="K167" s="22"/>
-      <c r="L167" s="22"/>
-      <c r="M167" s="22"/>
-      <c r="N167" s="22"/>
-      <c r="O167" s="22"/>
-      <c r="P167" s="22"/>
-      <c r="Q167" s="22"/>
+      <c r="K167" s="142"/>
+      <c r="L167" s="142"/>
+      <c r="M167" s="142"/>
+      <c r="N167" s="142"/>
+      <c r="O167" s="142"/>
+      <c r="P167" s="142"/>
+      <c r="Q167" s="142"/>
       <c r="R167" s="22"/>
       <c r="S167" s="22"/>
       <c r="T167" s="22"/>
@@ -25552,7 +25685,9 @@
       <c r="P169" s="22">
         <v>2</v>
       </c>
-      <c r="Q169" s="22"/>
+      <c r="Q169" s="22">
+        <v>2</v>
+      </c>
       <c r="R169" s="22"/>
       <c r="S169" s="22"/>
       <c r="T169" s="22"/>
@@ -25591,7 +25726,7 @@
       <c r="S170" s="22"/>
       <c r="T170" s="22"/>
     </row>
-    <row r="171" spans="1:20">
+    <row r="171" spans="1:20" hidden="1">
       <c r="A171" s="16">
         <v>175</v>
       </c>
@@ -25625,7 +25760,7 @@
       <c r="S171" s="22"/>
       <c r="T171" s="22"/>
     </row>
-    <row r="172" spans="1:20">
+    <row r="172" spans="1:20" hidden="1">
       <c r="A172" s="16">
         <v>176</v>
       </c>
@@ -25701,24 +25836,42 @@
       </c>
       <c r="D174" s="12"/>
       <c r="E174" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v>未着手</v>
-      </c>
-      <c r="F174" s="4"/>
-      <c r="G174" s="4"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>完了</v>
+      </c>
+      <c r="F174" s="4">
+        <v>43074</v>
+      </c>
+      <c r="G174" s="4">
+        <v>43074</v>
+      </c>
       <c r="H174" s="19"/>
       <c r="I174" s="19"/>
-      <c r="J174" s="12" t="str">
+      <c r="J174" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K174" s="22"/>
-      <c r="L174" s="22"/>
-      <c r="M174" s="22"/>
-      <c r="N174" s="22"/>
-      <c r="O174" s="22"/>
-      <c r="P174" s="22"/>
-      <c r="Q174" s="22"/>
+        <v>0</v>
+      </c>
+      <c r="K174" s="22">
+        <v>2</v>
+      </c>
+      <c r="L174" s="22">
+        <v>2</v>
+      </c>
+      <c r="M174" s="22">
+        <v>2</v>
+      </c>
+      <c r="N174" s="22">
+        <v>2</v>
+      </c>
+      <c r="O174" s="22">
+        <v>2</v>
+      </c>
+      <c r="P174" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q174" s="22">
+        <v>0</v>
+      </c>
       <c r="R174" s="22"/>
       <c r="S174" s="22"/>
       <c r="T174" s="22"/>
@@ -25727,28 +25880,52 @@
       <c r="A175" s="16">
         <v>179</v>
       </c>
-      <c r="B175" s="17"/>
-      <c r="C175" s="18"/>
+      <c r="B175" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="C175" s="18" t="s">
+        <v>99</v>
+      </c>
       <c r="D175" s="12"/>
       <c r="E175" s="12" t="str">
-        <f t="shared" si="11"/>
-        <v/>
-      </c>
-      <c r="F175" s="4"/>
-      <c r="G175" s="4"/>
-      <c r="H175" s="19"/>
+        <f t="shared" ca="1" si="11"/>
+        <v>作業中</v>
+      </c>
+      <c r="F175" s="4">
+        <v>43074</v>
+      </c>
+      <c r="G175" s="4">
+        <v>43074</v>
+      </c>
+      <c r="H175" s="19">
+        <v>6</v>
+      </c>
       <c r="I175" s="19"/>
-      <c r="J175" s="12" t="str">
+      <c r="J175" s="12">
         <f t="shared" ca="1" si="12"/>
-        <v/>
-      </c>
-      <c r="K175" s="22"/>
-      <c r="L175" s="22"/>
-      <c r="M175" s="22"/>
-      <c r="N175" s="22"/>
-      <c r="O175" s="22"/>
-      <c r="P175" s="22"/>
-      <c r="Q175" s="22"/>
+        <v>2</v>
+      </c>
+      <c r="K175" s="22">
+        <v>6</v>
+      </c>
+      <c r="L175" s="22">
+        <v>6</v>
+      </c>
+      <c r="M175" s="22">
+        <v>6</v>
+      </c>
+      <c r="N175" s="22">
+        <v>6</v>
+      </c>
+      <c r="O175" s="22">
+        <v>6</v>
+      </c>
+      <c r="P175" s="22">
+        <v>6</v>
+      </c>
+      <c r="Q175" s="22">
+        <v>2</v>
+      </c>
       <c r="R175" s="22"/>
       <c r="S175" s="22"/>
       <c r="T175" s="22"/>
@@ -27209,7 +27386,7 @@
       <c r="H224" s="19"/>
       <c r="I224" s="19"/>
       <c r="J224" s="12" t="str">
-        <f t="shared" ref="J192:J255" ca="1" si="15">IF(ISBLANK(K224)=FALSE,OFFSET(J224,0,COUNTA(K224:O224)),"")</f>
+        <f t="shared" ref="J224:J255" ca="1" si="15">IF(ISBLANK(K224)=FALSE,OFFSET(J224,0,COUNTA(K224:O224)),"")</f>
         <v/>
       </c>
       <c r="K224" s="22"/>
@@ -29087,7 +29264,7 @@
   <autoFilter ref="A1:J286">
     <filterColumn colId="2">
       <filters>
-        <filter val="頼紀"/>
+        <filter val="進藤"/>
       </filters>
     </filterColumn>
     <sortState ref="A8:J286">
@@ -29095,176 +29272,202 @@
     </sortState>
   </autoFilter>
   <mergeCells count="11">
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="K1:T1"/>
     <mergeCell ref="F1:F4"/>
     <mergeCell ref="A1:A4"/>
     <mergeCell ref="B1:B4"/>
     <mergeCell ref="C1:C4"/>
     <mergeCell ref="D1:D4"/>
     <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="K1:T1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="E287:E65492">
-    <cfRule type="expression" dxfId="77" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="62" priority="94" stopIfTrue="1">
       <formula>E287="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="76" priority="89" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="95" stopIfTrue="1">
       <formula>E287="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="75" priority="90" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="96" stopIfTrue="1">
       <formula>OR(E287="終了",E287="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:T286">
-    <cfRule type="expression" dxfId="74" priority="93" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="99" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B287:B65492">
-    <cfRule type="expression" dxfId="73" priority="94" stopIfTrue="1">
+    <cfRule type="expression" dxfId="59" priority="100" stopIfTrue="1">
       <formula>E287="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="72" priority="95" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="101" stopIfTrue="1">
       <formula>E287="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="71" priority="96" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="102" stopIfTrue="1">
       <formula>OR(E287="終了",E287="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C287:D65492">
-    <cfRule type="expression" dxfId="70" priority="97" stopIfTrue="1">
+    <cfRule type="expression" dxfId="56" priority="103" stopIfTrue="1">
       <formula>E287="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="69" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="55" priority="104" stopIfTrue="1">
       <formula>E287="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="68" priority="99" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="105" stopIfTrue="1">
       <formula>OR(E287="終了",E287="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F287:Q65492">
-    <cfRule type="expression" dxfId="67" priority="100" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="106" stopIfTrue="1">
       <formula>$E287="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="101" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="107" stopIfTrue="1">
       <formula>$E287="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="65" priority="102" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="108" stopIfTrue="1">
       <formula>OR($E287="終了",$E287="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:D286">
-    <cfRule type="expression" dxfId="64" priority="85" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="91" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="63" priority="86" stopIfTrue="1">
+    <cfRule type="expression" dxfId="49" priority="92" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="62" priority="87" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="93" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:T250">
-    <cfRule type="expression" dxfId="40" priority="91" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="97" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B38">
-    <cfRule type="expression" dxfId="61" priority="82" stopIfTrue="1">
+    <cfRule type="expression" dxfId="47" priority="88" stopIfTrue="1">
       <formula>$E28="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="83" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="89" stopIfTrue="1">
       <formula>OR($E28="終了",$E28="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:B38">
-    <cfRule type="expression" dxfId="59" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="90" stopIfTrue="1">
       <formula>$E28="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C107">
-    <cfRule type="expression" dxfId="58" priority="20" stopIfTrue="1">
+    <cfRule type="expression" dxfId="44" priority="26" stopIfTrue="1">
       <formula>$E104="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="57" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="27" stopIfTrue="1">
       <formula>OR($E104="終了",$E104="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C104:C107">
-    <cfRule type="expression" dxfId="56" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="25" stopIfTrue="1">
       <formula>$E104="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L18 L43:L90 L20:L41">
-    <cfRule type="expression" dxfId="55" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="20" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="54" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="21" stopIfTrue="1">
       <formula>OR($E5="終了",$E5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5:L18 L43:L90 L20:L41">
-    <cfRule type="expression" dxfId="53" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="19" stopIfTrue="1">
       <formula>$E5="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B152">
-    <cfRule type="expression" dxfId="52" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="16" stopIfTrue="1">
       <formula>E152="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="51" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="17" stopIfTrue="1">
       <formula>E152="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="18" stopIfTrue="1">
       <formula>OR(E152="終了",E152="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M18 N8:P8 N10:P13 N15:P18 M20:P22">
-    <cfRule type="expression" dxfId="49" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="35" priority="14" stopIfTrue="1">
       <formula>$E6="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>OR($E6="終了",$E6="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M18 N8:P8 N10:P13 N15:P18 M20:P22">
-    <cfRule type="expression" dxfId="47" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="13" stopIfTrue="1">
       <formula>$E6="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M94">
-    <cfRule type="expression" dxfId="46" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="11" stopIfTrue="1">
       <formula>$E91="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="12" stopIfTrue="1">
       <formula>OR($E91="終了",$E91="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M91:M94">
-    <cfRule type="expression" dxfId="44" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="10" stopIfTrue="1">
       <formula>$E91="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M41 N77:P77 N39:P39 N41:P41 M43:M90 N36:P36 N34:P34 N79:P84 N44:P45 N86:P90 N66:P74">
-    <cfRule type="expression" dxfId="43" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="8" stopIfTrue="1">
       <formula>$E29="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="9" stopIfTrue="1">
       <formula>OR($E29="終了",$E29="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M29:M41 N77:P77 N39:P39 N41:P41 M43:M90 N36:P36 N34:P34 N79:P84 N44:P45 N86:P90 N66:P74">
-    <cfRule type="expression" dxfId="41" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>$E29="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:T287">
-    <cfRule type="expression" dxfId="39" priority="92" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="98" stopIfTrue="1">
       <formula>$E5="作業中"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8 Q10:Q13 Q15:Q18 Q20:Q22">
+    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
+      <formula>$E8="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="6" stopIfTrue="1">
+      <formula>OR($E8="終了",$E8="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8 Q10:Q13 Q15:Q18 Q20:Q22">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>$E8="未着手"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q77 Q39 Q41 Q36 Q34 Q79:Q84 Q44:Q45 Q86:Q90 Q66:Q74">
+    <cfRule type="expression" dxfId="5" priority="2" stopIfTrue="1">
+      <formula>$E34="作業中"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="3" stopIfTrue="1">
+      <formula>OR($E34="終了",$E34="完了")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q77 Q39 Q41 Q36 Q34 Q79:Q84 Q44:Q45 Q86:Q90 Q66:Q74">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>$E34="未着手"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
@@ -29310,53 +29513,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="8" customFormat="1" ht="15" customHeight="1">
-      <c r="A1" s="119" t="s">
+      <c r="A1" s="125" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="119" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="119" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="119" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="122" t="s">
+      <c r="B1" s="125" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="128" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="122" t="s">
+      <c r="F1" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="123" t="s">
+      <c r="G1" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="123" t="s">
+      <c r="H1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="119" t="s">
+      <c r="I1" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="116" t="s">
+      <c r="J1" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118"/>
-      <c r="O1" s="118"/>
-      <c r="P1" s="118"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="124"/>
+      <c r="O1" s="124"/>
+      <c r="P1" s="124"/>
     </row>
     <row r="2" spans="1:16" s="8" customFormat="1">
-      <c r="A2" s="119"/>
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="122"/>
-      <c r="F2" s="122"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="119"/>
+      <c r="A2" s="125"/>
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="125"/>
       <c r="J2" s="23" t="s">
         <v>56</v>
       </c>
@@ -29380,15 +29583,15 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="8" customFormat="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="124"/>
-      <c r="H3" s="124"/>
-      <c r="I3" s="119"/>
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="130"/>
+      <c r="I3" s="125"/>
       <c r="J3" s="20">
         <f>INT(($J$4-(COLUMN()-COLUMN($J4))*($J$4/COUNTA($J$2:$P$2))))</f>
         <v>0</v>
@@ -29401,15 +29604,15 @@
       <c r="P3" s="20"/>
     </row>
     <row r="4" spans="1:16" s="8" customFormat="1">
-      <c r="A4" s="119"/>
-      <c r="B4" s="120"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="119"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="124"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="119"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="125"/>
       <c r="J4" s="21">
         <f>SUM(J5:J104)</f>
         <v>0</v>
@@ -32508,57 +32711,57 @@
   </mergeCells>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="D105:D65536">
-    <cfRule type="expression" dxfId="95" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="1" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="94" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="2" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="93" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:XFD104">
-    <cfRule type="expression" dxfId="92" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>$D5="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="91" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>$D5="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="90" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>OR($D5="終了",$D5="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B105:B65536">
-    <cfRule type="expression" dxfId="89" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="7" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="88" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="87" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="9" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105:C65536">
-    <cfRule type="expression" dxfId="86" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="10" stopIfTrue="1">
       <formula>D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="85" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="11" stopIfTrue="1">
       <formula>D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="84" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>OR(D105="終了",D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E105:P65536">
-    <cfRule type="expression" dxfId="83" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>$D105="未着手"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="82" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="14" stopIfTrue="1">
       <formula>$D105="作業中"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="81" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="15" stopIfTrue="1">
       <formula>OR($D105="終了",$D105="完了")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33373,13 +33576,13 @@
   <autoFilter ref="B1:K51"/>
   <phoneticPr fontId="4"/>
   <conditionalFormatting sqref="A2:K51">
-    <cfRule type="expression" dxfId="80" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>$D2="要望"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="79" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>$D2="確認済"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="78" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>$D2="対応"</formula>
     </cfRule>
   </conditionalFormatting>
